--- a/Documents/Kickoff Talent Skills Spreadsheet.xlsx
+++ b/Documents/Kickoff Talent Skills Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\6 semester\Software Project Managment\Cloud-Kitchen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1158BE-45CA-4C6E-A9BD-DA121244D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2C051-AF12-45C0-8512-C1E89ABFCDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,14 +287,14 @@
     <t>Expert in putting animations and transitions in the video</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9 months (4 presenations)</t>
+    <t xml:space="preserve"> 9 months (4 videos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,12 +362,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -686,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -777,13 +771,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +792,63 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -811,63 +859,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="62" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -1224,7 +1215,7 @@
     <col min="7" max="7" width="49.19921875" customWidth="1"/>
     <col min="8" max="8" width="30.796875" customWidth="1"/>
     <col min="9" max="9" width="42.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" style="60" customWidth="1"/>
     <col min="11" max="11" width="11.69921875" customWidth="1"/>
     <col min="12" max="36" width="10.8984375" customWidth="1"/>
   </cols>
@@ -1239,7 +1230,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="58"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1279,7 +1270,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="59"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1323,7 +1314,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1365,7 +1356,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="61"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1402,7 +1393,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="62"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1435,22 +1426,22 @@
       <c r="B6" s="13"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1"/>
@@ -1501,7 +1492,7 @@
         <f t="shared" ref="I7:I8" si="0">HYPERLINK("https://www.figma.com/design/eCzUV3i3tALpBvOHxTyiU6/Cloud-Kitchen?node-id=0-1&amp;t=Z8vicOtkh9vImcOE-1", "Figma Designs")</f>
         <v>Figma Designs</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="57">
         <v>3</v>
       </c>
       <c r="K7" s="1"/>
@@ -1554,7 +1545,7 @@
         <f t="shared" si="0"/>
         <v>Figma Designs</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="57">
         <v>3</v>
       </c>
       <c r="K8" s="1"/>
@@ -1609,7 +1600,7 @@
         <f>HYPERLINK("https://github.com/Hamzanaseer514?tab=repositories", "Github Repositories")</f>
         <v>Github Repositories</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="58">
         <v>4</v>
       </c>
       <c r="K9" s="1"/>
@@ -1648,20 +1639,20 @@
         <v>25</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="49" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="28"/>
-      <c r="J10" s="65">
+      <c r="J10" s="57">
         <v>3</v>
       </c>
       <c r="K10" s="1"/>
@@ -1716,7 +1707,7 @@
         <f>HYPERLINK("https://github.com/Hamzanaseer514?tab=repositories", "Github Repositories")</f>
         <v>Github Repositories</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="58">
         <v>4</v>
       </c>
       <c r="K11" s="1"/>
@@ -1770,7 +1761,7 @@
       <c r="I12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="58">
         <v>4</v>
       </c>
       <c r="K12" s="1"/>
@@ -1821,7 +1812,7 @@
         <f>HYPERLINK("https://github.com/noorfatima262004?tab=repositories", "Github Repositories")</f>
         <v>Github Repositories</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="57">
         <v>3</v>
       </c>
       <c r="K13" s="1"/>
@@ -1872,7 +1863,7 @@
         <f>HYPERLINK("https://github.com/Hamzanaseer514?tab=repositories", "Github Repositories")</f>
         <v>Github Repositories</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="57">
         <v>3</v>
       </c>
       <c r="K14" s="1"/>
@@ -1904,10 +1895,10 @@
     </row>
     <row r="15" spans="1:36" ht="39.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="1"/>
       <c r="E15" s="24" t="s">
         <v>45</v>
@@ -1925,7 +1916,7 @@
         <f>HYPERLINK("https://pizza-pallate-sjfi-1zeoznnyr-noorfatima262004s-projects.vercel.app/", "Deployed Website")</f>
         <v>Deployed Website</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="57">
         <v>3</v>
       </c>
       <c r="K15" s="1"/>
@@ -1957,8 +1948,8 @@
     </row>
     <row r="16" spans="1:36" ht="39.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="1"/>
       <c r="E16" s="18" t="s">
         <v>48</v>
@@ -2005,8 +1996,8 @@
     </row>
     <row r="17" spans="1:36" ht="39.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="1"/>
       <c r="E17" s="14" t="s">
         <v>48</v>
@@ -2053,8 +2044,8 @@
     </row>
     <row r="18" spans="1:36" ht="39.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="1"/>
       <c r="E18" s="18" t="s">
         <v>53</v>
@@ -2071,7 +2062,7 @@
       <c r="I18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="57">
         <v>3</v>
       </c>
       <c r="K18" s="1"/>
@@ -2103,10 +2094,10 @@
     </row>
     <row r="19" spans="1:36" ht="39.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="1"/>
       <c r="E19" s="14" t="s">
         <v>58</v>
@@ -2120,10 +2111,10 @@
       <c r="H19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="57">
         <v>3</v>
       </c>
       <c r="K19" s="1"/>
@@ -2157,13 +2148,13 @@
     </row>
     <row r="20" spans="1:36" ht="39.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="1"/>
       <c r="E20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="45" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -2208,8 +2199,8 @@
     </row>
     <row r="21" spans="1:36" ht="39.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="1"/>
       <c r="E21" s="14" t="s">
         <v>66</v>
@@ -2259,8 +2250,8 @@
     </row>
     <row r="22" spans="1:36" ht="39.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="1"/>
       <c r="E22" s="18" t="s">
         <v>69</v>
@@ -2275,7 +2266,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="36"/>
-      <c r="J22" s="65">
+      <c r="J22" s="57">
         <v>3</v>
       </c>
       <c r="K22" s="1"/>
@@ -2307,25 +2298,25 @@
     </row>
     <row r="23" spans="1:36" ht="39.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="1"/>
       <c r="E23" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="58">
         <v>4</v>
       </c>
       <c r="K23" s="1"/>
@@ -2357,8 +2348,8 @@
     </row>
     <row r="24" spans="1:36" ht="39.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="1"/>
       <c r="E24" s="14" t="s">
         <v>73</v>
@@ -2376,7 +2367,7 @@
         <f>HYPERLINK("https://www.canva.com/design/DAGh6Bxc96E/0kHqHhtprDG69rdExJ2KLw/edit?utm_content=DAGh6Bxc96E&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton", "Canva Link")</f>
         <v>Canva Link</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="58">
         <v>4</v>
       </c>
       <c r="K24" s="1"/>
@@ -2408,16 +2399,16 @@
     </row>
     <row r="25" spans="1:36" ht="39.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>80</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -2427,7 +2418,7 @@
         <f>HYPERLINK("https://www.youtube.com/@NoorrayFatima", "Youtube channel Link")</f>
         <v>Youtube channel Link</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="58">
         <v>4</v>
       </c>
       <c r="K25" s="1"/>
@@ -2459,8 +2450,8 @@
     </row>
     <row r="26" spans="1:36" ht="39.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="1"/>
       <c r="E26" s="14" t="s">
         <v>79</v>
@@ -2475,7 +2466,7 @@
         <v>83</v>
       </c>
       <c r="I26" s="37"/>
-      <c r="J26" s="66">
+      <c r="J26" s="58">
         <v>4</v>
       </c>
       <c r="K26" s="1"/>
@@ -2507,15 +2498,15 @@
     </row>
     <row r="27" spans="1:36" ht="39.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="64"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2545,15 +2536,15 @@
     </row>
     <row r="28" spans="1:36" ht="39.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="58"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2583,15 +2574,15 @@
     </row>
     <row r="29" spans="1:36" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="58"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2631,7 +2622,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="58"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2669,7 +2660,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2707,7 +2698,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2745,7 +2736,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="50" t="s">
         <v>62</v>
       </c>
       <c r="K33" s="1"/>
@@ -2787,7 +2778,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="58"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2825,7 +2816,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="58"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2863,7 +2854,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="67"/>
+      <c r="J36" s="59"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2901,7 +2892,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="67"/>
+      <c r="J37" s="59"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2939,7 +2930,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="67"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2977,7 +2968,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="59"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3015,7 +3006,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="67"/>
+      <c r="J40" s="59"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3053,7 +3044,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="59"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3091,7 +3082,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="59"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3129,7 +3120,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3167,7 +3158,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="67"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3205,7 +3196,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="67"/>
+      <c r="J45" s="59"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3243,7 +3234,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="67"/>
+      <c r="J46" s="59"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3281,7 +3272,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="67"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3319,7 +3310,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="67"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3357,7 +3348,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="59"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3395,7 +3386,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="59"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3433,7 +3424,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="59"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3471,7 +3462,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="67"/>
+      <c r="J52" s="59"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3508,7 +3499,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="59"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3545,7 +3536,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="59"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3582,7 +3573,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="67"/>
+      <c r="J55" s="59"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3619,7 +3610,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="67"/>
+      <c r="J56" s="59"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3656,7 +3647,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="67"/>
+      <c r="J57" s="59"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3693,7 +3684,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="67"/>
+      <c r="J58" s="59"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3730,7 +3721,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="67"/>
+      <c r="J59" s="59"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -3767,7 +3758,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="67"/>
+      <c r="J60" s="59"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -3804,7 +3795,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="67"/>
+      <c r="J61" s="59"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -3841,7 +3832,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="67"/>
+      <c r="J62" s="59"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -3878,7 +3869,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="67"/>
+      <c r="J63" s="59"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3915,7 +3906,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="67"/>
+      <c r="J64" s="59"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3952,7 +3943,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="59"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3989,7 +3980,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="59"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4026,7 +4017,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="59"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4065,7 +4056,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="67"/>
+      <c r="J68" s="59"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4102,7 +4093,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="59"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4139,7 +4130,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="67"/>
+      <c r="J70" s="59"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4176,7 +4167,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="59"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4213,7 +4204,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="59"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4250,7 +4241,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="59"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4287,7 +4278,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="67"/>
+      <c r="J74" s="59"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4324,7 +4315,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="59"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4361,7 +4352,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="59"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4398,7 +4389,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="67"/>
+      <c r="J77" s="59"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -4435,7 +4426,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="67"/>
+      <c r="J78" s="59"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -4472,7 +4463,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="67"/>
+      <c r="J79" s="59"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -4509,7 +4500,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="67"/>
+      <c r="J80" s="59"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -4546,7 +4537,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="67"/>
+      <c r="J81" s="59"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -4583,7 +4574,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="67"/>
+      <c r="J82" s="59"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -4620,7 +4611,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="67"/>
+      <c r="J83" s="59"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -4657,7 +4648,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="67"/>
+      <c r="J84" s="59"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -4694,7 +4685,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="67"/>
+      <c r="J85" s="59"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -4731,7 +4722,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="67"/>
+      <c r="J86" s="59"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4768,7 +4759,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="67"/>
+      <c r="J87" s="59"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4805,7 +4796,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="67"/>
+      <c r="J88" s="59"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4842,7 +4833,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="67"/>
+      <c r="J89" s="59"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4879,7 +4870,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="67"/>
+      <c r="J90" s="59"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -4916,7 +4907,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="67"/>
+      <c r="J91" s="59"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -4953,7 +4944,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="67"/>
+      <c r="J92" s="59"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4990,7 +4981,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="67"/>
+      <c r="J93" s="59"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -5027,7 +5018,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="67"/>
+      <c r="J94" s="59"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -5064,7 +5055,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="67"/>
+      <c r="J95" s="59"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -5101,7 +5092,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="67"/>
+      <c r="J96" s="59"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -5138,7 +5129,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="67"/>
+      <c r="J97" s="59"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -5175,7 +5166,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="59"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -5212,7 +5203,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="67"/>
+      <c r="J99" s="59"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -5249,7 +5240,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="67"/>
+      <c r="J100" s="59"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -5286,7 +5277,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="67"/>
+      <c r="J101" s="59"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -5323,7 +5314,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="67"/>
+      <c r="J102" s="59"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -5360,7 +5351,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="67"/>
+      <c r="J103" s="59"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -5397,7 +5388,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="67"/>
+      <c r="J104" s="59"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -5434,7 +5425,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="67"/>
+      <c r="J105" s="59"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5471,7 +5462,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="67"/>
+      <c r="J106" s="59"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -5508,7 +5499,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="67"/>
+      <c r="J107" s="59"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5545,7 +5536,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="67"/>
+      <c r="J108" s="59"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5582,7 +5573,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="67"/>
+      <c r="J109" s="59"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -5619,7 +5610,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="J110" s="67"/>
+      <c r="J110" s="59"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -5656,7 +5647,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111" s="67"/>
+      <c r="J111" s="59"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -5693,7 +5684,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="67"/>
+      <c r="J112" s="59"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -5730,7 +5721,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="59"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -5767,7 +5758,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="67"/>
+      <c r="J114" s="59"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -5804,7 +5795,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="67"/>
+      <c r="J115" s="59"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -5841,7 +5832,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116" s="67"/>
+      <c r="J116" s="59"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -5878,7 +5869,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="67"/>
+      <c r="J117" s="59"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -5915,7 +5906,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="67"/>
+      <c r="J118" s="59"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -5952,7 +5943,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="59"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -5989,7 +5980,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="59"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -6026,7 +6017,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="59"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -6063,7 +6054,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-      <c r="J122" s="67"/>
+      <c r="J122" s="59"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -6100,7 +6091,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-      <c r="J123" s="67"/>
+      <c r="J123" s="59"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -6137,7 +6128,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124" s="67"/>
+      <c r="J124" s="59"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -6174,7 +6165,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="J125" s="67"/>
+      <c r="J125" s="59"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -6211,7 +6202,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="59"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -6248,7 +6239,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="59"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -6285,7 +6276,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="67"/>
+      <c r="J128" s="59"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -6322,7 +6313,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="67"/>
+      <c r="J129" s="59"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -6359,7 +6350,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="67"/>
+      <c r="J130" s="59"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -6396,7 +6387,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131" s="67"/>
+      <c r="J131" s="59"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -6433,7 +6424,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132" s="67"/>
+      <c r="J132" s="59"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -6470,7 +6461,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-      <c r="J133" s="67"/>
+      <c r="J133" s="59"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -6507,7 +6498,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
-      <c r="J134" s="67"/>
+      <c r="J134" s="59"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -6544,7 +6535,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135" s="67"/>
+      <c r="J135" s="59"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -6581,7 +6572,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
-      <c r="J136" s="67"/>
+      <c r="J136" s="59"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -6618,7 +6609,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
-      <c r="J137" s="67"/>
+      <c r="J137" s="59"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -6655,7 +6646,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="67"/>
+      <c r="J138" s="59"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -6692,7 +6683,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-      <c r="J139" s="67"/>
+      <c r="J139" s="59"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
@@ -6729,7 +6720,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="67"/>
+      <c r="J140" s="59"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -6766,7 +6757,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="67"/>
+      <c r="J141" s="59"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -6803,7 +6794,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-      <c r="J142" s="67"/>
+      <c r="J142" s="59"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -6840,7 +6831,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-      <c r="J143" s="67"/>
+      <c r="J143" s="59"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -6877,7 +6868,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="67"/>
+      <c r="J144" s="59"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -6914,7 +6905,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="67"/>
+      <c r="J145" s="59"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -6951,7 +6942,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="67"/>
+      <c r="J146" s="59"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -6988,7 +6979,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="67"/>
+      <c r="J147" s="59"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -7025,7 +7016,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="J148" s="67"/>
+      <c r="J148" s="59"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -7062,7 +7053,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
-      <c r="J149" s="67"/>
+      <c r="J149" s="59"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -7099,7 +7090,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="J150" s="67"/>
+      <c r="J150" s="59"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
@@ -7136,7 +7127,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
-      <c r="J151" s="67"/>
+      <c r="J151" s="59"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -7173,7 +7164,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-      <c r="J152" s="67"/>
+      <c r="J152" s="59"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -7210,7 +7201,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="67"/>
+      <c r="J153" s="59"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -7247,7 +7238,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="67"/>
+      <c r="J154" s="59"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -7284,7 +7275,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="67"/>
+      <c r="J155" s="59"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -7321,7 +7312,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
-      <c r="J156" s="67"/>
+      <c r="J156" s="59"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -7358,7 +7349,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="67"/>
+      <c r="J157" s="59"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -7395,7 +7386,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
-      <c r="J158" s="67"/>
+      <c r="J158" s="59"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -7432,7 +7423,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
-      <c r="J159" s="67"/>
+      <c r="J159" s="59"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -7469,7 +7460,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="67"/>
+      <c r="J160" s="59"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -7506,7 +7497,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
-      <c r="J161" s="67"/>
+      <c r="J161" s="59"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -7543,7 +7534,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="67"/>
+      <c r="J162" s="59"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -7580,7 +7571,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="67"/>
+      <c r="J163" s="59"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -7617,7 +7608,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="67"/>
+      <c r="J164" s="59"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -7654,7 +7645,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
-      <c r="J165" s="67"/>
+      <c r="J165" s="59"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -7691,7 +7682,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
-      <c r="J166" s="67"/>
+      <c r="J166" s="59"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -7728,7 +7719,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
-      <c r="J167" s="67"/>
+      <c r="J167" s="59"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -7765,7 +7756,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
-      <c r="J168" s="67"/>
+      <c r="J168" s="59"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -7802,7 +7793,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
-      <c r="J169" s="67"/>
+      <c r="J169" s="59"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -7839,7 +7830,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
-      <c r="J170" s="67"/>
+      <c r="J170" s="59"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -7876,7 +7867,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
-      <c r="J171" s="67"/>
+      <c r="J171" s="59"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -7913,7 +7904,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
-      <c r="J172" s="67"/>
+      <c r="J172" s="59"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -7950,7 +7941,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
-      <c r="J173" s="67"/>
+      <c r="J173" s="59"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
@@ -7987,7 +7978,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
-      <c r="J174" s="67"/>
+      <c r="J174" s="59"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -8024,7 +8015,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
-      <c r="J175" s="67"/>
+      <c r="J175" s="59"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -8061,7 +8052,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-      <c r="J176" s="67"/>
+      <c r="J176" s="59"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -8098,7 +8089,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-      <c r="J177" s="67"/>
+      <c r="J177" s="59"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -8135,7 +8126,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-      <c r="J178" s="67"/>
+      <c r="J178" s="59"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -8172,7 +8163,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
-      <c r="J179" s="67"/>
+      <c r="J179" s="59"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -8209,7 +8200,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
-      <c r="J180" s="67"/>
+      <c r="J180" s="59"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -8246,7 +8237,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
-      <c r="J181" s="67"/>
+      <c r="J181" s="59"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -8283,7 +8274,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-      <c r="J182" s="67"/>
+      <c r="J182" s="59"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -8320,7 +8311,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="67"/>
+      <c r="J183" s="59"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -8357,7 +8348,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-      <c r="J184" s="67"/>
+      <c r="J184" s="59"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -8394,7 +8385,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="67"/>
+      <c r="J185" s="59"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -8431,7 +8422,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
-      <c r="J186" s="67"/>
+      <c r="J186" s="59"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -8468,7 +8459,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-      <c r="J187" s="67"/>
+      <c r="J187" s="59"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -8505,7 +8496,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
-      <c r="J188" s="67"/>
+      <c r="J188" s="59"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
@@ -8542,7 +8533,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
-      <c r="J189" s="67"/>
+      <c r="J189" s="59"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -8579,7 +8570,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
-      <c r="J190" s="67"/>
+      <c r="J190" s="59"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
@@ -8616,7 +8607,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
-      <c r="J191" s="67"/>
+      <c r="J191" s="59"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -8653,7 +8644,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
-      <c r="J192" s="67"/>
+      <c r="J192" s="59"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -8690,7 +8681,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
-      <c r="J193" s="67"/>
+      <c r="J193" s="59"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -8727,7 +8718,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
-      <c r="J194" s="67"/>
+      <c r="J194" s="59"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
@@ -8764,7 +8755,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
-      <c r="J195" s="67"/>
+      <c r="J195" s="59"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
@@ -8801,7 +8792,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="J196" s="67"/>
+      <c r="J196" s="59"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
@@ -8838,7 +8829,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
-      <c r="J197" s="67"/>
+      <c r="J197" s="59"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
@@ -8875,7 +8866,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
-      <c r="J198" s="67"/>
+      <c r="J198" s="59"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -8912,7 +8903,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
-      <c r="J199" s="67"/>
+      <c r="J199" s="59"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
@@ -8949,7 +8940,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
-      <c r="J200" s="67"/>
+      <c r="J200" s="59"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
@@ -8986,7 +8977,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
-      <c r="J201" s="67"/>
+      <c r="J201" s="59"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
@@ -9023,7 +9014,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
-      <c r="J202" s="67"/>
+      <c r="J202" s="59"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
@@ -9060,7 +9051,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="67"/>
+      <c r="J203" s="59"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
@@ -9097,7 +9088,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
-      <c r="J204" s="67"/>
+      <c r="J204" s="59"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
@@ -9134,7 +9125,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
-      <c r="J205" s="67"/>
+      <c r="J205" s="59"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
@@ -9171,7 +9162,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
-      <c r="J206" s="67"/>
+      <c r="J206" s="59"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
@@ -9208,7 +9199,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
-      <c r="J207" s="67"/>
+      <c r="J207" s="59"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
@@ -9245,7 +9236,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
-      <c r="J208" s="67"/>
+      <c r="J208" s="59"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
@@ -9282,7 +9273,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
-      <c r="J209" s="67"/>
+      <c r="J209" s="59"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
@@ -9319,7 +9310,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
-      <c r="J210" s="67"/>
+      <c r="J210" s="59"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -9356,7 +9347,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
-      <c r="J211" s="67"/>
+      <c r="J211" s="59"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -9393,7 +9384,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-      <c r="J212" s="67"/>
+      <c r="J212" s="59"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
@@ -9430,7 +9421,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="67"/>
+      <c r="J213" s="59"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
@@ -9467,7 +9458,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
-      <c r="J214" s="67"/>
+      <c r="J214" s="59"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
@@ -9504,7 +9495,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
-      <c r="J215" s="67"/>
+      <c r="J215" s="59"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
@@ -9541,7 +9532,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
-      <c r="J216" s="67"/>
+      <c r="J216" s="59"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
@@ -9578,7 +9569,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
-      <c r="J217" s="67"/>
+      <c r="J217" s="59"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
@@ -9615,7 +9606,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
-      <c r="J218" s="67"/>
+      <c r="J218" s="59"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
@@ -9652,7 +9643,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
-      <c r="J219" s="67"/>
+      <c r="J219" s="59"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
@@ -9689,7 +9680,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
-      <c r="J220" s="67"/>
+      <c r="J220" s="59"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
@@ -9726,7 +9717,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="67"/>
+      <c r="J221" s="59"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
@@ -9763,7 +9754,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
-      <c r="J222" s="67"/>
+      <c r="J222" s="59"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
@@ -9800,7 +9791,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
-      <c r="J223" s="67"/>
+      <c r="J223" s="59"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
@@ -9837,7 +9828,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
-      <c r="J224" s="67"/>
+      <c r="J224" s="59"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
@@ -9874,7 +9865,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
-      <c r="J225" s="67"/>
+      <c r="J225" s="59"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
@@ -9911,7 +9902,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
-      <c r="J226" s="67"/>
+      <c r="J226" s="59"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
@@ -9948,7 +9939,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
-      <c r="J227" s="67"/>
+      <c r="J227" s="59"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
@@ -9985,7 +9976,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
-      <c r="J228" s="67"/>
+      <c r="J228" s="59"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
@@ -10022,7 +10013,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-      <c r="J229" s="67"/>
+      <c r="J229" s="59"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
@@ -10059,7 +10050,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
-      <c r="J230" s="67"/>
+      <c r="J230" s="59"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
@@ -10096,7 +10087,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
-      <c r="J231" s="67"/>
+      <c r="J231" s="59"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
@@ -10133,7 +10124,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
-      <c r="J232" s="67"/>
+      <c r="J232" s="59"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
@@ -10170,7 +10161,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
-      <c r="J233" s="67"/>
+      <c r="J233" s="59"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
@@ -10207,7 +10198,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
-      <c r="J234" s="67"/>
+      <c r="J234" s="59"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
@@ -10244,7 +10235,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
-      <c r="J235" s="67"/>
+      <c r="J235" s="59"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
@@ -10281,7 +10272,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
-      <c r="J236" s="67"/>
+      <c r="J236" s="59"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
@@ -10318,7 +10309,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
-      <c r="J237" s="67"/>
+      <c r="J237" s="59"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
@@ -10355,7 +10346,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
-      <c r="J238" s="67"/>
+      <c r="J238" s="59"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
@@ -10392,7 +10383,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
-      <c r="J239" s="67"/>
+      <c r="J239" s="59"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
@@ -10429,7 +10420,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
-      <c r="J240" s="67"/>
+      <c r="J240" s="59"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
@@ -10466,7 +10457,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
-      <c r="J241" s="67"/>
+      <c r="J241" s="59"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
@@ -10503,7 +10494,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
-      <c r="J242" s="67"/>
+      <c r="J242" s="59"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
@@ -10540,7 +10531,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
-      <c r="J243" s="67"/>
+      <c r="J243" s="59"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
@@ -10577,7 +10568,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
-      <c r="J244" s="67"/>
+      <c r="J244" s="59"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
@@ -10614,7 +10605,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
-      <c r="J245" s="67"/>
+      <c r="J245" s="59"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
@@ -10651,7 +10642,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
-      <c r="J246" s="67"/>
+      <c r="J246" s="59"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
@@ -10688,7 +10679,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
-      <c r="J247" s="67"/>
+      <c r="J247" s="59"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
@@ -10725,7 +10716,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
-      <c r="J248" s="67"/>
+      <c r="J248" s="59"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
@@ -10762,7 +10753,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
-      <c r="J249" s="67"/>
+      <c r="J249" s="59"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
@@ -10799,7 +10790,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
-      <c r="J250" s="67"/>
+      <c r="J250" s="59"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
@@ -10836,7 +10827,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
-      <c r="J251" s="67"/>
+      <c r="J251" s="59"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
@@ -10873,7 +10864,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
-      <c r="J252" s="67"/>
+      <c r="J252" s="59"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
@@ -10910,7 +10901,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
-      <c r="J253" s="67"/>
+      <c r="J253" s="59"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
@@ -10947,7 +10938,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
-      <c r="J254" s="67"/>
+      <c r="J254" s="59"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
@@ -10984,7 +10975,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
-      <c r="J255" s="67"/>
+      <c r="J255" s="59"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
@@ -11021,7 +11012,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
-      <c r="J256" s="67"/>
+      <c r="J256" s="59"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
@@ -11058,7 +11049,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
-      <c r="J257" s="67"/>
+      <c r="J257" s="59"/>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
@@ -11095,7 +11086,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
-      <c r="J258" s="67"/>
+      <c r="J258" s="59"/>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
@@ -11132,7 +11123,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
-      <c r="J259" s="67"/>
+      <c r="J259" s="59"/>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
@@ -11169,7 +11160,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
-      <c r="J260" s="67"/>
+      <c r="J260" s="59"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
@@ -11206,7 +11197,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
-      <c r="J261" s="67"/>
+      <c r="J261" s="59"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
@@ -11243,7 +11234,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-      <c r="J262" s="67"/>
+      <c r="J262" s="59"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
@@ -11280,7 +11271,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
-      <c r="J263" s="67"/>
+      <c r="J263" s="59"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
@@ -11317,7 +11308,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
-      <c r="J264" s="67"/>
+      <c r="J264" s="59"/>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
@@ -11354,7 +11345,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
-      <c r="J265" s="67"/>
+      <c r="J265" s="59"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
@@ -11388,7 +11379,7 @@
       <c r="D266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
-      <c r="J266" s="67"/>
+      <c r="J266" s="59"/>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
@@ -11422,7 +11413,7 @@
       <c r="D267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
-      <c r="J267" s="67"/>
+      <c r="J267" s="59"/>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
@@ -11454,5152 +11445,5152 @@
       <c r="A268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
-      <c r="J268" s="67"/>
+      <c r="J268" s="59"/>
       <c r="K268" s="2"/>
     </row>
     <row r="269" spans="1:36" ht="15.6">
       <c r="A269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
-      <c r="J269" s="67"/>
+      <c r="J269" s="59"/>
       <c r="K269" s="2"/>
     </row>
     <row r="270" spans="1:36" ht="15.6">
       <c r="A270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
-      <c r="J270" s="67"/>
+      <c r="J270" s="59"/>
       <c r="K270" s="2"/>
     </row>
     <row r="271" spans="1:36" ht="15.6">
       <c r="A271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
-      <c r="J271" s="67"/>
+      <c r="J271" s="59"/>
       <c r="K271" s="2"/>
     </row>
     <row r="272" spans="1:36" ht="15.6">
       <c r="A272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="67"/>
+      <c r="J272" s="59"/>
       <c r="K272" s="2"/>
     </row>
     <row r="273" spans="1:11" ht="15.6">
       <c r="A273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
-      <c r="J273" s="67"/>
+      <c r="J273" s="59"/>
       <c r="K273" s="2"/>
     </row>
     <row r="274" spans="1:11" ht="15.6">
       <c r="A274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
-      <c r="J274" s="67"/>
+      <c r="J274" s="59"/>
       <c r="K274" s="2"/>
     </row>
     <row r="275" spans="1:11" ht="15.6">
       <c r="A275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
-      <c r="J275" s="67"/>
+      <c r="J275" s="59"/>
       <c r="K275" s="2"/>
     </row>
     <row r="276" spans="1:11" ht="15.6">
       <c r="A276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
-      <c r="J276" s="67"/>
+      <c r="J276" s="59"/>
       <c r="K276" s="2"/>
     </row>
     <row r="277" spans="1:11" ht="15.6">
       <c r="A277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
-      <c r="J277" s="67"/>
+      <c r="J277" s="59"/>
       <c r="K277" s="2"/>
     </row>
     <row r="278" spans="1:11" ht="15.6">
       <c r="A278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
-      <c r="J278" s="67"/>
+      <c r="J278" s="59"/>
       <c r="K278" s="2"/>
     </row>
     <row r="279" spans="1:11" ht="15.6">
       <c r="A279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
-      <c r="J279" s="67"/>
+      <c r="J279" s="59"/>
       <c r="K279" s="2"/>
     </row>
     <row r="280" spans="1:11" ht="15.6">
       <c r="A280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
-      <c r="J280" s="67"/>
+      <c r="J280" s="59"/>
       <c r="K280" s="2"/>
     </row>
     <row r="281" spans="1:11" ht="15.6">
       <c r="A281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
-      <c r="J281" s="67"/>
+      <c r="J281" s="59"/>
       <c r="K281" s="2"/>
     </row>
     <row r="282" spans="1:11" ht="15.6">
       <c r="A282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
-      <c r="J282" s="67"/>
+      <c r="J282" s="59"/>
       <c r="K282" s="2"/>
     </row>
     <row r="283" spans="1:11" ht="15.6">
       <c r="A283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
-      <c r="J283" s="67"/>
+      <c r="J283" s="59"/>
       <c r="K283" s="2"/>
     </row>
     <row r="284" spans="1:11" ht="15.6">
       <c r="A284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
-      <c r="J284" s="67"/>
+      <c r="J284" s="59"/>
       <c r="K284" s="2"/>
     </row>
     <row r="285" spans="1:11" ht="15.6">
       <c r="A285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
-      <c r="J285" s="67"/>
+      <c r="J285" s="59"/>
       <c r="K285" s="2"/>
     </row>
     <row r="286" spans="1:11" ht="15.6">
       <c r="A286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
-      <c r="J286" s="67"/>
+      <c r="J286" s="59"/>
       <c r="K286" s="2"/>
     </row>
     <row r="287" spans="1:11" ht="15.6">
       <c r="A287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
-      <c r="J287" s="67"/>
+      <c r="J287" s="59"/>
       <c r="K287" s="2"/>
     </row>
     <row r="288" spans="1:11" ht="15.6">
       <c r="A288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
-      <c r="J288" s="67"/>
+      <c r="J288" s="59"/>
       <c r="K288" s="2"/>
     </row>
     <row r="289" spans="1:11" ht="15.6">
       <c r="A289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
-      <c r="J289" s="67"/>
+      <c r="J289" s="59"/>
       <c r="K289" s="2"/>
     </row>
     <row r="290" spans="1:11" ht="15.6">
       <c r="A290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
-      <c r="J290" s="67"/>
+      <c r="J290" s="59"/>
       <c r="K290" s="2"/>
     </row>
     <row r="291" spans="1:11" ht="15.6">
       <c r="A291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
-      <c r="J291" s="67"/>
+      <c r="J291" s="59"/>
       <c r="K291" s="2"/>
     </row>
     <row r="292" spans="1:11" ht="15.6">
       <c r="A292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
-      <c r="J292" s="67"/>
+      <c r="J292" s="59"/>
       <c r="K292" s="2"/>
     </row>
     <row r="293" spans="1:11" ht="15.6">
       <c r="A293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
-      <c r="J293" s="67"/>
+      <c r="J293" s="59"/>
       <c r="K293" s="2"/>
     </row>
     <row r="294" spans="1:11" ht="15.6">
       <c r="A294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
-      <c r="J294" s="67"/>
+      <c r="J294" s="59"/>
       <c r="K294" s="2"/>
     </row>
     <row r="295" spans="1:11" ht="15.6">
       <c r="A295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
-      <c r="J295" s="67"/>
+      <c r="J295" s="59"/>
       <c r="K295" s="2"/>
     </row>
     <row r="296" spans="1:11" ht="15.6">
       <c r="A296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
-      <c r="J296" s="67"/>
+      <c r="J296" s="59"/>
       <c r="K296" s="2"/>
     </row>
     <row r="297" spans="1:11" ht="15.6">
       <c r="A297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
-      <c r="J297" s="67"/>
+      <c r="J297" s="59"/>
       <c r="K297" s="2"/>
     </row>
     <row r="298" spans="1:11" ht="15.6">
       <c r="A298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
-      <c r="J298" s="67"/>
+      <c r="J298" s="59"/>
       <c r="K298" s="2"/>
     </row>
     <row r="299" spans="1:11" ht="15.6">
       <c r="A299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
-      <c r="J299" s="67"/>
+      <c r="J299" s="59"/>
       <c r="K299" s="2"/>
     </row>
     <row r="300" spans="1:11" ht="15.6">
       <c r="A300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
-      <c r="J300" s="67"/>
+      <c r="J300" s="59"/>
       <c r="K300" s="2"/>
     </row>
     <row r="301" spans="1:11" ht="15.6">
       <c r="A301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
-      <c r="J301" s="67"/>
+      <c r="J301" s="59"/>
       <c r="K301" s="2"/>
     </row>
     <row r="302" spans="1:11" ht="15.6">
       <c r="A302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
-      <c r="J302" s="67"/>
+      <c r="J302" s="59"/>
       <c r="K302" s="2"/>
     </row>
     <row r="303" spans="1:11" ht="15.6">
       <c r="A303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
-      <c r="J303" s="67"/>
+      <c r="J303" s="59"/>
       <c r="K303" s="2"/>
     </row>
     <row r="304" spans="1:11" ht="15.6">
       <c r="A304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
-      <c r="J304" s="67"/>
+      <c r="J304" s="59"/>
       <c r="K304" s="2"/>
     </row>
     <row r="305" spans="1:11" ht="15.6">
       <c r="A305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
-      <c r="J305" s="67"/>
+      <c r="J305" s="59"/>
       <c r="K305" s="2"/>
     </row>
     <row r="306" spans="1:11" ht="15.6">
       <c r="A306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
-      <c r="J306" s="67"/>
+      <c r="J306" s="59"/>
       <c r="K306" s="2"/>
     </row>
     <row r="307" spans="1:11" ht="15.6">
       <c r="A307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
-      <c r="J307" s="67"/>
+      <c r="J307" s="59"/>
       <c r="K307" s="2"/>
     </row>
     <row r="308" spans="1:11" ht="15.6">
       <c r="A308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
-      <c r="J308" s="67"/>
+      <c r="J308" s="59"/>
       <c r="K308" s="2"/>
     </row>
     <row r="309" spans="1:11" ht="15.6">
       <c r="A309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
-      <c r="J309" s="67"/>
+      <c r="J309" s="59"/>
       <c r="K309" s="2"/>
     </row>
     <row r="310" spans="1:11" ht="15.6">
       <c r="A310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
-      <c r="J310" s="67"/>
+      <c r="J310" s="59"/>
       <c r="K310" s="2"/>
     </row>
     <row r="311" spans="1:11" ht="15.6">
       <c r="A311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
-      <c r="J311" s="67"/>
+      <c r="J311" s="59"/>
       <c r="K311" s="2"/>
     </row>
     <row r="312" spans="1:11" ht="15.6">
       <c r="A312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
-      <c r="J312" s="67"/>
+      <c r="J312" s="59"/>
       <c r="K312" s="2"/>
     </row>
     <row r="313" spans="1:11" ht="15.6">
       <c r="A313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
-      <c r="J313" s="67"/>
+      <c r="J313" s="59"/>
       <c r="K313" s="2"/>
     </row>
     <row r="314" spans="1:11" ht="15.6">
       <c r="A314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
-      <c r="J314" s="67"/>
+      <c r="J314" s="59"/>
       <c r="K314" s="2"/>
     </row>
     <row r="315" spans="1:11" ht="15.6">
       <c r="A315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
-      <c r="J315" s="67"/>
+      <c r="J315" s="59"/>
       <c r="K315" s="2"/>
     </row>
     <row r="316" spans="1:11" ht="15.6">
       <c r="A316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
-      <c r="J316" s="67"/>
+      <c r="J316" s="59"/>
       <c r="K316" s="2"/>
     </row>
     <row r="317" spans="1:11" ht="15.6">
       <c r="A317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
-      <c r="J317" s="67"/>
+      <c r="J317" s="59"/>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="1:11" ht="15.6">
       <c r="A318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
-      <c r="J318" s="67"/>
+      <c r="J318" s="59"/>
       <c r="K318" s="2"/>
     </row>
     <row r="319" spans="1:11" ht="15.6">
       <c r="A319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
-      <c r="J319" s="67"/>
+      <c r="J319" s="59"/>
       <c r="K319" s="2"/>
     </row>
     <row r="320" spans="1:11" ht="15.6">
       <c r="A320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
-      <c r="J320" s="67"/>
+      <c r="J320" s="59"/>
       <c r="K320" s="2"/>
     </row>
     <row r="321" spans="1:11" ht="15.6">
       <c r="A321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
-      <c r="J321" s="67"/>
+      <c r="J321" s="59"/>
       <c r="K321" s="2"/>
     </row>
     <row r="322" spans="1:11" ht="15.6">
       <c r="A322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
-      <c r="J322" s="67"/>
+      <c r="J322" s="59"/>
       <c r="K322" s="2"/>
     </row>
     <row r="323" spans="1:11" ht="15.6">
       <c r="A323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
-      <c r="J323" s="67"/>
+      <c r="J323" s="59"/>
       <c r="K323" s="2"/>
     </row>
     <row r="324" spans="1:11" ht="15.6">
       <c r="A324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
-      <c r="J324" s="67"/>
+      <c r="J324" s="59"/>
       <c r="K324" s="2"/>
     </row>
     <row r="325" spans="1:11" ht="15.6">
       <c r="A325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
-      <c r="J325" s="67"/>
+      <c r="J325" s="59"/>
       <c r="K325" s="2"/>
     </row>
     <row r="326" spans="1:11" ht="15.6">
       <c r="A326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
-      <c r="J326" s="67"/>
+      <c r="J326" s="59"/>
       <c r="K326" s="2"/>
     </row>
     <row r="327" spans="1:11" ht="15.6">
       <c r="A327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
-      <c r="J327" s="67"/>
+      <c r="J327" s="59"/>
       <c r="K327" s="2"/>
     </row>
     <row r="328" spans="1:11" ht="15.6">
       <c r="A328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
-      <c r="J328" s="67"/>
+      <c r="J328" s="59"/>
       <c r="K328" s="2"/>
     </row>
     <row r="329" spans="1:11" ht="15.6">
       <c r="A329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
-      <c r="J329" s="67"/>
+      <c r="J329" s="59"/>
       <c r="K329" s="2"/>
     </row>
     <row r="330" spans="1:11" ht="15.6">
       <c r="A330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
-      <c r="J330" s="67"/>
+      <c r="J330" s="59"/>
       <c r="K330" s="2"/>
     </row>
     <row r="331" spans="1:11" ht="15.6">
       <c r="A331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
-      <c r="J331" s="67"/>
+      <c r="J331" s="59"/>
       <c r="K331" s="2"/>
     </row>
     <row r="332" spans="1:11" ht="15.6">
       <c r="A332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
-      <c r="J332" s="67"/>
+      <c r="J332" s="59"/>
       <c r="K332" s="2"/>
     </row>
     <row r="333" spans="1:11" ht="15.6">
       <c r="A333" s="2"/>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
-      <c r="J333" s="67"/>
+      <c r="J333" s="59"/>
       <c r="K333" s="2"/>
     </row>
     <row r="334" spans="1:11" ht="15.6">
       <c r="A334" s="2"/>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
-      <c r="J334" s="67"/>
+      <c r="J334" s="59"/>
       <c r="K334" s="2"/>
     </row>
     <row r="335" spans="1:11" ht="15.6">
       <c r="A335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
-      <c r="J335" s="67"/>
+      <c r="J335" s="59"/>
       <c r="K335" s="2"/>
     </row>
     <row r="336" spans="1:11" ht="15.6">
       <c r="A336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
-      <c r="J336" s="67"/>
+      <c r="J336" s="59"/>
       <c r="K336" s="2"/>
     </row>
     <row r="337" spans="1:11" ht="15.6">
       <c r="A337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
-      <c r="J337" s="67"/>
+      <c r="J337" s="59"/>
       <c r="K337" s="2"/>
     </row>
     <row r="338" spans="1:11" ht="15.6">
       <c r="A338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
-      <c r="J338" s="67"/>
+      <c r="J338" s="59"/>
       <c r="K338" s="2"/>
     </row>
     <row r="339" spans="1:11" ht="15.6">
       <c r="A339" s="2"/>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
-      <c r="J339" s="67"/>
+      <c r="J339" s="59"/>
       <c r="K339" s="2"/>
     </row>
     <row r="340" spans="1:11" ht="15.6">
       <c r="A340" s="2"/>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
-      <c r="J340" s="67"/>
+      <c r="J340" s="59"/>
       <c r="K340" s="2"/>
     </row>
     <row r="341" spans="1:11" ht="15.6">
       <c r="A341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
-      <c r="J341" s="67"/>
+      <c r="J341" s="59"/>
       <c r="K341" s="2"/>
     </row>
     <row r="342" spans="1:11" ht="15.6">
       <c r="A342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
-      <c r="J342" s="67"/>
+      <c r="J342" s="59"/>
       <c r="K342" s="2"/>
     </row>
     <row r="343" spans="1:11" ht="15.6">
       <c r="A343" s="2"/>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
-      <c r="J343" s="67"/>
+      <c r="J343" s="59"/>
       <c r="K343" s="2"/>
     </row>
     <row r="344" spans="1:11" ht="15.6">
       <c r="A344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
-      <c r="J344" s="67"/>
+      <c r="J344" s="59"/>
       <c r="K344" s="2"/>
     </row>
     <row r="345" spans="1:11" ht="15.6">
       <c r="A345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
-      <c r="J345" s="67"/>
+      <c r="J345" s="59"/>
       <c r="K345" s="2"/>
     </row>
     <row r="346" spans="1:11" ht="15.6">
       <c r="A346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
-      <c r="J346" s="67"/>
+      <c r="J346" s="59"/>
       <c r="K346" s="2"/>
     </row>
     <row r="347" spans="1:11" ht="15.6">
       <c r="A347" s="2"/>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
-      <c r="J347" s="67"/>
+      <c r="J347" s="59"/>
       <c r="K347" s="2"/>
     </row>
     <row r="348" spans="1:11" ht="15.6">
       <c r="A348" s="2"/>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
-      <c r="J348" s="67"/>
+      <c r="J348" s="59"/>
       <c r="K348" s="2"/>
     </row>
     <row r="349" spans="1:11" ht="15.6">
       <c r="A349" s="2"/>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
-      <c r="J349" s="67"/>
+      <c r="J349" s="59"/>
       <c r="K349" s="2"/>
     </row>
     <row r="350" spans="1:11" ht="15.6">
       <c r="A350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
-      <c r="J350" s="67"/>
+      <c r="J350" s="59"/>
       <c r="K350" s="2"/>
     </row>
     <row r="351" spans="1:11" ht="15.6">
       <c r="A351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
-      <c r="J351" s="67"/>
+      <c r="J351" s="59"/>
       <c r="K351" s="2"/>
     </row>
     <row r="352" spans="1:11" ht="15.6">
       <c r="A352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
-      <c r="J352" s="67"/>
+      <c r="J352" s="59"/>
       <c r="K352" s="2"/>
     </row>
     <row r="353" spans="1:11" ht="15.6">
       <c r="A353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
-      <c r="J353" s="67"/>
+      <c r="J353" s="59"/>
       <c r="K353" s="2"/>
     </row>
     <row r="354" spans="1:11" ht="15.6">
       <c r="A354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
-      <c r="J354" s="67"/>
+      <c r="J354" s="59"/>
       <c r="K354" s="2"/>
     </row>
     <row r="355" spans="1:11" ht="15.6">
       <c r="A355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
-      <c r="J355" s="67"/>
+      <c r="J355" s="59"/>
       <c r="K355" s="2"/>
     </row>
     <row r="356" spans="1:11" ht="15.6">
       <c r="A356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
-      <c r="J356" s="67"/>
+      <c r="J356" s="59"/>
       <c r="K356" s="2"/>
     </row>
     <row r="357" spans="1:11" ht="15.6">
       <c r="A357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
-      <c r="J357" s="67"/>
+      <c r="J357" s="59"/>
       <c r="K357" s="2"/>
     </row>
     <row r="358" spans="1:11" ht="15.6">
       <c r="A358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
-      <c r="J358" s="67"/>
+      <c r="J358" s="59"/>
       <c r="K358" s="2"/>
     </row>
     <row r="359" spans="1:11" ht="15.6">
       <c r="A359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
-      <c r="J359" s="67"/>
+      <c r="J359" s="59"/>
       <c r="K359" s="2"/>
     </row>
     <row r="360" spans="1:11" ht="15.6">
       <c r="A360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
-      <c r="J360" s="67"/>
+      <c r="J360" s="59"/>
       <c r="K360" s="2"/>
     </row>
     <row r="361" spans="1:11" ht="15.6">
       <c r="A361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
-      <c r="J361" s="67"/>
+      <c r="J361" s="59"/>
       <c r="K361" s="2"/>
     </row>
     <row r="362" spans="1:11" ht="15.6">
       <c r="A362" s="2"/>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
-      <c r="J362" s="67"/>
+      <c r="J362" s="59"/>
       <c r="K362" s="2"/>
     </row>
     <row r="363" spans="1:11" ht="15.6">
       <c r="A363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
-      <c r="J363" s="67"/>
+      <c r="J363" s="59"/>
       <c r="K363" s="2"/>
     </row>
     <row r="364" spans="1:11" ht="15.6">
       <c r="A364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
-      <c r="J364" s="67"/>
+      <c r="J364" s="59"/>
       <c r="K364" s="2"/>
     </row>
     <row r="365" spans="1:11" ht="15.6">
       <c r="A365" s="2"/>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
-      <c r="J365" s="67"/>
+      <c r="J365" s="59"/>
       <c r="K365" s="2"/>
     </row>
     <row r="366" spans="1:11" ht="15.6">
       <c r="A366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
-      <c r="J366" s="67"/>
+      <c r="J366" s="59"/>
       <c r="K366" s="2"/>
     </row>
     <row r="367" spans="1:11" ht="15.6">
       <c r="A367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
-      <c r="J367" s="67"/>
+      <c r="J367" s="59"/>
       <c r="K367" s="2"/>
     </row>
     <row r="368" spans="1:11" ht="15.6">
       <c r="A368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
-      <c r="J368" s="67"/>
+      <c r="J368" s="59"/>
       <c r="K368" s="2"/>
     </row>
     <row r="369" spans="1:11" ht="15.6">
       <c r="A369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
-      <c r="J369" s="67"/>
+      <c r="J369" s="59"/>
       <c r="K369" s="2"/>
     </row>
     <row r="370" spans="1:11" ht="15.6">
       <c r="A370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
-      <c r="J370" s="67"/>
+      <c r="J370" s="59"/>
       <c r="K370" s="2"/>
     </row>
     <row r="371" spans="1:11" ht="15.6">
       <c r="A371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
-      <c r="J371" s="67"/>
+      <c r="J371" s="59"/>
       <c r="K371" s="2"/>
     </row>
     <row r="372" spans="1:11" ht="15.6">
       <c r="A372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
-      <c r="J372" s="67"/>
+      <c r="J372" s="59"/>
       <c r="K372" s="2"/>
     </row>
     <row r="373" spans="1:11" ht="15.6">
       <c r="A373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
-      <c r="J373" s="67"/>
+      <c r="J373" s="59"/>
       <c r="K373" s="2"/>
     </row>
     <row r="374" spans="1:11" ht="15.6">
       <c r="A374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
-      <c r="J374" s="67"/>
+      <c r="J374" s="59"/>
       <c r="K374" s="2"/>
     </row>
     <row r="375" spans="1:11" ht="15.6">
       <c r="A375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
-      <c r="J375" s="67"/>
+      <c r="J375" s="59"/>
       <c r="K375" s="2"/>
     </row>
     <row r="376" spans="1:11" ht="15.6">
       <c r="A376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
-      <c r="J376" s="67"/>
+      <c r="J376" s="59"/>
       <c r="K376" s="2"/>
     </row>
     <row r="377" spans="1:11" ht="15.6">
       <c r="A377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
-      <c r="J377" s="67"/>
+      <c r="J377" s="59"/>
       <c r="K377" s="2"/>
     </row>
     <row r="378" spans="1:11" ht="15.6">
       <c r="A378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
-      <c r="J378" s="67"/>
+      <c r="J378" s="59"/>
       <c r="K378" s="2"/>
     </row>
     <row r="379" spans="1:11" ht="15.6">
       <c r="A379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
-      <c r="J379" s="67"/>
+      <c r="J379" s="59"/>
       <c r="K379" s="2"/>
     </row>
     <row r="380" spans="1:11" ht="15.6">
       <c r="A380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
-      <c r="J380" s="67"/>
+      <c r="J380" s="59"/>
       <c r="K380" s="2"/>
     </row>
     <row r="381" spans="1:11" ht="15.6">
       <c r="A381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
-      <c r="J381" s="67"/>
+      <c r="J381" s="59"/>
       <c r="K381" s="2"/>
     </row>
     <row r="382" spans="1:11" ht="15.6">
       <c r="A382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
-      <c r="J382" s="67"/>
+      <c r="J382" s="59"/>
       <c r="K382" s="2"/>
     </row>
     <row r="383" spans="1:11" ht="15.6">
       <c r="A383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
-      <c r="J383" s="67"/>
+      <c r="J383" s="59"/>
       <c r="K383" s="2"/>
     </row>
     <row r="384" spans="1:11" ht="15.6">
       <c r="A384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
-      <c r="J384" s="67"/>
+      <c r="J384" s="59"/>
       <c r="K384" s="2"/>
     </row>
     <row r="385" spans="1:11" ht="15.6">
       <c r="A385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
-      <c r="J385" s="67"/>
+      <c r="J385" s="59"/>
       <c r="K385" s="2"/>
     </row>
     <row r="386" spans="1:11" ht="15.6">
       <c r="A386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
-      <c r="J386" s="67"/>
+      <c r="J386" s="59"/>
       <c r="K386" s="2"/>
     </row>
     <row r="387" spans="1:11" ht="15.6">
       <c r="A387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
-      <c r="J387" s="67"/>
+      <c r="J387" s="59"/>
       <c r="K387" s="2"/>
     </row>
     <row r="388" spans="1:11" ht="15.6">
       <c r="A388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
-      <c r="J388" s="67"/>
+      <c r="J388" s="59"/>
       <c r="K388" s="2"/>
     </row>
     <row r="389" spans="1:11" ht="15.6">
       <c r="A389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
-      <c r="J389" s="67"/>
+      <c r="J389" s="59"/>
       <c r="K389" s="2"/>
     </row>
     <row r="390" spans="1:11" ht="15.6">
       <c r="A390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
-      <c r="J390" s="67"/>
+      <c r="J390" s="59"/>
       <c r="K390" s="2"/>
     </row>
     <row r="391" spans="1:11" ht="15.6">
       <c r="A391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
-      <c r="J391" s="67"/>
+      <c r="J391" s="59"/>
       <c r="K391" s="2"/>
     </row>
     <row r="392" spans="1:11" ht="15.6">
       <c r="A392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
-      <c r="J392" s="67"/>
+      <c r="J392" s="59"/>
       <c r="K392" s="2"/>
     </row>
     <row r="393" spans="1:11" ht="15.6">
       <c r="A393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
-      <c r="J393" s="67"/>
+      <c r="J393" s="59"/>
       <c r="K393" s="2"/>
     </row>
     <row r="394" spans="1:11" ht="15.6">
       <c r="A394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
-      <c r="J394" s="67"/>
+      <c r="J394" s="59"/>
       <c r="K394" s="2"/>
     </row>
     <row r="395" spans="1:11" ht="15.6">
       <c r="A395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
-      <c r="J395" s="67"/>
+      <c r="J395" s="59"/>
       <c r="K395" s="2"/>
     </row>
     <row r="396" spans="1:11" ht="15.6">
       <c r="A396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
-      <c r="J396" s="67"/>
+      <c r="J396" s="59"/>
       <c r="K396" s="2"/>
     </row>
     <row r="397" spans="1:11" ht="15.6">
       <c r="A397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
-      <c r="J397" s="67"/>
+      <c r="J397" s="59"/>
       <c r="K397" s="2"/>
     </row>
     <row r="398" spans="1:11" ht="15.6">
       <c r="A398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
-      <c r="J398" s="67"/>
+      <c r="J398" s="59"/>
       <c r="K398" s="2"/>
     </row>
     <row r="399" spans="1:11" ht="15.6">
       <c r="A399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
-      <c r="J399" s="67"/>
+      <c r="J399" s="59"/>
       <c r="K399" s="2"/>
     </row>
     <row r="400" spans="1:11" ht="15.6">
       <c r="A400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
-      <c r="J400" s="67"/>
+      <c r="J400" s="59"/>
       <c r="K400" s="2"/>
     </row>
     <row r="401" spans="1:11" ht="15.6">
       <c r="A401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
-      <c r="J401" s="67"/>
+      <c r="J401" s="59"/>
       <c r="K401" s="2"/>
     </row>
     <row r="402" spans="1:11" ht="15.6">
       <c r="A402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
-      <c r="J402" s="67"/>
+      <c r="J402" s="59"/>
       <c r="K402" s="2"/>
     </row>
     <row r="403" spans="1:11" ht="15.6">
       <c r="A403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
-      <c r="J403" s="67"/>
+      <c r="J403" s="59"/>
       <c r="K403" s="2"/>
     </row>
     <row r="404" spans="1:11" ht="15.6">
       <c r="A404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
-      <c r="J404" s="67"/>
+      <c r="J404" s="59"/>
       <c r="K404" s="2"/>
     </row>
     <row r="405" spans="1:11" ht="15.6">
       <c r="A405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
-      <c r="J405" s="67"/>
+      <c r="J405" s="59"/>
       <c r="K405" s="2"/>
     </row>
     <row r="406" spans="1:11" ht="15.6">
       <c r="A406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
-      <c r="J406" s="67"/>
+      <c r="J406" s="59"/>
       <c r="K406" s="2"/>
     </row>
     <row r="407" spans="1:11" ht="15.6">
       <c r="A407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
-      <c r="J407" s="67"/>
+      <c r="J407" s="59"/>
       <c r="K407" s="2"/>
     </row>
     <row r="408" spans="1:11" ht="15.6">
       <c r="A408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
-      <c r="J408" s="67"/>
+      <c r="J408" s="59"/>
       <c r="K408" s="2"/>
     </row>
     <row r="409" spans="1:11" ht="15.6">
       <c r="A409" s="2"/>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
-      <c r="J409" s="67"/>
+      <c r="J409" s="59"/>
       <c r="K409" s="2"/>
     </row>
     <row r="410" spans="1:11" ht="15.6">
       <c r="A410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
-      <c r="J410" s="67"/>
+      <c r="J410" s="59"/>
       <c r="K410" s="2"/>
     </row>
     <row r="411" spans="1:11" ht="15.6">
       <c r="A411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
-      <c r="J411" s="67"/>
+      <c r="J411" s="59"/>
       <c r="K411" s="2"/>
     </row>
     <row r="412" spans="1:11" ht="15.6">
       <c r="A412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
-      <c r="J412" s="67"/>
+      <c r="J412" s="59"/>
       <c r="K412" s="2"/>
     </row>
     <row r="413" spans="1:11" ht="15.6">
       <c r="A413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
-      <c r="J413" s="67"/>
+      <c r="J413" s="59"/>
       <c r="K413" s="2"/>
     </row>
     <row r="414" spans="1:11" ht="15.6">
       <c r="A414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
-      <c r="J414" s="67"/>
+      <c r="J414" s="59"/>
       <c r="K414" s="2"/>
     </row>
     <row r="415" spans="1:11" ht="15.6">
       <c r="A415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
-      <c r="J415" s="67"/>
+      <c r="J415" s="59"/>
       <c r="K415" s="2"/>
     </row>
     <row r="416" spans="1:11" ht="15.6">
       <c r="A416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
-      <c r="J416" s="67"/>
+      <c r="J416" s="59"/>
       <c r="K416" s="2"/>
     </row>
     <row r="417" spans="1:11" ht="15.6">
       <c r="A417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
-      <c r="J417" s="67"/>
+      <c r="J417" s="59"/>
       <c r="K417" s="2"/>
     </row>
     <row r="418" spans="1:11" ht="15.6">
       <c r="A418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
-      <c r="J418" s="67"/>
+      <c r="J418" s="59"/>
       <c r="K418" s="2"/>
     </row>
     <row r="419" spans="1:11" ht="15.6">
       <c r="A419" s="2"/>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
-      <c r="J419" s="67"/>
+      <c r="J419" s="59"/>
       <c r="K419" s="2"/>
     </row>
     <row r="420" spans="1:11" ht="15.6">
       <c r="A420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
-      <c r="J420" s="67"/>
+      <c r="J420" s="59"/>
       <c r="K420" s="2"/>
     </row>
     <row r="421" spans="1:11" ht="15.6">
       <c r="A421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
-      <c r="J421" s="67"/>
+      <c r="J421" s="59"/>
       <c r="K421" s="2"/>
     </row>
     <row r="422" spans="1:11" ht="15.6">
       <c r="A422" s="2"/>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
-      <c r="J422" s="67"/>
+      <c r="J422" s="59"/>
       <c r="K422" s="2"/>
     </row>
     <row r="423" spans="1:11" ht="15.6">
       <c r="A423" s="2"/>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
-      <c r="J423" s="67"/>
+      <c r="J423" s="59"/>
       <c r="K423" s="2"/>
     </row>
     <row r="424" spans="1:11" ht="15.6">
       <c r="A424" s="2"/>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
-      <c r="J424" s="67"/>
+      <c r="J424" s="59"/>
       <c r="K424" s="2"/>
     </row>
     <row r="425" spans="1:11" ht="15.6">
       <c r="A425" s="2"/>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
-      <c r="J425" s="67"/>
+      <c r="J425" s="59"/>
       <c r="K425" s="2"/>
     </row>
     <row r="426" spans="1:11" ht="15.6">
       <c r="A426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
-      <c r="J426" s="67"/>
+      <c r="J426" s="59"/>
       <c r="K426" s="2"/>
     </row>
     <row r="427" spans="1:11" ht="15.6">
       <c r="A427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
-      <c r="J427" s="67"/>
+      <c r="J427" s="59"/>
       <c r="K427" s="2"/>
     </row>
     <row r="428" spans="1:11" ht="15.6">
       <c r="A428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
-      <c r="J428" s="67"/>
+      <c r="J428" s="59"/>
       <c r="K428" s="2"/>
     </row>
     <row r="429" spans="1:11" ht="15.6">
       <c r="A429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
-      <c r="J429" s="67"/>
+      <c r="J429" s="59"/>
       <c r="K429" s="2"/>
     </row>
     <row r="430" spans="1:11" ht="15.6">
       <c r="A430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
-      <c r="J430" s="67"/>
+      <c r="J430" s="59"/>
       <c r="K430" s="2"/>
     </row>
     <row r="431" spans="1:11" ht="15.6">
       <c r="A431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
-      <c r="J431" s="67"/>
+      <c r="J431" s="59"/>
       <c r="K431" s="2"/>
     </row>
     <row r="432" spans="1:11" ht="15.6">
       <c r="A432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
-      <c r="J432" s="67"/>
+      <c r="J432" s="59"/>
       <c r="K432" s="2"/>
     </row>
     <row r="433" spans="1:11" ht="15.6">
       <c r="A433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
-      <c r="J433" s="67"/>
+      <c r="J433" s="59"/>
       <c r="K433" s="2"/>
     </row>
     <row r="434" spans="1:11" ht="15.6">
       <c r="A434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
-      <c r="J434" s="67"/>
+      <c r="J434" s="59"/>
       <c r="K434" s="2"/>
     </row>
     <row r="435" spans="1:11" ht="15.6">
       <c r="A435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
-      <c r="J435" s="67"/>
+      <c r="J435" s="59"/>
       <c r="K435" s="2"/>
     </row>
     <row r="436" spans="1:11" ht="15.6">
       <c r="A436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
-      <c r="J436" s="67"/>
+      <c r="J436" s="59"/>
       <c r="K436" s="2"/>
     </row>
     <row r="437" spans="1:11" ht="15.6">
       <c r="A437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
-      <c r="J437" s="67"/>
+      <c r="J437" s="59"/>
       <c r="K437" s="2"/>
     </row>
     <row r="438" spans="1:11" ht="15.6">
       <c r="A438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
-      <c r="J438" s="67"/>
+      <c r="J438" s="59"/>
       <c r="K438" s="2"/>
     </row>
     <row r="439" spans="1:11" ht="15.6">
       <c r="A439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
-      <c r="J439" s="67"/>
+      <c r="J439" s="59"/>
       <c r="K439" s="2"/>
     </row>
     <row r="440" spans="1:11" ht="15.6">
       <c r="A440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
-      <c r="J440" s="67"/>
+      <c r="J440" s="59"/>
       <c r="K440" s="2"/>
     </row>
     <row r="441" spans="1:11" ht="15.6">
       <c r="A441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
-      <c r="J441" s="67"/>
+      <c r="J441" s="59"/>
       <c r="K441" s="2"/>
     </row>
     <row r="442" spans="1:11" ht="15.6">
       <c r="A442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
-      <c r="J442" s="67"/>
+      <c r="J442" s="59"/>
       <c r="K442" s="2"/>
     </row>
     <row r="443" spans="1:11" ht="15.6">
       <c r="A443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
-      <c r="J443" s="67"/>
+      <c r="J443" s="59"/>
       <c r="K443" s="2"/>
     </row>
     <row r="444" spans="1:11" ht="15.6">
       <c r="A444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
-      <c r="J444" s="67"/>
+      <c r="J444" s="59"/>
       <c r="K444" s="2"/>
     </row>
     <row r="445" spans="1:11" ht="15.6">
       <c r="A445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
-      <c r="J445" s="67"/>
+      <c r="J445" s="59"/>
       <c r="K445" s="2"/>
     </row>
     <row r="446" spans="1:11" ht="15.6">
       <c r="A446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
-      <c r="J446" s="67"/>
+      <c r="J446" s="59"/>
       <c r="K446" s="2"/>
     </row>
     <row r="447" spans="1:11" ht="15.6">
       <c r="A447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
-      <c r="J447" s="67"/>
+      <c r="J447" s="59"/>
       <c r="K447" s="2"/>
     </row>
     <row r="448" spans="1:11" ht="15.6">
       <c r="A448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
-      <c r="J448" s="67"/>
+      <c r="J448" s="59"/>
       <c r="K448" s="2"/>
     </row>
     <row r="449" spans="1:11" ht="15.6">
       <c r="A449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
-      <c r="J449" s="67"/>
+      <c r="J449" s="59"/>
       <c r="K449" s="2"/>
     </row>
     <row r="450" spans="1:11" ht="15.6">
       <c r="A450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
-      <c r="J450" s="67"/>
+      <c r="J450" s="59"/>
       <c r="K450" s="2"/>
     </row>
     <row r="451" spans="1:11" ht="15.6">
       <c r="A451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
-      <c r="J451" s="67"/>
+      <c r="J451" s="59"/>
       <c r="K451" s="2"/>
     </row>
     <row r="452" spans="1:11" ht="15.6">
       <c r="A452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
-      <c r="J452" s="67"/>
+      <c r="J452" s="59"/>
       <c r="K452" s="2"/>
     </row>
     <row r="453" spans="1:11" ht="15.6">
       <c r="A453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
-      <c r="J453" s="67"/>
+      <c r="J453" s="59"/>
       <c r="K453" s="2"/>
     </row>
     <row r="454" spans="1:11" ht="15.6">
       <c r="A454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
-      <c r="J454" s="67"/>
+      <c r="J454" s="59"/>
       <c r="K454" s="2"/>
     </row>
     <row r="455" spans="1:11" ht="15.6">
       <c r="A455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
-      <c r="J455" s="67"/>
+      <c r="J455" s="59"/>
       <c r="K455" s="2"/>
     </row>
     <row r="456" spans="1:11" ht="15.6">
       <c r="A456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
-      <c r="J456" s="67"/>
+      <c r="J456" s="59"/>
       <c r="K456" s="2"/>
     </row>
     <row r="457" spans="1:11" ht="15.6">
       <c r="A457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
-      <c r="J457" s="67"/>
+      <c r="J457" s="59"/>
       <c r="K457" s="2"/>
     </row>
     <row r="458" spans="1:11" ht="15.6">
       <c r="A458" s="2"/>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
-      <c r="J458" s="67"/>
+      <c r="J458" s="59"/>
       <c r="K458" s="2"/>
     </row>
     <row r="459" spans="1:11" ht="15.6">
       <c r="A459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
-      <c r="J459" s="67"/>
+      <c r="J459" s="59"/>
       <c r="K459" s="2"/>
     </row>
     <row r="460" spans="1:11" ht="15.6">
       <c r="A460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
-      <c r="J460" s="67"/>
+      <c r="J460" s="59"/>
       <c r="K460" s="2"/>
     </row>
     <row r="461" spans="1:11" ht="15.6">
       <c r="A461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
-      <c r="J461" s="67"/>
+      <c r="J461" s="59"/>
       <c r="K461" s="2"/>
     </row>
     <row r="462" spans="1:11" ht="15.6">
       <c r="A462" s="2"/>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
-      <c r="J462" s="67"/>
+      <c r="J462" s="59"/>
       <c r="K462" s="2"/>
     </row>
     <row r="463" spans="1:11" ht="15.6">
       <c r="A463" s="2"/>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
-      <c r="J463" s="67"/>
+      <c r="J463" s="59"/>
       <c r="K463" s="2"/>
     </row>
     <row r="464" spans="1:11" ht="15.6">
       <c r="A464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
-      <c r="J464" s="67"/>
+      <c r="J464" s="59"/>
       <c r="K464" s="2"/>
     </row>
     <row r="465" spans="1:11" ht="15.6">
       <c r="A465" s="2"/>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
-      <c r="J465" s="67"/>
+      <c r="J465" s="59"/>
       <c r="K465" s="2"/>
     </row>
     <row r="466" spans="1:11" ht="15.6">
       <c r="A466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
-      <c r="J466" s="67"/>
+      <c r="J466" s="59"/>
       <c r="K466" s="2"/>
     </row>
     <row r="467" spans="1:11" ht="15.6">
       <c r="A467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
-      <c r="J467" s="67"/>
+      <c r="J467" s="59"/>
       <c r="K467" s="2"/>
     </row>
     <row r="468" spans="1:11" ht="15.6">
       <c r="A468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
-      <c r="J468" s="67"/>
+      <c r="J468" s="59"/>
       <c r="K468" s="2"/>
     </row>
     <row r="469" spans="1:11" ht="15.6">
       <c r="A469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
-      <c r="J469" s="67"/>
+      <c r="J469" s="59"/>
       <c r="K469" s="2"/>
     </row>
     <row r="470" spans="1:11" ht="15.6">
       <c r="A470" s="2"/>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
-      <c r="J470" s="67"/>
+      <c r="J470" s="59"/>
       <c r="K470" s="2"/>
     </row>
     <row r="471" spans="1:11" ht="15.6">
       <c r="A471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
-      <c r="J471" s="67"/>
+      <c r="J471" s="59"/>
       <c r="K471" s="2"/>
     </row>
     <row r="472" spans="1:11" ht="15.6">
       <c r="A472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
-      <c r="J472" s="67"/>
+      <c r="J472" s="59"/>
       <c r="K472" s="2"/>
     </row>
     <row r="473" spans="1:11" ht="15.6">
       <c r="A473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
-      <c r="J473" s="67"/>
+      <c r="J473" s="59"/>
       <c r="K473" s="2"/>
     </row>
     <row r="474" spans="1:11" ht="15.6">
       <c r="A474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
-      <c r="J474" s="67"/>
+      <c r="J474" s="59"/>
       <c r="K474" s="2"/>
     </row>
     <row r="475" spans="1:11" ht="15.6">
       <c r="A475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
-      <c r="J475" s="67"/>
+      <c r="J475" s="59"/>
       <c r="K475" s="2"/>
     </row>
     <row r="476" spans="1:11" ht="15.6">
       <c r="A476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
-      <c r="J476" s="67"/>
+      <c r="J476" s="59"/>
       <c r="K476" s="2"/>
     </row>
     <row r="477" spans="1:11" ht="15.6">
       <c r="A477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
-      <c r="J477" s="67"/>
+      <c r="J477" s="59"/>
       <c r="K477" s="2"/>
     </row>
     <row r="478" spans="1:11" ht="15.6">
       <c r="A478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
-      <c r="J478" s="67"/>
+      <c r="J478" s="59"/>
       <c r="K478" s="2"/>
     </row>
     <row r="479" spans="1:11" ht="15.6">
       <c r="A479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
-      <c r="J479" s="67"/>
+      <c r="J479" s="59"/>
       <c r="K479" s="2"/>
     </row>
     <row r="480" spans="1:11" ht="15.6">
       <c r="A480" s="2"/>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
-      <c r="J480" s="67"/>
+      <c r="J480" s="59"/>
       <c r="K480" s="2"/>
     </row>
     <row r="481" spans="1:11" ht="15.6">
       <c r="A481" s="2"/>
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
-      <c r="J481" s="67"/>
+      <c r="J481" s="59"/>
       <c r="K481" s="2"/>
     </row>
     <row r="482" spans="1:11" ht="15.6">
       <c r="A482" s="2"/>
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
-      <c r="J482" s="67"/>
+      <c r="J482" s="59"/>
       <c r="K482" s="2"/>
     </row>
     <row r="483" spans="1:11" ht="15.6">
       <c r="A483" s="2"/>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
-      <c r="J483" s="67"/>
+      <c r="J483" s="59"/>
       <c r="K483" s="2"/>
     </row>
     <row r="484" spans="1:11" ht="15.6">
       <c r="A484" s="2"/>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
-      <c r="J484" s="67"/>
+      <c r="J484" s="59"/>
       <c r="K484" s="2"/>
     </row>
     <row r="485" spans="1:11" ht="15.6">
       <c r="A485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
-      <c r="J485" s="67"/>
+      <c r="J485" s="59"/>
       <c r="K485" s="2"/>
     </row>
     <row r="486" spans="1:11" ht="15.6">
       <c r="A486" s="2"/>
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
-      <c r="J486" s="67"/>
+      <c r="J486" s="59"/>
       <c r="K486" s="2"/>
     </row>
     <row r="487" spans="1:11" ht="15.6">
       <c r="A487" s="2"/>
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
-      <c r="J487" s="67"/>
+      <c r="J487" s="59"/>
       <c r="K487" s="2"/>
     </row>
     <row r="488" spans="1:11" ht="15.6">
       <c r="A488" s="2"/>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
-      <c r="J488" s="67"/>
+      <c r="J488" s="59"/>
       <c r="K488" s="2"/>
     </row>
     <row r="489" spans="1:11" ht="15.6">
       <c r="A489" s="2"/>
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
-      <c r="J489" s="67"/>
+      <c r="J489" s="59"/>
       <c r="K489" s="2"/>
     </row>
     <row r="490" spans="1:11" ht="15.6">
       <c r="A490" s="2"/>
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
-      <c r="J490" s="67"/>
+      <c r="J490" s="59"/>
       <c r="K490" s="2"/>
     </row>
     <row r="491" spans="1:11" ht="15.6">
       <c r="A491" s="2"/>
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
-      <c r="J491" s="67"/>
+      <c r="J491" s="59"/>
       <c r="K491" s="2"/>
     </row>
     <row r="492" spans="1:11" ht="15.6">
       <c r="A492" s="2"/>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
-      <c r="J492" s="67"/>
+      <c r="J492" s="59"/>
       <c r="K492" s="2"/>
     </row>
     <row r="493" spans="1:11" ht="15.6">
       <c r="A493" s="2"/>
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
-      <c r="J493" s="67"/>
+      <c r="J493" s="59"/>
       <c r="K493" s="2"/>
     </row>
     <row r="494" spans="1:11" ht="15.6">
       <c r="A494" s="2"/>
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
-      <c r="J494" s="67"/>
+      <c r="J494" s="59"/>
       <c r="K494" s="2"/>
     </row>
     <row r="495" spans="1:11" ht="15.6">
       <c r="A495" s="2"/>
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
-      <c r="J495" s="67"/>
+      <c r="J495" s="59"/>
       <c r="K495" s="2"/>
     </row>
     <row r="496" spans="1:11" ht="15.6">
       <c r="A496" s="2"/>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
-      <c r="J496" s="67"/>
+      <c r="J496" s="59"/>
       <c r="K496" s="2"/>
     </row>
     <row r="497" spans="1:11" ht="15.6">
       <c r="A497" s="2"/>
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
-      <c r="J497" s="67"/>
+      <c r="J497" s="59"/>
       <c r="K497" s="2"/>
     </row>
     <row r="498" spans="1:11" ht="15.6">
       <c r="A498" s="2"/>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
-      <c r="J498" s="67"/>
+      <c r="J498" s="59"/>
       <c r="K498" s="2"/>
     </row>
     <row r="499" spans="1:11" ht="15.6">
       <c r="A499" s="2"/>
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
-      <c r="J499" s="67"/>
+      <c r="J499" s="59"/>
       <c r="K499" s="2"/>
     </row>
     <row r="500" spans="1:11" ht="15.6">
       <c r="A500" s="2"/>
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
-      <c r="J500" s="67"/>
+      <c r="J500" s="59"/>
       <c r="K500" s="2"/>
     </row>
     <row r="501" spans="1:11" ht="15.6">
       <c r="A501" s="2"/>
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
-      <c r="J501" s="67"/>
+      <c r="J501" s="59"/>
       <c r="K501" s="2"/>
     </row>
     <row r="502" spans="1:11" ht="15.6">
       <c r="A502" s="2"/>
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
-      <c r="J502" s="67"/>
+      <c r="J502" s="59"/>
       <c r="K502" s="2"/>
     </row>
     <row r="503" spans="1:11" ht="15.6">
       <c r="A503" s="2"/>
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
-      <c r="J503" s="67"/>
+      <c r="J503" s="59"/>
       <c r="K503" s="2"/>
     </row>
     <row r="504" spans="1:11" ht="15.6">
       <c r="A504" s="2"/>
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
-      <c r="J504" s="67"/>
+      <c r="J504" s="59"/>
       <c r="K504" s="2"/>
     </row>
     <row r="505" spans="1:11" ht="15.6">
       <c r="A505" s="2"/>
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
-      <c r="J505" s="67"/>
+      <c r="J505" s="59"/>
       <c r="K505" s="2"/>
     </row>
     <row r="506" spans="1:11" ht="15.6">
       <c r="A506" s="2"/>
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
-      <c r="J506" s="67"/>
+      <c r="J506" s="59"/>
       <c r="K506" s="2"/>
     </row>
     <row r="507" spans="1:11" ht="15.6">
       <c r="A507" s="2"/>
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
-      <c r="J507" s="67"/>
+      <c r="J507" s="59"/>
       <c r="K507" s="2"/>
     </row>
     <row r="508" spans="1:11" ht="15.6">
       <c r="A508" s="2"/>
       <c r="H508" s="2"/>
       <c r="I508" s="2"/>
-      <c r="J508" s="67"/>
+      <c r="J508" s="59"/>
       <c r="K508" s="2"/>
     </row>
     <row r="509" spans="1:11" ht="15.6">
       <c r="A509" s="2"/>
       <c r="H509" s="2"/>
       <c r="I509" s="2"/>
-      <c r="J509" s="67"/>
+      <c r="J509" s="59"/>
       <c r="K509" s="2"/>
     </row>
     <row r="510" spans="1:11" ht="15.6">
       <c r="A510" s="2"/>
       <c r="H510" s="2"/>
       <c r="I510" s="2"/>
-      <c r="J510" s="67"/>
+      <c r="J510" s="59"/>
       <c r="K510" s="2"/>
     </row>
     <row r="511" spans="1:11" ht="15.6">
       <c r="A511" s="2"/>
       <c r="H511" s="2"/>
       <c r="I511" s="2"/>
-      <c r="J511" s="67"/>
+      <c r="J511" s="59"/>
       <c r="K511" s="2"/>
     </row>
     <row r="512" spans="1:11" ht="15.6">
       <c r="A512" s="2"/>
       <c r="H512" s="2"/>
       <c r="I512" s="2"/>
-      <c r="J512" s="67"/>
+      <c r="J512" s="59"/>
       <c r="K512" s="2"/>
     </row>
     <row r="513" spans="1:11" ht="15.6">
       <c r="A513" s="2"/>
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
-      <c r="J513" s="67"/>
+      <c r="J513" s="59"/>
       <c r="K513" s="2"/>
     </row>
     <row r="514" spans="1:11" ht="15.6">
       <c r="A514" s="2"/>
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
-      <c r="J514" s="67"/>
+      <c r="J514" s="59"/>
       <c r="K514" s="2"/>
     </row>
     <row r="515" spans="1:11" ht="15.6">
       <c r="A515" s="2"/>
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
-      <c r="J515" s="67"/>
+      <c r="J515" s="59"/>
       <c r="K515" s="2"/>
     </row>
     <row r="516" spans="1:11" ht="15.6">
       <c r="A516" s="2"/>
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
-      <c r="J516" s="67"/>
+      <c r="J516" s="59"/>
       <c r="K516" s="2"/>
     </row>
     <row r="517" spans="1:11" ht="15.6">
       <c r="A517" s="2"/>
       <c r="H517" s="2"/>
       <c r="I517" s="2"/>
-      <c r="J517" s="67"/>
+      <c r="J517" s="59"/>
       <c r="K517" s="2"/>
     </row>
     <row r="518" spans="1:11" ht="15.6">
       <c r="A518" s="2"/>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
-      <c r="J518" s="67"/>
+      <c r="J518" s="59"/>
       <c r="K518" s="2"/>
     </row>
     <row r="519" spans="1:11" ht="15.6">
       <c r="A519" s="2"/>
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
-      <c r="J519" s="67"/>
+      <c r="J519" s="59"/>
       <c r="K519" s="2"/>
     </row>
     <row r="520" spans="1:11" ht="15.6">
       <c r="A520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
-      <c r="J520" s="67"/>
+      <c r="J520" s="59"/>
       <c r="K520" s="2"/>
     </row>
     <row r="521" spans="1:11" ht="15.6">
       <c r="A521" s="2"/>
       <c r="H521" s="2"/>
       <c r="I521" s="2"/>
-      <c r="J521" s="67"/>
+      <c r="J521" s="59"/>
       <c r="K521" s="2"/>
     </row>
     <row r="522" spans="1:11" ht="15.6">
       <c r="A522" s="2"/>
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
-      <c r="J522" s="67"/>
+      <c r="J522" s="59"/>
       <c r="K522" s="2"/>
     </row>
     <row r="523" spans="1:11" ht="15.6">
       <c r="A523" s="2"/>
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
-      <c r="J523" s="67"/>
+      <c r="J523" s="59"/>
       <c r="K523" s="2"/>
     </row>
     <row r="524" spans="1:11" ht="15.6">
       <c r="A524" s="2"/>
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
-      <c r="J524" s="67"/>
+      <c r="J524" s="59"/>
       <c r="K524" s="2"/>
     </row>
     <row r="525" spans="1:11" ht="15.6">
       <c r="A525" s="2"/>
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
-      <c r="J525" s="67"/>
+      <c r="J525" s="59"/>
       <c r="K525" s="2"/>
     </row>
     <row r="526" spans="1:11" ht="15.6">
       <c r="A526" s="2"/>
       <c r="H526" s="2"/>
       <c r="I526" s="2"/>
-      <c r="J526" s="67"/>
+      <c r="J526" s="59"/>
       <c r="K526" s="2"/>
     </row>
     <row r="527" spans="1:11" ht="15.6">
       <c r="A527" s="2"/>
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
-      <c r="J527" s="67"/>
+      <c r="J527" s="59"/>
       <c r="K527" s="2"/>
     </row>
     <row r="528" spans="1:11" ht="15.6">
       <c r="A528" s="2"/>
       <c r="H528" s="2"/>
       <c r="I528" s="2"/>
-      <c r="J528" s="67"/>
+      <c r="J528" s="59"/>
       <c r="K528" s="2"/>
     </row>
     <row r="529" spans="1:11" ht="15.6">
       <c r="A529" s="2"/>
       <c r="H529" s="2"/>
       <c r="I529" s="2"/>
-      <c r="J529" s="67"/>
+      <c r="J529" s="59"/>
       <c r="K529" s="2"/>
     </row>
     <row r="530" spans="1:11" ht="15.6">
       <c r="A530" s="2"/>
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
-      <c r="J530" s="67"/>
+      <c r="J530" s="59"/>
       <c r="K530" s="2"/>
     </row>
     <row r="531" spans="1:11" ht="15.6">
       <c r="A531" s="2"/>
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
-      <c r="J531" s="67"/>
+      <c r="J531" s="59"/>
       <c r="K531" s="2"/>
     </row>
     <row r="532" spans="1:11" ht="15.6">
       <c r="A532" s="2"/>
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
-      <c r="J532" s="67"/>
+      <c r="J532" s="59"/>
       <c r="K532" s="2"/>
     </row>
     <row r="533" spans="1:11" ht="15.6">
       <c r="A533" s="2"/>
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
-      <c r="J533" s="67"/>
+      <c r="J533" s="59"/>
       <c r="K533" s="2"/>
     </row>
     <row r="534" spans="1:11" ht="15.6">
       <c r="A534" s="2"/>
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
-      <c r="J534" s="67"/>
+      <c r="J534" s="59"/>
       <c r="K534" s="2"/>
     </row>
     <row r="535" spans="1:11" ht="15.6">
       <c r="A535" s="2"/>
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
-      <c r="J535" s="67"/>
+      <c r="J535" s="59"/>
       <c r="K535" s="2"/>
     </row>
     <row r="536" spans="1:11" ht="15.6">
       <c r="A536" s="2"/>
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
-      <c r="J536" s="67"/>
+      <c r="J536" s="59"/>
       <c r="K536" s="2"/>
     </row>
     <row r="537" spans="1:11" ht="15.6">
       <c r="A537" s="2"/>
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
-      <c r="J537" s="67"/>
+      <c r="J537" s="59"/>
       <c r="K537" s="2"/>
     </row>
     <row r="538" spans="1:11" ht="15.6">
       <c r="A538" s="2"/>
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
-      <c r="J538" s="67"/>
+      <c r="J538" s="59"/>
       <c r="K538" s="2"/>
     </row>
     <row r="539" spans="1:11" ht="15.6">
       <c r="A539" s="2"/>
       <c r="H539" s="2"/>
       <c r="I539" s="2"/>
-      <c r="J539" s="67"/>
+      <c r="J539" s="59"/>
       <c r="K539" s="2"/>
     </row>
     <row r="540" spans="1:11" ht="15.6">
       <c r="A540" s="2"/>
       <c r="H540" s="2"/>
       <c r="I540" s="2"/>
-      <c r="J540" s="67"/>
+      <c r="J540" s="59"/>
       <c r="K540" s="2"/>
     </row>
     <row r="541" spans="1:11" ht="15.6">
       <c r="A541" s="2"/>
       <c r="H541" s="2"/>
       <c r="I541" s="2"/>
-      <c r="J541" s="67"/>
+      <c r="J541" s="59"/>
       <c r="K541" s="2"/>
     </row>
     <row r="542" spans="1:11" ht="15.6">
       <c r="A542" s="2"/>
       <c r="H542" s="2"/>
       <c r="I542" s="2"/>
-      <c r="J542" s="67"/>
+      <c r="J542" s="59"/>
       <c r="K542" s="2"/>
     </row>
     <row r="543" spans="1:11" ht="15.6">
       <c r="A543" s="2"/>
       <c r="H543" s="2"/>
       <c r="I543" s="2"/>
-      <c r="J543" s="67"/>
+      <c r="J543" s="59"/>
       <c r="K543" s="2"/>
     </row>
     <row r="544" spans="1:11" ht="15.6">
       <c r="A544" s="2"/>
       <c r="H544" s="2"/>
       <c r="I544" s="2"/>
-      <c r="J544" s="67"/>
+      <c r="J544" s="59"/>
       <c r="K544" s="2"/>
     </row>
     <row r="545" spans="1:11" ht="15.6">
       <c r="A545" s="2"/>
       <c r="H545" s="2"/>
       <c r="I545" s="2"/>
-      <c r="J545" s="67"/>
+      <c r="J545" s="59"/>
       <c r="K545" s="2"/>
     </row>
     <row r="546" spans="1:11" ht="15.6">
       <c r="A546" s="2"/>
       <c r="H546" s="2"/>
       <c r="I546" s="2"/>
-      <c r="J546" s="67"/>
+      <c r="J546" s="59"/>
       <c r="K546" s="2"/>
     </row>
     <row r="547" spans="1:11" ht="15.6">
       <c r="A547" s="2"/>
       <c r="H547" s="2"/>
       <c r="I547" s="2"/>
-      <c r="J547" s="67"/>
+      <c r="J547" s="59"/>
       <c r="K547" s="2"/>
     </row>
     <row r="548" spans="1:11" ht="15.6">
       <c r="A548" s="2"/>
       <c r="H548" s="2"/>
       <c r="I548" s="2"/>
-      <c r="J548" s="67"/>
+      <c r="J548" s="59"/>
       <c r="K548" s="2"/>
     </row>
     <row r="549" spans="1:11" ht="15.6">
       <c r="A549" s="2"/>
       <c r="H549" s="2"/>
       <c r="I549" s="2"/>
-      <c r="J549" s="67"/>
+      <c r="J549" s="59"/>
       <c r="K549" s="2"/>
     </row>
     <row r="550" spans="1:11" ht="15.6">
       <c r="A550" s="2"/>
       <c r="H550" s="2"/>
       <c r="I550" s="2"/>
-      <c r="J550" s="67"/>
+      <c r="J550" s="59"/>
       <c r="K550" s="2"/>
     </row>
     <row r="551" spans="1:11" ht="15.6">
       <c r="A551" s="2"/>
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
-      <c r="J551" s="67"/>
+      <c r="J551" s="59"/>
       <c r="K551" s="2"/>
     </row>
     <row r="552" spans="1:11" ht="15.6">
       <c r="A552" s="2"/>
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
-      <c r="J552" s="67"/>
+      <c r="J552" s="59"/>
       <c r="K552" s="2"/>
     </row>
     <row r="553" spans="1:11" ht="15.6">
       <c r="A553" s="2"/>
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
-      <c r="J553" s="67"/>
+      <c r="J553" s="59"/>
       <c r="K553" s="2"/>
     </row>
     <row r="554" spans="1:11" ht="15.6">
       <c r="A554" s="2"/>
       <c r="H554" s="2"/>
       <c r="I554" s="2"/>
-      <c r="J554" s="67"/>
+      <c r="J554" s="59"/>
       <c r="K554" s="2"/>
     </row>
     <row r="555" spans="1:11" ht="15.6">
       <c r="A555" s="2"/>
       <c r="H555" s="2"/>
       <c r="I555" s="2"/>
-      <c r="J555" s="67"/>
+      <c r="J555" s="59"/>
       <c r="K555" s="2"/>
     </row>
     <row r="556" spans="1:11" ht="15.6">
       <c r="A556" s="2"/>
       <c r="H556" s="2"/>
       <c r="I556" s="2"/>
-      <c r="J556" s="67"/>
+      <c r="J556" s="59"/>
       <c r="K556" s="2"/>
     </row>
     <row r="557" spans="1:11" ht="15.6">
       <c r="A557" s="2"/>
       <c r="H557" s="2"/>
       <c r="I557" s="2"/>
-      <c r="J557" s="67"/>
+      <c r="J557" s="59"/>
       <c r="K557" s="2"/>
     </row>
     <row r="558" spans="1:11" ht="15.6">
       <c r="A558" s="2"/>
       <c r="H558" s="2"/>
       <c r="I558" s="2"/>
-      <c r="J558" s="67"/>
+      <c r="J558" s="59"/>
       <c r="K558" s="2"/>
     </row>
     <row r="559" spans="1:11" ht="15.6">
       <c r="A559" s="2"/>
       <c r="H559" s="2"/>
       <c r="I559" s="2"/>
-      <c r="J559" s="67"/>
+      <c r="J559" s="59"/>
       <c r="K559" s="2"/>
     </row>
     <row r="560" spans="1:11" ht="15.6">
       <c r="A560" s="2"/>
       <c r="H560" s="2"/>
       <c r="I560" s="2"/>
-      <c r="J560" s="67"/>
+      <c r="J560" s="59"/>
       <c r="K560" s="2"/>
     </row>
     <row r="561" spans="1:11" ht="15.6">
       <c r="A561" s="2"/>
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
-      <c r="J561" s="67"/>
+      <c r="J561" s="59"/>
       <c r="K561" s="2"/>
     </row>
     <row r="562" spans="1:11" ht="15.6">
       <c r="A562" s="2"/>
       <c r="H562" s="2"/>
       <c r="I562" s="2"/>
-      <c r="J562" s="67"/>
+      <c r="J562" s="59"/>
       <c r="K562" s="2"/>
     </row>
     <row r="563" spans="1:11" ht="15.6">
       <c r="A563" s="2"/>
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
-      <c r="J563" s="67"/>
+      <c r="J563" s="59"/>
       <c r="K563" s="2"/>
     </row>
     <row r="564" spans="1:11" ht="15.6">
       <c r="A564" s="2"/>
       <c r="H564" s="2"/>
       <c r="I564" s="2"/>
-      <c r="J564" s="67"/>
+      <c r="J564" s="59"/>
       <c r="K564" s="2"/>
     </row>
     <row r="565" spans="1:11" ht="15.6">
       <c r="A565" s="2"/>
       <c r="H565" s="2"/>
       <c r="I565" s="2"/>
-      <c r="J565" s="67"/>
+      <c r="J565" s="59"/>
       <c r="K565" s="2"/>
     </row>
     <row r="566" spans="1:11" ht="15.6">
       <c r="A566" s="2"/>
       <c r="H566" s="2"/>
       <c r="I566" s="2"/>
-      <c r="J566" s="67"/>
+      <c r="J566" s="59"/>
       <c r="K566" s="2"/>
     </row>
     <row r="567" spans="1:11" ht="15.6">
       <c r="A567" s="2"/>
       <c r="H567" s="2"/>
       <c r="I567" s="2"/>
-      <c r="J567" s="67"/>
+      <c r="J567" s="59"/>
       <c r="K567" s="2"/>
     </row>
     <row r="568" spans="1:11" ht="15.6">
       <c r="A568" s="2"/>
       <c r="H568" s="2"/>
       <c r="I568" s="2"/>
-      <c r="J568" s="67"/>
+      <c r="J568" s="59"/>
       <c r="K568" s="2"/>
     </row>
     <row r="569" spans="1:11" ht="15.6">
       <c r="A569" s="2"/>
       <c r="H569" s="2"/>
       <c r="I569" s="2"/>
-      <c r="J569" s="67"/>
+      <c r="J569" s="59"/>
       <c r="K569" s="2"/>
     </row>
     <row r="570" spans="1:11" ht="15.6">
       <c r="A570" s="2"/>
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
-      <c r="J570" s="67"/>
+      <c r="J570" s="59"/>
       <c r="K570" s="2"/>
     </row>
     <row r="571" spans="1:11" ht="15.6">
       <c r="A571" s="2"/>
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
-      <c r="J571" s="67"/>
+      <c r="J571" s="59"/>
       <c r="K571" s="2"/>
     </row>
     <row r="572" spans="1:11" ht="15.6">
       <c r="A572" s="2"/>
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
-      <c r="J572" s="67"/>
+      <c r="J572" s="59"/>
       <c r="K572" s="2"/>
     </row>
     <row r="573" spans="1:11" ht="15.6">
       <c r="A573" s="2"/>
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
-      <c r="J573" s="67"/>
+      <c r="J573" s="59"/>
       <c r="K573" s="2"/>
     </row>
     <row r="574" spans="1:11" ht="15.6">
       <c r="A574" s="2"/>
       <c r="H574" s="2"/>
       <c r="I574" s="2"/>
-      <c r="J574" s="67"/>
+      <c r="J574" s="59"/>
       <c r="K574" s="2"/>
     </row>
     <row r="575" spans="1:11" ht="15.6">
       <c r="A575" s="2"/>
       <c r="H575" s="2"/>
       <c r="I575" s="2"/>
-      <c r="J575" s="67"/>
+      <c r="J575" s="59"/>
       <c r="K575" s="2"/>
     </row>
     <row r="576" spans="1:11" ht="15.6">
       <c r="A576" s="2"/>
       <c r="H576" s="2"/>
       <c r="I576" s="2"/>
-      <c r="J576" s="67"/>
+      <c r="J576" s="59"/>
       <c r="K576" s="2"/>
     </row>
     <row r="577" spans="1:11" ht="15.6">
       <c r="A577" s="2"/>
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
-      <c r="J577" s="67"/>
+      <c r="J577" s="59"/>
       <c r="K577" s="2"/>
     </row>
     <row r="578" spans="1:11" ht="15.6">
       <c r="A578" s="2"/>
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
-      <c r="J578" s="67"/>
+      <c r="J578" s="59"/>
       <c r="K578" s="2"/>
     </row>
     <row r="579" spans="1:11" ht="15.6">
       <c r="A579" s="2"/>
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
-      <c r="J579" s="67"/>
+      <c r="J579" s="59"/>
       <c r="K579" s="2"/>
     </row>
     <row r="580" spans="1:11" ht="15.6">
       <c r="A580" s="2"/>
       <c r="H580" s="2"/>
       <c r="I580" s="2"/>
-      <c r="J580" s="67"/>
+      <c r="J580" s="59"/>
       <c r="K580" s="2"/>
     </row>
     <row r="581" spans="1:11" ht="15.6">
       <c r="A581" s="2"/>
       <c r="H581" s="2"/>
       <c r="I581" s="2"/>
-      <c r="J581" s="67"/>
+      <c r="J581" s="59"/>
       <c r="K581" s="2"/>
     </row>
     <row r="582" spans="1:11" ht="15.6">
       <c r="A582" s="2"/>
       <c r="H582" s="2"/>
       <c r="I582" s="2"/>
-      <c r="J582" s="67"/>
+      <c r="J582" s="59"/>
       <c r="K582" s="2"/>
     </row>
     <row r="583" spans="1:11" ht="15.6">
       <c r="A583" s="2"/>
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
-      <c r="J583" s="67"/>
+      <c r="J583" s="59"/>
       <c r="K583" s="2"/>
     </row>
     <row r="584" spans="1:11" ht="15.6">
       <c r="A584" s="2"/>
       <c r="H584" s="2"/>
       <c r="I584" s="2"/>
-      <c r="J584" s="67"/>
+      <c r="J584" s="59"/>
       <c r="K584" s="2"/>
     </row>
     <row r="585" spans="1:11" ht="15.6">
       <c r="A585" s="2"/>
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
-      <c r="J585" s="67"/>
+      <c r="J585" s="59"/>
       <c r="K585" s="2"/>
     </row>
     <row r="586" spans="1:11" ht="15.6">
       <c r="A586" s="2"/>
       <c r="H586" s="2"/>
       <c r="I586" s="2"/>
-      <c r="J586" s="67"/>
+      <c r="J586" s="59"/>
       <c r="K586" s="2"/>
     </row>
     <row r="587" spans="1:11" ht="15.6">
       <c r="A587" s="2"/>
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
-      <c r="J587" s="67"/>
+      <c r="J587" s="59"/>
       <c r="K587" s="2"/>
     </row>
     <row r="588" spans="1:11" ht="15.6">
       <c r="A588" s="2"/>
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
-      <c r="J588" s="67"/>
+      <c r="J588" s="59"/>
       <c r="K588" s="2"/>
     </row>
     <row r="589" spans="1:11" ht="15.6">
       <c r="A589" s="2"/>
       <c r="H589" s="2"/>
       <c r="I589" s="2"/>
-      <c r="J589" s="67"/>
+      <c r="J589" s="59"/>
       <c r="K589" s="2"/>
     </row>
     <row r="590" spans="1:11" ht="15.6">
       <c r="A590" s="2"/>
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
-      <c r="J590" s="67"/>
+      <c r="J590" s="59"/>
       <c r="K590" s="2"/>
     </row>
     <row r="591" spans="1:11" ht="15.6">
       <c r="A591" s="2"/>
       <c r="H591" s="2"/>
       <c r="I591" s="2"/>
-      <c r="J591" s="67"/>
+      <c r="J591" s="59"/>
       <c r="K591" s="2"/>
     </row>
     <row r="592" spans="1:11" ht="15.6">
       <c r="A592" s="2"/>
       <c r="H592" s="2"/>
       <c r="I592" s="2"/>
-      <c r="J592" s="67"/>
+      <c r="J592" s="59"/>
       <c r="K592" s="2"/>
     </row>
     <row r="593" spans="1:11" ht="15.6">
       <c r="A593" s="2"/>
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
-      <c r="J593" s="67"/>
+      <c r="J593" s="59"/>
       <c r="K593" s="2"/>
     </row>
     <row r="594" spans="1:11" ht="15.6">
       <c r="A594" s="2"/>
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
-      <c r="J594" s="67"/>
+      <c r="J594" s="59"/>
       <c r="K594" s="2"/>
     </row>
     <row r="595" spans="1:11" ht="15.6">
       <c r="A595" s="2"/>
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
-      <c r="J595" s="67"/>
+      <c r="J595" s="59"/>
       <c r="K595" s="2"/>
     </row>
     <row r="596" spans="1:11" ht="15.6">
       <c r="A596" s="2"/>
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
-      <c r="J596" s="67"/>
+      <c r="J596" s="59"/>
       <c r="K596" s="2"/>
     </row>
     <row r="597" spans="1:11" ht="15.6">
       <c r="A597" s="2"/>
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
-      <c r="J597" s="67"/>
+      <c r="J597" s="59"/>
       <c r="K597" s="2"/>
     </row>
     <row r="598" spans="1:11" ht="15.6">
       <c r="A598" s="2"/>
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
-      <c r="J598" s="67"/>
+      <c r="J598" s="59"/>
       <c r="K598" s="2"/>
     </row>
     <row r="599" spans="1:11" ht="15.6">
       <c r="A599" s="2"/>
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
-      <c r="J599" s="67"/>
+      <c r="J599" s="59"/>
       <c r="K599" s="2"/>
     </row>
     <row r="600" spans="1:11" ht="15.6">
       <c r="A600" s="2"/>
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
-      <c r="J600" s="67"/>
+      <c r="J600" s="59"/>
       <c r="K600" s="2"/>
     </row>
     <row r="601" spans="1:11" ht="15.6">
       <c r="A601" s="2"/>
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
-      <c r="J601" s="67"/>
+      <c r="J601" s="59"/>
       <c r="K601" s="2"/>
     </row>
     <row r="602" spans="1:11" ht="15.6">
       <c r="A602" s="2"/>
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
-      <c r="J602" s="67"/>
+      <c r="J602" s="59"/>
       <c r="K602" s="2"/>
     </row>
     <row r="603" spans="1:11" ht="15.6">
       <c r="A603" s="2"/>
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
-      <c r="J603" s="67"/>
+      <c r="J603" s="59"/>
       <c r="K603" s="2"/>
     </row>
     <row r="604" spans="1:11" ht="15.6">
       <c r="A604" s="2"/>
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
-      <c r="J604" s="67"/>
+      <c r="J604" s="59"/>
       <c r="K604" s="2"/>
     </row>
     <row r="605" spans="1:11" ht="15.6">
       <c r="A605" s="2"/>
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
-      <c r="J605" s="67"/>
+      <c r="J605" s="59"/>
       <c r="K605" s="2"/>
     </row>
     <row r="606" spans="1:11" ht="15.6">
       <c r="A606" s="2"/>
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
-      <c r="J606" s="67"/>
+      <c r="J606" s="59"/>
       <c r="K606" s="2"/>
     </row>
     <row r="607" spans="1:11" ht="15.6">
       <c r="A607" s="2"/>
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
-      <c r="J607" s="67"/>
+      <c r="J607" s="59"/>
       <c r="K607" s="2"/>
     </row>
     <row r="608" spans="1:11" ht="15.6">
       <c r="A608" s="2"/>
       <c r="H608" s="2"/>
       <c r="I608" s="2"/>
-      <c r="J608" s="67"/>
+      <c r="J608" s="59"/>
       <c r="K608" s="2"/>
     </row>
     <row r="609" spans="1:11" ht="15.6">
       <c r="A609" s="2"/>
       <c r="H609" s="2"/>
       <c r="I609" s="2"/>
-      <c r="J609" s="67"/>
+      <c r="J609" s="59"/>
       <c r="K609" s="2"/>
     </row>
     <row r="610" spans="1:11" ht="15.6">
       <c r="A610" s="2"/>
       <c r="H610" s="2"/>
       <c r="I610" s="2"/>
-      <c r="J610" s="67"/>
+      <c r="J610" s="59"/>
       <c r="K610" s="2"/>
     </row>
     <row r="611" spans="1:11" ht="15.6">
       <c r="A611" s="2"/>
       <c r="H611" s="2"/>
       <c r="I611" s="2"/>
-      <c r="J611" s="67"/>
+      <c r="J611" s="59"/>
       <c r="K611" s="2"/>
     </row>
     <row r="612" spans="1:11" ht="15.6">
       <c r="A612" s="2"/>
       <c r="H612" s="2"/>
       <c r="I612" s="2"/>
-      <c r="J612" s="67"/>
+      <c r="J612" s="59"/>
       <c r="K612" s="2"/>
     </row>
     <row r="613" spans="1:11" ht="15.6">
       <c r="A613" s="2"/>
       <c r="H613" s="2"/>
       <c r="I613" s="2"/>
-      <c r="J613" s="67"/>
+      <c r="J613" s="59"/>
       <c r="K613" s="2"/>
     </row>
     <row r="614" spans="1:11" ht="15.6">
       <c r="A614" s="2"/>
       <c r="H614" s="2"/>
       <c r="I614" s="2"/>
-      <c r="J614" s="67"/>
+      <c r="J614" s="59"/>
       <c r="K614" s="2"/>
     </row>
     <row r="615" spans="1:11" ht="15.6">
       <c r="A615" s="2"/>
       <c r="H615" s="2"/>
       <c r="I615" s="2"/>
-      <c r="J615" s="67"/>
+      <c r="J615" s="59"/>
       <c r="K615" s="2"/>
     </row>
     <row r="616" spans="1:11" ht="15.6">
       <c r="A616" s="2"/>
       <c r="H616" s="2"/>
       <c r="I616" s="2"/>
-      <c r="J616" s="67"/>
+      <c r="J616" s="59"/>
       <c r="K616" s="2"/>
     </row>
     <row r="617" spans="1:11" ht="15.6">
       <c r="A617" s="2"/>
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
-      <c r="J617" s="67"/>
+      <c r="J617" s="59"/>
       <c r="K617" s="2"/>
     </row>
     <row r="618" spans="1:11" ht="15.6">
       <c r="A618" s="2"/>
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
-      <c r="J618" s="67"/>
+      <c r="J618" s="59"/>
       <c r="K618" s="2"/>
     </row>
     <row r="619" spans="1:11" ht="15.6">
       <c r="A619" s="2"/>
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
-      <c r="J619" s="67"/>
+      <c r="J619" s="59"/>
       <c r="K619" s="2"/>
     </row>
     <row r="620" spans="1:11" ht="15.6">
       <c r="A620" s="2"/>
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
-      <c r="J620" s="67"/>
+      <c r="J620" s="59"/>
       <c r="K620" s="2"/>
     </row>
     <row r="621" spans="1:11" ht="15.6">
       <c r="A621" s="2"/>
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
-      <c r="J621" s="67"/>
+      <c r="J621" s="59"/>
       <c r="K621" s="2"/>
     </row>
     <row r="622" spans="1:11" ht="15.6">
       <c r="A622" s="2"/>
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
-      <c r="J622" s="67"/>
+      <c r="J622" s="59"/>
       <c r="K622" s="2"/>
     </row>
     <row r="623" spans="1:11" ht="15.6">
       <c r="A623" s="2"/>
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
-      <c r="J623" s="67"/>
+      <c r="J623" s="59"/>
       <c r="K623" s="2"/>
     </row>
     <row r="624" spans="1:11" ht="15.6">
       <c r="A624" s="2"/>
       <c r="H624" s="2"/>
       <c r="I624" s="2"/>
-      <c r="J624" s="67"/>
+      <c r="J624" s="59"/>
       <c r="K624" s="2"/>
     </row>
     <row r="625" spans="1:11" ht="15.6">
       <c r="A625" s="2"/>
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
-      <c r="J625" s="67"/>
+      <c r="J625" s="59"/>
       <c r="K625" s="2"/>
     </row>
     <row r="626" spans="1:11" ht="15.6">
       <c r="A626" s="2"/>
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
-      <c r="J626" s="67"/>
+      <c r="J626" s="59"/>
       <c r="K626" s="2"/>
     </row>
     <row r="627" spans="1:11" ht="15.6">
       <c r="A627" s="2"/>
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
-      <c r="J627" s="67"/>
+      <c r="J627" s="59"/>
       <c r="K627" s="2"/>
     </row>
     <row r="628" spans="1:11" ht="15.6">
       <c r="A628" s="2"/>
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
-      <c r="J628" s="67"/>
+      <c r="J628" s="59"/>
       <c r="K628" s="2"/>
     </row>
     <row r="629" spans="1:11" ht="15.6">
       <c r="A629" s="2"/>
       <c r="H629" s="2"/>
       <c r="I629" s="2"/>
-      <c r="J629" s="67"/>
+      <c r="J629" s="59"/>
       <c r="K629" s="2"/>
     </row>
     <row r="630" spans="1:11" ht="15.6">
       <c r="A630" s="2"/>
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
-      <c r="J630" s="67"/>
+      <c r="J630" s="59"/>
       <c r="K630" s="2"/>
     </row>
     <row r="631" spans="1:11" ht="15.6">
       <c r="A631" s="2"/>
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
-      <c r="J631" s="67"/>
+      <c r="J631" s="59"/>
       <c r="K631" s="2"/>
     </row>
     <row r="632" spans="1:11" ht="15.6">
       <c r="A632" s="2"/>
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
-      <c r="J632" s="67"/>
+      <c r="J632" s="59"/>
       <c r="K632" s="2"/>
     </row>
     <row r="633" spans="1:11" ht="15.6">
       <c r="A633" s="2"/>
       <c r="H633" s="2"/>
       <c r="I633" s="2"/>
-      <c r="J633" s="67"/>
+      <c r="J633" s="59"/>
       <c r="K633" s="2"/>
     </row>
     <row r="634" spans="1:11" ht="15.6">
       <c r="A634" s="2"/>
       <c r="H634" s="2"/>
       <c r="I634" s="2"/>
-      <c r="J634" s="67"/>
+      <c r="J634" s="59"/>
       <c r="K634" s="2"/>
     </row>
     <row r="635" spans="1:11" ht="15.6">
       <c r="A635" s="2"/>
       <c r="H635" s="2"/>
       <c r="I635" s="2"/>
-      <c r="J635" s="67"/>
+      <c r="J635" s="59"/>
       <c r="K635" s="2"/>
     </row>
     <row r="636" spans="1:11" ht="15.6">
       <c r="A636" s="2"/>
       <c r="H636" s="2"/>
       <c r="I636" s="2"/>
-      <c r="J636" s="67"/>
+      <c r="J636" s="59"/>
       <c r="K636" s="2"/>
     </row>
     <row r="637" spans="1:11" ht="15.6">
       <c r="A637" s="2"/>
       <c r="H637" s="2"/>
       <c r="I637" s="2"/>
-      <c r="J637" s="67"/>
+      <c r="J637" s="59"/>
       <c r="K637" s="2"/>
     </row>
     <row r="638" spans="1:11" ht="15.6">
       <c r="A638" s="2"/>
       <c r="H638" s="2"/>
       <c r="I638" s="2"/>
-      <c r="J638" s="67"/>
+      <c r="J638" s="59"/>
       <c r="K638" s="2"/>
     </row>
     <row r="639" spans="1:11" ht="15.6">
       <c r="A639" s="2"/>
       <c r="H639" s="2"/>
       <c r="I639" s="2"/>
-      <c r="J639" s="67"/>
+      <c r="J639" s="59"/>
       <c r="K639" s="2"/>
     </row>
     <row r="640" spans="1:11" ht="15.6">
       <c r="A640" s="2"/>
       <c r="H640" s="2"/>
       <c r="I640" s="2"/>
-      <c r="J640" s="67"/>
+      <c r="J640" s="59"/>
       <c r="K640" s="2"/>
     </row>
     <row r="641" spans="1:11" ht="15.6">
       <c r="A641" s="2"/>
       <c r="H641" s="2"/>
       <c r="I641" s="2"/>
-      <c r="J641" s="67"/>
+      <c r="J641" s="59"/>
       <c r="K641" s="2"/>
     </row>
     <row r="642" spans="1:11" ht="15.6">
       <c r="A642" s="2"/>
       <c r="H642" s="2"/>
       <c r="I642" s="2"/>
-      <c r="J642" s="67"/>
+      <c r="J642" s="59"/>
       <c r="K642" s="2"/>
     </row>
     <row r="643" spans="1:11" ht="15.6">
       <c r="A643" s="2"/>
       <c r="H643" s="2"/>
       <c r="I643" s="2"/>
-      <c r="J643" s="67"/>
+      <c r="J643" s="59"/>
       <c r="K643" s="2"/>
     </row>
     <row r="644" spans="1:11" ht="15.6">
       <c r="A644" s="2"/>
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
-      <c r="J644" s="67"/>
+      <c r="J644" s="59"/>
       <c r="K644" s="2"/>
     </row>
     <row r="645" spans="1:11" ht="15.6">
       <c r="A645" s="2"/>
       <c r="H645" s="2"/>
       <c r="I645" s="2"/>
-      <c r="J645" s="67"/>
+      <c r="J645" s="59"/>
       <c r="K645" s="2"/>
     </row>
     <row r="646" spans="1:11" ht="15.6">
       <c r="A646" s="2"/>
       <c r="H646" s="2"/>
       <c r="I646" s="2"/>
-      <c r="J646" s="67"/>
+      <c r="J646" s="59"/>
       <c r="K646" s="2"/>
     </row>
     <row r="647" spans="1:11" ht="15.6">
       <c r="A647" s="2"/>
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
-      <c r="J647" s="67"/>
+      <c r="J647" s="59"/>
       <c r="K647" s="2"/>
     </row>
     <row r="648" spans="1:11" ht="15.6">
       <c r="A648" s="2"/>
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
-      <c r="J648" s="67"/>
+      <c r="J648" s="59"/>
       <c r="K648" s="2"/>
     </row>
     <row r="649" spans="1:11" ht="15.6">
       <c r="A649" s="2"/>
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
-      <c r="J649" s="67"/>
+      <c r="J649" s="59"/>
       <c r="K649" s="2"/>
     </row>
     <row r="650" spans="1:11" ht="15.6">
       <c r="A650" s="2"/>
       <c r="H650" s="2"/>
       <c r="I650" s="2"/>
-      <c r="J650" s="67"/>
+      <c r="J650" s="59"/>
       <c r="K650" s="2"/>
     </row>
     <row r="651" spans="1:11" ht="15.6">
       <c r="A651" s="2"/>
       <c r="H651" s="2"/>
       <c r="I651" s="2"/>
-      <c r="J651" s="67"/>
+      <c r="J651" s="59"/>
       <c r="K651" s="2"/>
     </row>
     <row r="652" spans="1:11" ht="15.6">
       <c r="A652" s="2"/>
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
-      <c r="J652" s="67"/>
+      <c r="J652" s="59"/>
       <c r="K652" s="2"/>
     </row>
     <row r="653" spans="1:11" ht="15.6">
       <c r="A653" s="2"/>
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
-      <c r="J653" s="67"/>
+      <c r="J653" s="59"/>
       <c r="K653" s="2"/>
     </row>
     <row r="654" spans="1:11" ht="15.6">
       <c r="A654" s="2"/>
       <c r="H654" s="2"/>
       <c r="I654" s="2"/>
-      <c r="J654" s="67"/>
+      <c r="J654" s="59"/>
       <c r="K654" s="2"/>
     </row>
     <row r="655" spans="1:11" ht="15.6">
       <c r="A655" s="2"/>
       <c r="H655" s="2"/>
       <c r="I655" s="2"/>
-      <c r="J655" s="67"/>
+      <c r="J655" s="59"/>
       <c r="K655" s="2"/>
     </row>
     <row r="656" spans="1:11" ht="15.6">
       <c r="A656" s="2"/>
       <c r="H656" s="2"/>
       <c r="I656" s="2"/>
-      <c r="J656" s="67"/>
+      <c r="J656" s="59"/>
       <c r="K656" s="2"/>
     </row>
     <row r="657" spans="1:11" ht="15.6">
       <c r="A657" s="2"/>
       <c r="H657" s="2"/>
       <c r="I657" s="2"/>
-      <c r="J657" s="67"/>
+      <c r="J657" s="59"/>
       <c r="K657" s="2"/>
     </row>
     <row r="658" spans="1:11" ht="15.6">
       <c r="A658" s="2"/>
       <c r="H658" s="2"/>
       <c r="I658" s="2"/>
-      <c r="J658" s="67"/>
+      <c r="J658" s="59"/>
       <c r="K658" s="2"/>
     </row>
     <row r="659" spans="1:11" ht="15.6">
       <c r="A659" s="2"/>
       <c r="H659" s="2"/>
       <c r="I659" s="2"/>
-      <c r="J659" s="67"/>
+      <c r="J659" s="59"/>
       <c r="K659" s="2"/>
     </row>
     <row r="660" spans="1:11" ht="15.6">
       <c r="A660" s="2"/>
       <c r="H660" s="2"/>
       <c r="I660" s="2"/>
-      <c r="J660" s="67"/>
+      <c r="J660" s="59"/>
       <c r="K660" s="2"/>
     </row>
     <row r="661" spans="1:11" ht="15.6">
       <c r="A661" s="2"/>
       <c r="H661" s="2"/>
       <c r="I661" s="2"/>
-      <c r="J661" s="67"/>
+      <c r="J661" s="59"/>
       <c r="K661" s="2"/>
     </row>
     <row r="662" spans="1:11" ht="15.6">
       <c r="A662" s="2"/>
       <c r="H662" s="2"/>
       <c r="I662" s="2"/>
-      <c r="J662" s="67"/>
+      <c r="J662" s="59"/>
       <c r="K662" s="2"/>
     </row>
     <row r="663" spans="1:11" ht="15.6">
       <c r="A663" s="2"/>
       <c r="H663" s="2"/>
       <c r="I663" s="2"/>
-      <c r="J663" s="67"/>
+      <c r="J663" s="59"/>
       <c r="K663" s="2"/>
     </row>
     <row r="664" spans="1:11" ht="15.6">
       <c r="A664" s="2"/>
       <c r="H664" s="2"/>
       <c r="I664" s="2"/>
-      <c r="J664" s="67"/>
+      <c r="J664" s="59"/>
       <c r="K664" s="2"/>
     </row>
     <row r="665" spans="1:11" ht="15.6">
       <c r="A665" s="2"/>
       <c r="H665" s="2"/>
       <c r="I665" s="2"/>
-      <c r="J665" s="67"/>
+      <c r="J665" s="59"/>
       <c r="K665" s="2"/>
     </row>
     <row r="666" spans="1:11" ht="15.6">
       <c r="A666" s="2"/>
       <c r="H666" s="2"/>
       <c r="I666" s="2"/>
-      <c r="J666" s="67"/>
+      <c r="J666" s="59"/>
       <c r="K666" s="2"/>
     </row>
     <row r="667" spans="1:11" ht="15.6">
       <c r="A667" s="2"/>
       <c r="H667" s="2"/>
       <c r="I667" s="2"/>
-      <c r="J667" s="67"/>
+      <c r="J667" s="59"/>
       <c r="K667" s="2"/>
     </row>
     <row r="668" spans="1:11" ht="15.6">
       <c r="A668" s="2"/>
       <c r="H668" s="2"/>
       <c r="I668" s="2"/>
-      <c r="J668" s="67"/>
+      <c r="J668" s="59"/>
       <c r="K668" s="2"/>
     </row>
     <row r="669" spans="1:11" ht="15.6">
       <c r="A669" s="2"/>
       <c r="H669" s="2"/>
       <c r="I669" s="2"/>
-      <c r="J669" s="67"/>
+      <c r="J669" s="59"/>
       <c r="K669" s="2"/>
     </row>
     <row r="670" spans="1:11" ht="15.6">
       <c r="A670" s="2"/>
       <c r="H670" s="2"/>
       <c r="I670" s="2"/>
-      <c r="J670" s="67"/>
+      <c r="J670" s="59"/>
       <c r="K670" s="2"/>
     </row>
     <row r="671" spans="1:11" ht="15.6">
       <c r="A671" s="2"/>
       <c r="H671" s="2"/>
       <c r="I671" s="2"/>
-      <c r="J671" s="67"/>
+      <c r="J671" s="59"/>
       <c r="K671" s="2"/>
     </row>
     <row r="672" spans="1:11" ht="15.6">
       <c r="A672" s="2"/>
       <c r="H672" s="2"/>
       <c r="I672" s="2"/>
-      <c r="J672" s="67"/>
+      <c r="J672" s="59"/>
       <c r="K672" s="2"/>
     </row>
     <row r="673" spans="1:11" ht="15.6">
       <c r="A673" s="2"/>
       <c r="H673" s="2"/>
       <c r="I673" s="2"/>
-      <c r="J673" s="67"/>
+      <c r="J673" s="59"/>
       <c r="K673" s="2"/>
     </row>
     <row r="674" spans="1:11" ht="15.6">
       <c r="A674" s="2"/>
       <c r="H674" s="2"/>
       <c r="I674" s="2"/>
-      <c r="J674" s="67"/>
+      <c r="J674" s="59"/>
       <c r="K674" s="2"/>
     </row>
     <row r="675" spans="1:11" ht="15.6">
       <c r="A675" s="2"/>
       <c r="H675" s="2"/>
       <c r="I675" s="2"/>
-      <c r="J675" s="67"/>
+      <c r="J675" s="59"/>
       <c r="K675" s="2"/>
     </row>
     <row r="676" spans="1:11" ht="15.6">
       <c r="A676" s="2"/>
       <c r="H676" s="2"/>
       <c r="I676" s="2"/>
-      <c r="J676" s="67"/>
+      <c r="J676" s="59"/>
       <c r="K676" s="2"/>
     </row>
     <row r="677" spans="1:11" ht="15.6">
       <c r="A677" s="2"/>
       <c r="H677" s="2"/>
       <c r="I677" s="2"/>
-      <c r="J677" s="67"/>
+      <c r="J677" s="59"/>
       <c r="K677" s="2"/>
     </row>
     <row r="678" spans="1:11" ht="15.6">
       <c r="A678" s="2"/>
       <c r="H678" s="2"/>
       <c r="I678" s="2"/>
-      <c r="J678" s="67"/>
+      <c r="J678" s="59"/>
       <c r="K678" s="2"/>
     </row>
     <row r="679" spans="1:11" ht="15.6">
       <c r="A679" s="2"/>
       <c r="H679" s="2"/>
       <c r="I679" s="2"/>
-      <c r="J679" s="67"/>
+      <c r="J679" s="59"/>
       <c r="K679" s="2"/>
     </row>
     <row r="680" spans="1:11" ht="15.6">
       <c r="A680" s="2"/>
       <c r="H680" s="2"/>
       <c r="I680" s="2"/>
-      <c r="J680" s="67"/>
+      <c r="J680" s="59"/>
       <c r="K680" s="2"/>
     </row>
     <row r="681" spans="1:11" ht="15.6">
       <c r="A681" s="2"/>
       <c r="H681" s="2"/>
       <c r="I681" s="2"/>
-      <c r="J681" s="67"/>
+      <c r="J681" s="59"/>
       <c r="K681" s="2"/>
     </row>
     <row r="682" spans="1:11" ht="15.6">
       <c r="A682" s="2"/>
       <c r="H682" s="2"/>
       <c r="I682" s="2"/>
-      <c r="J682" s="67"/>
+      <c r="J682" s="59"/>
       <c r="K682" s="2"/>
     </row>
     <row r="683" spans="1:11" ht="15.6">
       <c r="A683" s="2"/>
       <c r="H683" s="2"/>
       <c r="I683" s="2"/>
-      <c r="J683" s="67"/>
+      <c r="J683" s="59"/>
       <c r="K683" s="2"/>
     </row>
     <row r="684" spans="1:11" ht="15.6">
       <c r="A684" s="2"/>
       <c r="H684" s="2"/>
       <c r="I684" s="2"/>
-      <c r="J684" s="67"/>
+      <c r="J684" s="59"/>
       <c r="K684" s="2"/>
     </row>
     <row r="685" spans="1:11" ht="15.6">
       <c r="A685" s="2"/>
       <c r="H685" s="2"/>
       <c r="I685" s="2"/>
-      <c r="J685" s="67"/>
+      <c r="J685" s="59"/>
       <c r="K685" s="2"/>
     </row>
     <row r="686" spans="1:11" ht="15.6">
       <c r="A686" s="2"/>
       <c r="H686" s="2"/>
       <c r="I686" s="2"/>
-      <c r="J686" s="67"/>
+      <c r="J686" s="59"/>
       <c r="K686" s="2"/>
     </row>
     <row r="687" spans="1:11" ht="15.6">
       <c r="A687" s="2"/>
       <c r="H687" s="2"/>
       <c r="I687" s="2"/>
-      <c r="J687" s="67"/>
+      <c r="J687" s="59"/>
       <c r="K687" s="2"/>
     </row>
     <row r="688" spans="1:11" ht="15.6">
       <c r="A688" s="2"/>
       <c r="H688" s="2"/>
       <c r="I688" s="2"/>
-      <c r="J688" s="67"/>
+      <c r="J688" s="59"/>
       <c r="K688" s="2"/>
     </row>
     <row r="689" spans="1:11" ht="15.6">
       <c r="A689" s="2"/>
       <c r="H689" s="2"/>
       <c r="I689" s="2"/>
-      <c r="J689" s="67"/>
+      <c r="J689" s="59"/>
       <c r="K689" s="2"/>
     </row>
     <row r="690" spans="1:11" ht="15.6">
       <c r="A690" s="2"/>
       <c r="H690" s="2"/>
       <c r="I690" s="2"/>
-      <c r="J690" s="67"/>
+      <c r="J690" s="59"/>
       <c r="K690" s="2"/>
     </row>
     <row r="691" spans="1:11" ht="15.6">
       <c r="A691" s="2"/>
       <c r="H691" s="2"/>
       <c r="I691" s="2"/>
-      <c r="J691" s="67"/>
+      <c r="J691" s="59"/>
       <c r="K691" s="2"/>
     </row>
     <row r="692" spans="1:11" ht="15.6">
       <c r="A692" s="2"/>
       <c r="H692" s="2"/>
       <c r="I692" s="2"/>
-      <c r="J692" s="67"/>
+      <c r="J692" s="59"/>
       <c r="K692" s="2"/>
     </row>
     <row r="693" spans="1:11" ht="15.6">
       <c r="A693" s="2"/>
       <c r="H693" s="2"/>
       <c r="I693" s="2"/>
-      <c r="J693" s="67"/>
+      <c r="J693" s="59"/>
       <c r="K693" s="2"/>
     </row>
     <row r="694" spans="1:11" ht="15.6">
       <c r="A694" s="2"/>
       <c r="H694" s="2"/>
       <c r="I694" s="2"/>
-      <c r="J694" s="67"/>
+      <c r="J694" s="59"/>
       <c r="K694" s="2"/>
     </row>
     <row r="695" spans="1:11" ht="15.6">
       <c r="A695" s="2"/>
       <c r="H695" s="2"/>
       <c r="I695" s="2"/>
-      <c r="J695" s="67"/>
+      <c r="J695" s="59"/>
       <c r="K695" s="2"/>
     </row>
     <row r="696" spans="1:11" ht="15.6">
       <c r="A696" s="2"/>
       <c r="H696" s="2"/>
       <c r="I696" s="2"/>
-      <c r="J696" s="67"/>
+      <c r="J696" s="59"/>
       <c r="K696" s="2"/>
     </row>
     <row r="697" spans="1:11" ht="15.6">
       <c r="A697" s="2"/>
       <c r="H697" s="2"/>
       <c r="I697" s="2"/>
-      <c r="J697" s="67"/>
+      <c r="J697" s="59"/>
       <c r="K697" s="2"/>
     </row>
     <row r="698" spans="1:11" ht="15.6">
       <c r="A698" s="2"/>
       <c r="H698" s="2"/>
       <c r="I698" s="2"/>
-      <c r="J698" s="67"/>
+      <c r="J698" s="59"/>
       <c r="K698" s="2"/>
     </row>
     <row r="699" spans="1:11" ht="15.6">
       <c r="A699" s="2"/>
       <c r="H699" s="2"/>
       <c r="I699" s="2"/>
-      <c r="J699" s="67"/>
+      <c r="J699" s="59"/>
       <c r="K699" s="2"/>
     </row>
     <row r="700" spans="1:11" ht="15.6">
       <c r="A700" s="2"/>
       <c r="H700" s="2"/>
       <c r="I700" s="2"/>
-      <c r="J700" s="67"/>
+      <c r="J700" s="59"/>
       <c r="K700" s="2"/>
     </row>
     <row r="701" spans="1:11" ht="15.6">
       <c r="A701" s="2"/>
       <c r="H701" s="2"/>
       <c r="I701" s="2"/>
-      <c r="J701" s="67"/>
+      <c r="J701" s="59"/>
       <c r="K701" s="2"/>
     </row>
     <row r="702" spans="1:11" ht="15.6">
       <c r="A702" s="2"/>
       <c r="H702" s="2"/>
       <c r="I702" s="2"/>
-      <c r="J702" s="67"/>
+      <c r="J702" s="59"/>
       <c r="K702" s="2"/>
     </row>
     <row r="703" spans="1:11" ht="15.6">
       <c r="A703" s="2"/>
       <c r="H703" s="2"/>
       <c r="I703" s="2"/>
-      <c r="J703" s="67"/>
+      <c r="J703" s="59"/>
       <c r="K703" s="2"/>
     </row>
     <row r="704" spans="1:11" ht="15.6">
       <c r="A704" s="2"/>
       <c r="H704" s="2"/>
       <c r="I704" s="2"/>
-      <c r="J704" s="67"/>
+      <c r="J704" s="59"/>
       <c r="K704" s="2"/>
     </row>
     <row r="705" spans="1:11" ht="15.6">
       <c r="A705" s="2"/>
       <c r="H705" s="2"/>
       <c r="I705" s="2"/>
-      <c r="J705" s="67"/>
+      <c r="J705" s="59"/>
       <c r="K705" s="2"/>
     </row>
     <row r="706" spans="1:11" ht="15.6">
       <c r="A706" s="2"/>
       <c r="H706" s="2"/>
       <c r="I706" s="2"/>
-      <c r="J706" s="67"/>
+      <c r="J706" s="59"/>
       <c r="K706" s="2"/>
     </row>
     <row r="707" spans="1:11" ht="15.6">
       <c r="A707" s="2"/>
       <c r="H707" s="2"/>
       <c r="I707" s="2"/>
-      <c r="J707" s="67"/>
+      <c r="J707" s="59"/>
       <c r="K707" s="2"/>
     </row>
     <row r="708" spans="1:11" ht="15.6">
       <c r="A708" s="2"/>
       <c r="H708" s="2"/>
       <c r="I708" s="2"/>
-      <c r="J708" s="67"/>
+      <c r="J708" s="59"/>
       <c r="K708" s="2"/>
     </row>
     <row r="709" spans="1:11" ht="15.6">
       <c r="A709" s="2"/>
       <c r="H709" s="2"/>
       <c r="I709" s="2"/>
-      <c r="J709" s="67"/>
+      <c r="J709" s="59"/>
       <c r="K709" s="2"/>
     </row>
     <row r="710" spans="1:11" ht="15.6">
       <c r="A710" s="2"/>
       <c r="H710" s="2"/>
       <c r="I710" s="2"/>
-      <c r="J710" s="67"/>
+      <c r="J710" s="59"/>
       <c r="K710" s="2"/>
     </row>
     <row r="711" spans="1:11" ht="15.6">
       <c r="A711" s="2"/>
       <c r="H711" s="2"/>
       <c r="I711" s="2"/>
-      <c r="J711" s="67"/>
+      <c r="J711" s="59"/>
       <c r="K711" s="2"/>
     </row>
     <row r="712" spans="1:11" ht="15.6">
       <c r="A712" s="2"/>
       <c r="H712" s="2"/>
       <c r="I712" s="2"/>
-      <c r="J712" s="67"/>
+      <c r="J712" s="59"/>
       <c r="K712" s="2"/>
     </row>
     <row r="713" spans="1:11" ht="15.6">
       <c r="A713" s="2"/>
       <c r="H713" s="2"/>
       <c r="I713" s="2"/>
-      <c r="J713" s="67"/>
+      <c r="J713" s="59"/>
       <c r="K713" s="2"/>
     </row>
     <row r="714" spans="1:11" ht="15.6">
       <c r="A714" s="2"/>
       <c r="H714" s="2"/>
       <c r="I714" s="2"/>
-      <c r="J714" s="67"/>
+      <c r="J714" s="59"/>
       <c r="K714" s="2"/>
     </row>
     <row r="715" spans="1:11" ht="15.6">
       <c r="A715" s="2"/>
       <c r="H715" s="2"/>
       <c r="I715" s="2"/>
-      <c r="J715" s="67"/>
+      <c r="J715" s="59"/>
       <c r="K715" s="2"/>
     </row>
     <row r="716" spans="1:11" ht="15.6">
       <c r="A716" s="2"/>
       <c r="H716" s="2"/>
       <c r="I716" s="2"/>
-      <c r="J716" s="67"/>
+      <c r="J716" s="59"/>
       <c r="K716" s="2"/>
     </row>
     <row r="717" spans="1:11" ht="15.6">
       <c r="A717" s="2"/>
       <c r="H717" s="2"/>
       <c r="I717" s="2"/>
-      <c r="J717" s="67"/>
+      <c r="J717" s="59"/>
       <c r="K717" s="2"/>
     </row>
     <row r="718" spans="1:11" ht="15.6">
       <c r="A718" s="2"/>
       <c r="H718" s="2"/>
       <c r="I718" s="2"/>
-      <c r="J718" s="67"/>
+      <c r="J718" s="59"/>
       <c r="K718" s="2"/>
     </row>
     <row r="719" spans="1:11" ht="15.6">
       <c r="A719" s="2"/>
       <c r="H719" s="2"/>
       <c r="I719" s="2"/>
-      <c r="J719" s="67"/>
+      <c r="J719" s="59"/>
       <c r="K719" s="2"/>
     </row>
     <row r="720" spans="1:11" ht="15.6">
       <c r="A720" s="2"/>
       <c r="H720" s="2"/>
       <c r="I720" s="2"/>
-      <c r="J720" s="67"/>
+      <c r="J720" s="59"/>
       <c r="K720" s="2"/>
     </row>
     <row r="721" spans="1:11" ht="15.6">
       <c r="A721" s="2"/>
       <c r="H721" s="2"/>
       <c r="I721" s="2"/>
-      <c r="J721" s="67"/>
+      <c r="J721" s="59"/>
       <c r="K721" s="2"/>
     </row>
     <row r="722" spans="1:11" ht="15.6">
       <c r="A722" s="2"/>
       <c r="H722" s="2"/>
       <c r="I722" s="2"/>
-      <c r="J722" s="67"/>
+      <c r="J722" s="59"/>
       <c r="K722" s="2"/>
     </row>
     <row r="723" spans="1:11" ht="15.6">
       <c r="A723" s="2"/>
       <c r="H723" s="2"/>
       <c r="I723" s="2"/>
-      <c r="J723" s="67"/>
+      <c r="J723" s="59"/>
       <c r="K723" s="2"/>
     </row>
     <row r="724" spans="1:11" ht="15.6">
       <c r="A724" s="2"/>
       <c r="H724" s="2"/>
       <c r="I724" s="2"/>
-      <c r="J724" s="67"/>
+      <c r="J724" s="59"/>
       <c r="K724" s="2"/>
     </row>
     <row r="725" spans="1:11" ht="15.6">
       <c r="A725" s="2"/>
       <c r="H725" s="2"/>
       <c r="I725" s="2"/>
-      <c r="J725" s="67"/>
+      <c r="J725" s="59"/>
       <c r="K725" s="2"/>
     </row>
     <row r="726" spans="1:11" ht="15.6">
       <c r="A726" s="2"/>
       <c r="H726" s="2"/>
       <c r="I726" s="2"/>
-      <c r="J726" s="67"/>
+      <c r="J726" s="59"/>
       <c r="K726" s="2"/>
     </row>
     <row r="727" spans="1:11" ht="15.6">
       <c r="A727" s="2"/>
       <c r="H727" s="2"/>
       <c r="I727" s="2"/>
-      <c r="J727" s="67"/>
+      <c r="J727" s="59"/>
       <c r="K727" s="2"/>
     </row>
     <row r="728" spans="1:11" ht="15.6">
       <c r="A728" s="2"/>
       <c r="H728" s="2"/>
       <c r="I728" s="2"/>
-      <c r="J728" s="67"/>
+      <c r="J728" s="59"/>
       <c r="K728" s="2"/>
     </row>
     <row r="729" spans="1:11" ht="15.6">
       <c r="A729" s="2"/>
       <c r="H729" s="2"/>
       <c r="I729" s="2"/>
-      <c r="J729" s="67"/>
+      <c r="J729" s="59"/>
       <c r="K729" s="2"/>
     </row>
     <row r="730" spans="1:11" ht="15.6">
       <c r="A730" s="2"/>
       <c r="H730" s="2"/>
       <c r="I730" s="2"/>
-      <c r="J730" s="67"/>
+      <c r="J730" s="59"/>
       <c r="K730" s="2"/>
     </row>
     <row r="731" spans="1:11" ht="15.6">
       <c r="A731" s="2"/>
       <c r="H731" s="2"/>
       <c r="I731" s="2"/>
-      <c r="J731" s="67"/>
+      <c r="J731" s="59"/>
       <c r="K731" s="2"/>
     </row>
     <row r="732" spans="1:11" ht="15.6">
       <c r="A732" s="2"/>
       <c r="H732" s="2"/>
       <c r="I732" s="2"/>
-      <c r="J732" s="67"/>
+      <c r="J732" s="59"/>
       <c r="K732" s="2"/>
     </row>
     <row r="733" spans="1:11" ht="15.6">
       <c r="A733" s="2"/>
       <c r="H733" s="2"/>
       <c r="I733" s="2"/>
-      <c r="J733" s="67"/>
+      <c r="J733" s="59"/>
       <c r="K733" s="2"/>
     </row>
     <row r="734" spans="1:11" ht="15.6">
       <c r="A734" s="2"/>
       <c r="H734" s="2"/>
       <c r="I734" s="2"/>
-      <c r="J734" s="67"/>
+      <c r="J734" s="59"/>
       <c r="K734" s="2"/>
     </row>
     <row r="735" spans="1:11" ht="15.6">
       <c r="A735" s="2"/>
       <c r="H735" s="2"/>
       <c r="I735" s="2"/>
-      <c r="J735" s="67"/>
+      <c r="J735" s="59"/>
       <c r="K735" s="2"/>
     </row>
     <row r="736" spans="1:11" ht="15.6">
       <c r="A736" s="2"/>
       <c r="H736" s="2"/>
       <c r="I736" s="2"/>
-      <c r="J736" s="67"/>
+      <c r="J736" s="59"/>
       <c r="K736" s="2"/>
     </row>
     <row r="737" spans="1:11" ht="15.6">
       <c r="A737" s="2"/>
       <c r="H737" s="2"/>
       <c r="I737" s="2"/>
-      <c r="J737" s="67"/>
+      <c r="J737" s="59"/>
       <c r="K737" s="2"/>
     </row>
     <row r="738" spans="1:11" ht="15.6">
       <c r="A738" s="2"/>
       <c r="H738" s="2"/>
       <c r="I738" s="2"/>
-      <c r="J738" s="67"/>
+      <c r="J738" s="59"/>
       <c r="K738" s="2"/>
     </row>
     <row r="739" spans="1:11" ht="15.6">
       <c r="A739" s="2"/>
       <c r="H739" s="2"/>
       <c r="I739" s="2"/>
-      <c r="J739" s="67"/>
+      <c r="J739" s="59"/>
       <c r="K739" s="2"/>
     </row>
     <row r="740" spans="1:11" ht="15.6">
       <c r="A740" s="2"/>
       <c r="H740" s="2"/>
       <c r="I740" s="2"/>
-      <c r="J740" s="67"/>
+      <c r="J740" s="59"/>
       <c r="K740" s="2"/>
     </row>
     <row r="741" spans="1:11" ht="15.6">
       <c r="A741" s="2"/>
       <c r="H741" s="2"/>
       <c r="I741" s="2"/>
-      <c r="J741" s="67"/>
+      <c r="J741" s="59"/>
       <c r="K741" s="2"/>
     </row>
     <row r="742" spans="1:11" ht="15.6">
       <c r="A742" s="2"/>
       <c r="H742" s="2"/>
       <c r="I742" s="2"/>
-      <c r="J742" s="67"/>
+      <c r="J742" s="59"/>
       <c r="K742" s="2"/>
     </row>
     <row r="743" spans="1:11" ht="15.6">
       <c r="A743" s="2"/>
       <c r="H743" s="2"/>
       <c r="I743" s="2"/>
-      <c r="J743" s="67"/>
+      <c r="J743" s="59"/>
       <c r="K743" s="2"/>
     </row>
     <row r="744" spans="1:11" ht="15.6">
       <c r="A744" s="2"/>
       <c r="H744" s="2"/>
       <c r="I744" s="2"/>
-      <c r="J744" s="67"/>
+      <c r="J744" s="59"/>
       <c r="K744" s="2"/>
     </row>
     <row r="745" spans="1:11" ht="15.6">
       <c r="A745" s="2"/>
       <c r="H745" s="2"/>
       <c r="I745" s="2"/>
-      <c r="J745" s="67"/>
+      <c r="J745" s="59"/>
       <c r="K745" s="2"/>
     </row>
     <row r="746" spans="1:11" ht="15.6">
       <c r="A746" s="2"/>
       <c r="H746" s="2"/>
       <c r="I746" s="2"/>
-      <c r="J746" s="67"/>
+      <c r="J746" s="59"/>
       <c r="K746" s="2"/>
     </row>
     <row r="747" spans="1:11" ht="15.6">
       <c r="A747" s="2"/>
       <c r="H747" s="2"/>
       <c r="I747" s="2"/>
-      <c r="J747" s="67"/>
+      <c r="J747" s="59"/>
       <c r="K747" s="2"/>
     </row>
     <row r="748" spans="1:11" ht="15.6">
       <c r="A748" s="2"/>
       <c r="H748" s="2"/>
       <c r="I748" s="2"/>
-      <c r="J748" s="67"/>
+      <c r="J748" s="59"/>
       <c r="K748" s="2"/>
     </row>
     <row r="749" spans="1:11" ht="15.6">
       <c r="A749" s="2"/>
       <c r="H749" s="2"/>
       <c r="I749" s="2"/>
-      <c r="J749" s="67"/>
+      <c r="J749" s="59"/>
       <c r="K749" s="2"/>
     </row>
     <row r="750" spans="1:11" ht="15.6">
       <c r="A750" s="2"/>
       <c r="H750" s="2"/>
       <c r="I750" s="2"/>
-      <c r="J750" s="67"/>
+      <c r="J750" s="59"/>
       <c r="K750" s="2"/>
     </row>
     <row r="751" spans="1:11" ht="15.6">
       <c r="A751" s="2"/>
       <c r="H751" s="2"/>
       <c r="I751" s="2"/>
-      <c r="J751" s="67"/>
+      <c r="J751" s="59"/>
       <c r="K751" s="2"/>
     </row>
     <row r="752" spans="1:11" ht="15.6">
       <c r="A752" s="2"/>
       <c r="H752" s="2"/>
       <c r="I752" s="2"/>
-      <c r="J752" s="67"/>
+      <c r="J752" s="59"/>
       <c r="K752" s="2"/>
     </row>
     <row r="753" spans="1:11" ht="15.6">
       <c r="A753" s="2"/>
       <c r="H753" s="2"/>
       <c r="I753" s="2"/>
-      <c r="J753" s="67"/>
+      <c r="J753" s="59"/>
       <c r="K753" s="2"/>
     </row>
     <row r="754" spans="1:11" ht="15.6">
       <c r="A754" s="2"/>
       <c r="H754" s="2"/>
       <c r="I754" s="2"/>
-      <c r="J754" s="67"/>
+      <c r="J754" s="59"/>
       <c r="K754" s="2"/>
     </row>
     <row r="755" spans="1:11" ht="15.6">
       <c r="A755" s="2"/>
       <c r="H755" s="2"/>
       <c r="I755" s="2"/>
-      <c r="J755" s="67"/>
+      <c r="J755" s="59"/>
       <c r="K755" s="2"/>
     </row>
     <row r="756" spans="1:11" ht="15.6">
       <c r="A756" s="2"/>
       <c r="H756" s="2"/>
       <c r="I756" s="2"/>
-      <c r="J756" s="67"/>
+      <c r="J756" s="59"/>
       <c r="K756" s="2"/>
     </row>
     <row r="757" spans="1:11" ht="15.6">
       <c r="A757" s="2"/>
       <c r="H757" s="2"/>
       <c r="I757" s="2"/>
-      <c r="J757" s="67"/>
+      <c r="J757" s="59"/>
       <c r="K757" s="2"/>
     </row>
     <row r="758" spans="1:11" ht="15.6">
       <c r="A758" s="2"/>
       <c r="H758" s="2"/>
       <c r="I758" s="2"/>
-      <c r="J758" s="67"/>
+      <c r="J758" s="59"/>
       <c r="K758" s="2"/>
     </row>
     <row r="759" spans="1:11" ht="15.6">
       <c r="A759" s="2"/>
       <c r="H759" s="2"/>
       <c r="I759" s="2"/>
-      <c r="J759" s="67"/>
+      <c r="J759" s="59"/>
       <c r="K759" s="2"/>
     </row>
     <row r="760" spans="1:11" ht="15.6">
       <c r="A760" s="2"/>
       <c r="H760" s="2"/>
       <c r="I760" s="2"/>
-      <c r="J760" s="67"/>
+      <c r="J760" s="59"/>
       <c r="K760" s="2"/>
     </row>
     <row r="761" spans="1:11" ht="15.6">
       <c r="A761" s="2"/>
       <c r="H761" s="2"/>
       <c r="I761" s="2"/>
-      <c r="J761" s="67"/>
+      <c r="J761" s="59"/>
       <c r="K761" s="2"/>
     </row>
     <row r="762" spans="1:11" ht="15.6">
       <c r="A762" s="2"/>
       <c r="H762" s="2"/>
       <c r="I762" s="2"/>
-      <c r="J762" s="67"/>
+      <c r="J762" s="59"/>
       <c r="K762" s="2"/>
     </row>
     <row r="763" spans="1:11" ht="15.6">
       <c r="A763" s="2"/>
       <c r="H763" s="2"/>
       <c r="I763" s="2"/>
-      <c r="J763" s="67"/>
+      <c r="J763" s="59"/>
       <c r="K763" s="2"/>
     </row>
     <row r="764" spans="1:11" ht="15.6">
       <c r="A764" s="2"/>
       <c r="H764" s="2"/>
       <c r="I764" s="2"/>
-      <c r="J764" s="67"/>
+      <c r="J764" s="59"/>
       <c r="K764" s="2"/>
     </row>
     <row r="765" spans="1:11" ht="15.6">
       <c r="A765" s="2"/>
       <c r="H765" s="2"/>
       <c r="I765" s="2"/>
-      <c r="J765" s="67"/>
+      <c r="J765" s="59"/>
       <c r="K765" s="2"/>
     </row>
     <row r="766" spans="1:11" ht="15.6">
       <c r="A766" s="2"/>
       <c r="H766" s="2"/>
       <c r="I766" s="2"/>
-      <c r="J766" s="67"/>
+      <c r="J766" s="59"/>
       <c r="K766" s="2"/>
     </row>
     <row r="767" spans="1:11" ht="15.6">
       <c r="A767" s="2"/>
       <c r="H767" s="2"/>
       <c r="I767" s="2"/>
-      <c r="J767" s="67"/>
+      <c r="J767" s="59"/>
       <c r="K767" s="2"/>
     </row>
     <row r="768" spans="1:11" ht="15.6">
       <c r="A768" s="2"/>
       <c r="H768" s="2"/>
       <c r="I768" s="2"/>
-      <c r="J768" s="67"/>
+      <c r="J768" s="59"/>
       <c r="K768" s="2"/>
     </row>
     <row r="769" spans="1:11" ht="15.6">
       <c r="A769" s="2"/>
       <c r="H769" s="2"/>
       <c r="I769" s="2"/>
-      <c r="J769" s="67"/>
+      <c r="J769" s="59"/>
       <c r="K769" s="2"/>
     </row>
     <row r="770" spans="1:11" ht="15.6">
       <c r="A770" s="2"/>
       <c r="H770" s="2"/>
       <c r="I770" s="2"/>
-      <c r="J770" s="67"/>
+      <c r="J770" s="59"/>
       <c r="K770" s="2"/>
     </row>
     <row r="771" spans="1:11" ht="15.6">
       <c r="A771" s="2"/>
       <c r="H771" s="2"/>
       <c r="I771" s="2"/>
-      <c r="J771" s="67"/>
+      <c r="J771" s="59"/>
       <c r="K771" s="2"/>
     </row>
     <row r="772" spans="1:11" ht="15.6">
       <c r="A772" s="2"/>
       <c r="H772" s="2"/>
       <c r="I772" s="2"/>
-      <c r="J772" s="67"/>
+      <c r="J772" s="59"/>
       <c r="K772" s="2"/>
     </row>
     <row r="773" spans="1:11" ht="15.6">
       <c r="A773" s="2"/>
       <c r="H773" s="2"/>
       <c r="I773" s="2"/>
-      <c r="J773" s="67"/>
+      <c r="J773" s="59"/>
       <c r="K773" s="2"/>
     </row>
     <row r="774" spans="1:11" ht="15.6">
       <c r="A774" s="2"/>
       <c r="H774" s="2"/>
       <c r="I774" s="2"/>
-      <c r="J774" s="67"/>
+      <c r="J774" s="59"/>
       <c r="K774" s="2"/>
     </row>
     <row r="775" spans="1:11" ht="15.6">
       <c r="A775" s="2"/>
       <c r="H775" s="2"/>
       <c r="I775" s="2"/>
-      <c r="J775" s="67"/>
+      <c r="J775" s="59"/>
       <c r="K775" s="2"/>
     </row>
     <row r="776" spans="1:11" ht="15.6">
       <c r="A776" s="2"/>
       <c r="H776" s="2"/>
       <c r="I776" s="2"/>
-      <c r="J776" s="67"/>
+      <c r="J776" s="59"/>
       <c r="K776" s="2"/>
     </row>
     <row r="777" spans="1:11" ht="15.6">
       <c r="A777" s="2"/>
       <c r="H777" s="2"/>
       <c r="I777" s="2"/>
-      <c r="J777" s="67"/>
+      <c r="J777" s="59"/>
       <c r="K777" s="2"/>
     </row>
     <row r="778" spans="1:11" ht="15.6">
       <c r="A778" s="2"/>
       <c r="H778" s="2"/>
       <c r="I778" s="2"/>
-      <c r="J778" s="67"/>
+      <c r="J778" s="59"/>
       <c r="K778" s="2"/>
     </row>
     <row r="779" spans="1:11" ht="15.6">
       <c r="A779" s="2"/>
       <c r="H779" s="2"/>
       <c r="I779" s="2"/>
-      <c r="J779" s="67"/>
+      <c r="J779" s="59"/>
       <c r="K779" s="2"/>
     </row>
     <row r="780" spans="1:11" ht="15.6">
       <c r="A780" s="2"/>
       <c r="H780" s="2"/>
       <c r="I780" s="2"/>
-      <c r="J780" s="67"/>
+      <c r="J780" s="59"/>
       <c r="K780" s="2"/>
     </row>
     <row r="781" spans="1:11" ht="15.6">
       <c r="A781" s="2"/>
       <c r="H781" s="2"/>
       <c r="I781" s="2"/>
-      <c r="J781" s="67"/>
+      <c r="J781" s="59"/>
       <c r="K781" s="2"/>
     </row>
     <row r="782" spans="1:11" ht="15.6">
       <c r="A782" s="2"/>
       <c r="H782" s="2"/>
       <c r="I782" s="2"/>
-      <c r="J782" s="67"/>
+      <c r="J782" s="59"/>
       <c r="K782" s="2"/>
     </row>
     <row r="783" spans="1:11" ht="15.6">
       <c r="A783" s="2"/>
       <c r="H783" s="2"/>
       <c r="I783" s="2"/>
-      <c r="J783" s="67"/>
+      <c r="J783" s="59"/>
       <c r="K783" s="2"/>
     </row>
     <row r="784" spans="1:11" ht="15.6">
       <c r="A784" s="2"/>
       <c r="H784" s="2"/>
       <c r="I784" s="2"/>
-      <c r="J784" s="67"/>
+      <c r="J784" s="59"/>
       <c r="K784" s="2"/>
     </row>
     <row r="785" spans="1:11" ht="15.6">
       <c r="A785" s="2"/>
       <c r="H785" s="2"/>
       <c r="I785" s="2"/>
-      <c r="J785" s="67"/>
+      <c r="J785" s="59"/>
       <c r="K785" s="2"/>
     </row>
     <row r="786" spans="1:11" ht="15.6">
       <c r="A786" s="2"/>
       <c r="H786" s="2"/>
       <c r="I786" s="2"/>
-      <c r="J786" s="67"/>
+      <c r="J786" s="59"/>
       <c r="K786" s="2"/>
     </row>
     <row r="787" spans="1:11" ht="15.6">
       <c r="A787" s="2"/>
       <c r="H787" s="2"/>
       <c r="I787" s="2"/>
-      <c r="J787" s="67"/>
+      <c r="J787" s="59"/>
       <c r="K787" s="2"/>
     </row>
     <row r="788" spans="1:11" ht="15.6">
       <c r="A788" s="2"/>
       <c r="H788" s="2"/>
       <c r="I788" s="2"/>
-      <c r="J788" s="67"/>
+      <c r="J788" s="59"/>
       <c r="K788" s="2"/>
     </row>
     <row r="789" spans="1:11" ht="15.6">
       <c r="A789" s="2"/>
       <c r="H789" s="2"/>
       <c r="I789" s="2"/>
-      <c r="J789" s="67"/>
+      <c r="J789" s="59"/>
       <c r="K789" s="2"/>
     </row>
     <row r="790" spans="1:11" ht="15.6">
       <c r="A790" s="2"/>
       <c r="H790" s="2"/>
       <c r="I790" s="2"/>
-      <c r="J790" s="67"/>
+      <c r="J790" s="59"/>
       <c r="K790" s="2"/>
     </row>
     <row r="791" spans="1:11" ht="15.6">
       <c r="A791" s="2"/>
       <c r="H791" s="2"/>
       <c r="I791" s="2"/>
-      <c r="J791" s="67"/>
+      <c r="J791" s="59"/>
       <c r="K791" s="2"/>
     </row>
     <row r="792" spans="1:11" ht="15.6">
       <c r="A792" s="2"/>
       <c r="H792" s="2"/>
       <c r="I792" s="2"/>
-      <c r="J792" s="67"/>
+      <c r="J792" s="59"/>
       <c r="K792" s="2"/>
     </row>
     <row r="793" spans="1:11" ht="15.6">
       <c r="A793" s="2"/>
       <c r="H793" s="2"/>
       <c r="I793" s="2"/>
-      <c r="J793" s="67"/>
+      <c r="J793" s="59"/>
       <c r="K793" s="2"/>
     </row>
     <row r="794" spans="1:11" ht="15.6">
       <c r="A794" s="2"/>
       <c r="H794" s="2"/>
       <c r="I794" s="2"/>
-      <c r="J794" s="67"/>
+      <c r="J794" s="59"/>
       <c r="K794" s="2"/>
     </row>
     <row r="795" spans="1:11" ht="15.6">
       <c r="A795" s="2"/>
       <c r="H795" s="2"/>
       <c r="I795" s="2"/>
-      <c r="J795" s="67"/>
+      <c r="J795" s="59"/>
       <c r="K795" s="2"/>
     </row>
     <row r="796" spans="1:11" ht="15.6">
       <c r="A796" s="2"/>
       <c r="H796" s="2"/>
       <c r="I796" s="2"/>
-      <c r="J796" s="67"/>
+      <c r="J796" s="59"/>
       <c r="K796" s="2"/>
     </row>
     <row r="797" spans="1:11" ht="15.6">
       <c r="A797" s="2"/>
       <c r="H797" s="2"/>
       <c r="I797" s="2"/>
-      <c r="J797" s="67"/>
+      <c r="J797" s="59"/>
       <c r="K797" s="2"/>
     </row>
     <row r="798" spans="1:11" ht="15.6">
       <c r="A798" s="2"/>
       <c r="H798" s="2"/>
       <c r="I798" s="2"/>
-      <c r="J798" s="67"/>
+      <c r="J798" s="59"/>
       <c r="K798" s="2"/>
     </row>
     <row r="799" spans="1:11" ht="15.6">
       <c r="A799" s="2"/>
       <c r="H799" s="2"/>
       <c r="I799" s="2"/>
-      <c r="J799" s="67"/>
+      <c r="J799" s="59"/>
       <c r="K799" s="2"/>
     </row>
     <row r="800" spans="1:11" ht="15.6">
       <c r="A800" s="2"/>
       <c r="H800" s="2"/>
       <c r="I800" s="2"/>
-      <c r="J800" s="67"/>
+      <c r="J800" s="59"/>
       <c r="K800" s="2"/>
     </row>
     <row r="801" spans="1:11" ht="15.6">
       <c r="A801" s="2"/>
       <c r="H801" s="2"/>
       <c r="I801" s="2"/>
-      <c r="J801" s="67"/>
+      <c r="J801" s="59"/>
       <c r="K801" s="2"/>
     </row>
     <row r="802" spans="1:11" ht="15.6">
       <c r="A802" s="2"/>
       <c r="H802" s="2"/>
       <c r="I802" s="2"/>
-      <c r="J802" s="67"/>
+      <c r="J802" s="59"/>
       <c r="K802" s="2"/>
     </row>
     <row r="803" spans="1:11" ht="15.6">
       <c r="A803" s="2"/>
       <c r="H803" s="2"/>
       <c r="I803" s="2"/>
-      <c r="J803" s="67"/>
+      <c r="J803" s="59"/>
       <c r="K803" s="2"/>
     </row>
     <row r="804" spans="1:11" ht="15.6">
       <c r="A804" s="2"/>
       <c r="H804" s="2"/>
       <c r="I804" s="2"/>
-      <c r="J804" s="67"/>
+      <c r="J804" s="59"/>
       <c r="K804" s="2"/>
     </row>
     <row r="805" spans="1:11" ht="15.6">
       <c r="A805" s="2"/>
       <c r="H805" s="2"/>
       <c r="I805" s="2"/>
-      <c r="J805" s="67"/>
+      <c r="J805" s="59"/>
       <c r="K805" s="2"/>
     </row>
     <row r="806" spans="1:11" ht="15.6">
       <c r="A806" s="2"/>
       <c r="H806" s="2"/>
       <c r="I806" s="2"/>
-      <c r="J806" s="67"/>
+      <c r="J806" s="59"/>
       <c r="K806" s="2"/>
     </row>
     <row r="807" spans="1:11" ht="15.6">
       <c r="A807" s="2"/>
       <c r="H807" s="2"/>
       <c r="I807" s="2"/>
-      <c r="J807" s="67"/>
+      <c r="J807" s="59"/>
       <c r="K807" s="2"/>
     </row>
     <row r="808" spans="1:11" ht="15.6">
       <c r="A808" s="2"/>
       <c r="H808" s="2"/>
       <c r="I808" s="2"/>
-      <c r="J808" s="67"/>
+      <c r="J808" s="59"/>
       <c r="K808" s="2"/>
     </row>
     <row r="809" spans="1:11" ht="15.6">
       <c r="A809" s="2"/>
       <c r="H809" s="2"/>
       <c r="I809" s="2"/>
-      <c r="J809" s="67"/>
+      <c r="J809" s="59"/>
       <c r="K809" s="2"/>
     </row>
     <row r="810" spans="1:11" ht="15.6">
       <c r="A810" s="2"/>
       <c r="H810" s="2"/>
       <c r="I810" s="2"/>
-      <c r="J810" s="67"/>
+      <c r="J810" s="59"/>
       <c r="K810" s="2"/>
     </row>
     <row r="811" spans="1:11" ht="15.6">
       <c r="A811" s="2"/>
       <c r="H811" s="2"/>
       <c r="I811" s="2"/>
-      <c r="J811" s="67"/>
+      <c r="J811" s="59"/>
       <c r="K811" s="2"/>
     </row>
     <row r="812" spans="1:11" ht="15.6">
       <c r="A812" s="2"/>
       <c r="H812" s="2"/>
       <c r="I812" s="2"/>
-      <c r="J812" s="67"/>
+      <c r="J812" s="59"/>
       <c r="K812" s="2"/>
     </row>
     <row r="813" spans="1:11" ht="15.6">
       <c r="A813" s="2"/>
       <c r="H813" s="2"/>
       <c r="I813" s="2"/>
-      <c r="J813" s="67"/>
+      <c r="J813" s="59"/>
       <c r="K813" s="2"/>
     </row>
     <row r="814" spans="1:11" ht="15.6">
       <c r="A814" s="2"/>
       <c r="H814" s="2"/>
       <c r="I814" s="2"/>
-      <c r="J814" s="67"/>
+      <c r="J814" s="59"/>
       <c r="K814" s="2"/>
     </row>
     <row r="815" spans="1:11" ht="15.6">
       <c r="A815" s="2"/>
       <c r="H815" s="2"/>
       <c r="I815" s="2"/>
-      <c r="J815" s="67"/>
+      <c r="J815" s="59"/>
       <c r="K815" s="2"/>
     </row>
     <row r="816" spans="1:11" ht="15.6">
       <c r="A816" s="2"/>
       <c r="H816" s="2"/>
       <c r="I816" s="2"/>
-      <c r="J816" s="67"/>
+      <c r="J816" s="59"/>
       <c r="K816" s="2"/>
     </row>
     <row r="817" spans="1:11" ht="15.6">
       <c r="A817" s="2"/>
       <c r="H817" s="2"/>
       <c r="I817" s="2"/>
-      <c r="J817" s="67"/>
+      <c r="J817" s="59"/>
       <c r="K817" s="2"/>
     </row>
     <row r="818" spans="1:11" ht="15.6">
       <c r="A818" s="2"/>
       <c r="H818" s="2"/>
       <c r="I818" s="2"/>
-      <c r="J818" s="67"/>
+      <c r="J818" s="59"/>
       <c r="K818" s="2"/>
     </row>
     <row r="819" spans="1:11" ht="15.6">
       <c r="A819" s="2"/>
       <c r="H819" s="2"/>
       <c r="I819" s="2"/>
-      <c r="J819" s="67"/>
+      <c r="J819" s="59"/>
       <c r="K819" s="2"/>
     </row>
     <row r="820" spans="1:11" ht="15.6">
       <c r="A820" s="2"/>
       <c r="H820" s="2"/>
       <c r="I820" s="2"/>
-      <c r="J820" s="67"/>
+      <c r="J820" s="59"/>
       <c r="K820" s="2"/>
     </row>
     <row r="821" spans="1:11" ht="15.6">
       <c r="A821" s="2"/>
       <c r="H821" s="2"/>
       <c r="I821" s="2"/>
-      <c r="J821" s="67"/>
+      <c r="J821" s="59"/>
       <c r="K821" s="2"/>
     </row>
     <row r="822" spans="1:11" ht="15.6">
       <c r="A822" s="2"/>
       <c r="H822" s="2"/>
       <c r="I822" s="2"/>
-      <c r="J822" s="67"/>
+      <c r="J822" s="59"/>
       <c r="K822" s="2"/>
     </row>
     <row r="823" spans="1:11" ht="15.6">
       <c r="A823" s="2"/>
       <c r="H823" s="2"/>
       <c r="I823" s="2"/>
-      <c r="J823" s="67"/>
+      <c r="J823" s="59"/>
       <c r="K823" s="2"/>
     </row>
     <row r="824" spans="1:11" ht="15.6">
       <c r="A824" s="2"/>
       <c r="H824" s="2"/>
       <c r="I824" s="2"/>
-      <c r="J824" s="67"/>
+      <c r="J824" s="59"/>
       <c r="K824" s="2"/>
     </row>
     <row r="825" spans="1:11" ht="15.6">
       <c r="A825" s="2"/>
       <c r="H825" s="2"/>
       <c r="I825" s="2"/>
-      <c r="J825" s="67"/>
+      <c r="J825" s="59"/>
       <c r="K825" s="2"/>
     </row>
     <row r="826" spans="1:11" ht="15.6">
       <c r="A826" s="2"/>
       <c r="H826" s="2"/>
       <c r="I826" s="2"/>
-      <c r="J826" s="67"/>
+      <c r="J826" s="59"/>
       <c r="K826" s="2"/>
     </row>
     <row r="827" spans="1:11" ht="15.6">
       <c r="A827" s="2"/>
       <c r="H827" s="2"/>
       <c r="I827" s="2"/>
-      <c r="J827" s="67"/>
+      <c r="J827" s="59"/>
       <c r="K827" s="2"/>
     </row>
     <row r="828" spans="1:11" ht="15.6">
       <c r="A828" s="2"/>
       <c r="H828" s="2"/>
       <c r="I828" s="2"/>
-      <c r="J828" s="67"/>
+      <c r="J828" s="59"/>
       <c r="K828" s="2"/>
     </row>
     <row r="829" spans="1:11" ht="15.6">
       <c r="A829" s="2"/>
       <c r="H829" s="2"/>
       <c r="I829" s="2"/>
-      <c r="J829" s="67"/>
+      <c r="J829" s="59"/>
       <c r="K829" s="2"/>
     </row>
     <row r="830" spans="1:11" ht="15.6">
       <c r="A830" s="2"/>
       <c r="H830" s="2"/>
       <c r="I830" s="2"/>
-      <c r="J830" s="67"/>
+      <c r="J830" s="59"/>
       <c r="K830" s="2"/>
     </row>
     <row r="831" spans="1:11" ht="15.6">
       <c r="A831" s="2"/>
       <c r="H831" s="2"/>
       <c r="I831" s="2"/>
-      <c r="J831" s="67"/>
+      <c r="J831" s="59"/>
       <c r="K831" s="2"/>
     </row>
     <row r="832" spans="1:11" ht="15.6">
       <c r="A832" s="2"/>
       <c r="H832" s="2"/>
       <c r="I832" s="2"/>
-      <c r="J832" s="67"/>
+      <c r="J832" s="59"/>
       <c r="K832" s="2"/>
     </row>
     <row r="833" spans="1:11" ht="15.6">
       <c r="A833" s="2"/>
       <c r="H833" s="2"/>
       <c r="I833" s="2"/>
-      <c r="J833" s="67"/>
+      <c r="J833" s="59"/>
       <c r="K833" s="2"/>
     </row>
     <row r="834" spans="1:11" ht="15.6">
       <c r="A834" s="2"/>
       <c r="H834" s="2"/>
       <c r="I834" s="2"/>
-      <c r="J834" s="67"/>
+      <c r="J834" s="59"/>
       <c r="K834" s="2"/>
     </row>
     <row r="835" spans="1:11" ht="15.6">
       <c r="A835" s="2"/>
       <c r="H835" s="2"/>
       <c r="I835" s="2"/>
-      <c r="J835" s="67"/>
+      <c r="J835" s="59"/>
       <c r="K835" s="2"/>
     </row>
     <row r="836" spans="1:11" ht="15.6">
       <c r="A836" s="2"/>
       <c r="H836" s="2"/>
       <c r="I836" s="2"/>
-      <c r="J836" s="67"/>
+      <c r="J836" s="59"/>
       <c r="K836" s="2"/>
     </row>
     <row r="837" spans="1:11" ht="15.6">
       <c r="A837" s="2"/>
       <c r="H837" s="2"/>
       <c r="I837" s="2"/>
-      <c r="J837" s="67"/>
+      <c r="J837" s="59"/>
       <c r="K837" s="2"/>
     </row>
     <row r="838" spans="1:11" ht="15.6">
       <c r="A838" s="2"/>
       <c r="H838" s="2"/>
       <c r="I838" s="2"/>
-      <c r="J838" s="67"/>
+      <c r="J838" s="59"/>
       <c r="K838" s="2"/>
     </row>
     <row r="839" spans="1:11" ht="15.6">
       <c r="A839" s="2"/>
       <c r="H839" s="2"/>
       <c r="I839" s="2"/>
-      <c r="J839" s="67"/>
+      <c r="J839" s="59"/>
       <c r="K839" s="2"/>
     </row>
     <row r="840" spans="1:11" ht="15.6">
       <c r="A840" s="2"/>
       <c r="H840" s="2"/>
       <c r="I840" s="2"/>
-      <c r="J840" s="67"/>
+      <c r="J840" s="59"/>
       <c r="K840" s="2"/>
     </row>
     <row r="841" spans="1:11" ht="15.6">
       <c r="A841" s="2"/>
       <c r="H841" s="2"/>
       <c r="I841" s="2"/>
-      <c r="J841" s="67"/>
+      <c r="J841" s="59"/>
       <c r="K841" s="2"/>
     </row>
     <row r="842" spans="1:11" ht="15.6">
       <c r="A842" s="2"/>
       <c r="H842" s="2"/>
       <c r="I842" s="2"/>
-      <c r="J842" s="67"/>
+      <c r="J842" s="59"/>
       <c r="K842" s="2"/>
     </row>
     <row r="843" spans="1:11" ht="15.6">
       <c r="A843" s="2"/>
       <c r="H843" s="2"/>
       <c r="I843" s="2"/>
-      <c r="J843" s="67"/>
+      <c r="J843" s="59"/>
       <c r="K843" s="2"/>
     </row>
     <row r="844" spans="1:11" ht="15.6">
       <c r="A844" s="2"/>
       <c r="H844" s="2"/>
       <c r="I844" s="2"/>
-      <c r="J844" s="67"/>
+      <c r="J844" s="59"/>
       <c r="K844" s="2"/>
     </row>
     <row r="845" spans="1:11" ht="15.6">
       <c r="A845" s="2"/>
       <c r="H845" s="2"/>
       <c r="I845" s="2"/>
-      <c r="J845" s="67"/>
+      <c r="J845" s="59"/>
       <c r="K845" s="2"/>
     </row>
     <row r="846" spans="1:11" ht="15.6">
       <c r="A846" s="2"/>
       <c r="H846" s="2"/>
       <c r="I846" s="2"/>
-      <c r="J846" s="67"/>
+      <c r="J846" s="59"/>
       <c r="K846" s="2"/>
     </row>
     <row r="847" spans="1:11" ht="15.6">
       <c r="A847" s="2"/>
       <c r="H847" s="2"/>
       <c r="I847" s="2"/>
-      <c r="J847" s="67"/>
+      <c r="J847" s="59"/>
       <c r="K847" s="2"/>
     </row>
     <row r="848" spans="1:11" ht="15.6">
       <c r="A848" s="2"/>
       <c r="H848" s="2"/>
       <c r="I848" s="2"/>
-      <c r="J848" s="67"/>
+      <c r="J848" s="59"/>
       <c r="K848" s="2"/>
     </row>
     <row r="849" spans="1:11" ht="15.6">
       <c r="A849" s="2"/>
       <c r="H849" s="2"/>
       <c r="I849" s="2"/>
-      <c r="J849" s="67"/>
+      <c r="J849" s="59"/>
       <c r="K849" s="2"/>
     </row>
     <row r="850" spans="1:11" ht="15.6">
       <c r="A850" s="2"/>
       <c r="H850" s="2"/>
       <c r="I850" s="2"/>
-      <c r="J850" s="67"/>
+      <c r="J850" s="59"/>
       <c r="K850" s="2"/>
     </row>
     <row r="851" spans="1:11" ht="15.6">
       <c r="A851" s="2"/>
       <c r="H851" s="2"/>
       <c r="I851" s="2"/>
-      <c r="J851" s="67"/>
+      <c r="J851" s="59"/>
       <c r="K851" s="2"/>
     </row>
     <row r="852" spans="1:11" ht="15.6">
       <c r="A852" s="2"/>
       <c r="H852" s="2"/>
       <c r="I852" s="2"/>
-      <c r="J852" s="67"/>
+      <c r="J852" s="59"/>
       <c r="K852" s="2"/>
     </row>
     <row r="853" spans="1:11" ht="15.6">
       <c r="A853" s="2"/>
       <c r="H853" s="2"/>
       <c r="I853" s="2"/>
-      <c r="J853" s="67"/>
+      <c r="J853" s="59"/>
       <c r="K853" s="2"/>
     </row>
     <row r="854" spans="1:11" ht="15.6">
       <c r="A854" s="2"/>
       <c r="H854" s="2"/>
       <c r="I854" s="2"/>
-      <c r="J854" s="67"/>
+      <c r="J854" s="59"/>
       <c r="K854" s="2"/>
     </row>
     <row r="855" spans="1:11" ht="15.6">
       <c r="A855" s="2"/>
       <c r="H855" s="2"/>
       <c r="I855" s="2"/>
-      <c r="J855" s="67"/>
+      <c r="J855" s="59"/>
       <c r="K855" s="2"/>
     </row>
     <row r="856" spans="1:11" ht="15.6">
       <c r="A856" s="2"/>
       <c r="H856" s="2"/>
       <c r="I856" s="2"/>
-      <c r="J856" s="67"/>
+      <c r="J856" s="59"/>
       <c r="K856" s="2"/>
     </row>
     <row r="857" spans="1:11" ht="15.6">
       <c r="A857" s="2"/>
       <c r="H857" s="2"/>
       <c r="I857" s="2"/>
-      <c r="J857" s="67"/>
+      <c r="J857" s="59"/>
       <c r="K857" s="2"/>
     </row>
     <row r="858" spans="1:11" ht="15.6">
       <c r="A858" s="2"/>
       <c r="H858" s="2"/>
       <c r="I858" s="2"/>
-      <c r="J858" s="67"/>
+      <c r="J858" s="59"/>
       <c r="K858" s="2"/>
     </row>
     <row r="859" spans="1:11" ht="15.6">
       <c r="A859" s="2"/>
       <c r="H859" s="2"/>
       <c r="I859" s="2"/>
-      <c r="J859" s="67"/>
+      <c r="J859" s="59"/>
       <c r="K859" s="2"/>
     </row>
     <row r="860" spans="1:11" ht="15.6">
       <c r="A860" s="2"/>
       <c r="H860" s="2"/>
       <c r="I860" s="2"/>
-      <c r="J860" s="67"/>
+      <c r="J860" s="59"/>
       <c r="K860" s="2"/>
     </row>
     <row r="861" spans="1:11" ht="15.6">
       <c r="A861" s="2"/>
       <c r="H861" s="2"/>
       <c r="I861" s="2"/>
-      <c r="J861" s="67"/>
+      <c r="J861" s="59"/>
       <c r="K861" s="2"/>
     </row>
     <row r="862" spans="1:11" ht="15.6">
       <c r="A862" s="2"/>
       <c r="H862" s="2"/>
       <c r="I862" s="2"/>
-      <c r="J862" s="67"/>
+      <c r="J862" s="59"/>
       <c r="K862" s="2"/>
     </row>
     <row r="863" spans="1:11" ht="15.6">
       <c r="A863" s="2"/>
       <c r="H863" s="2"/>
       <c r="I863" s="2"/>
-      <c r="J863" s="67"/>
+      <c r="J863" s="59"/>
       <c r="K863" s="2"/>
     </row>
     <row r="864" spans="1:11" ht="15.6">
       <c r="A864" s="2"/>
       <c r="H864" s="2"/>
       <c r="I864" s="2"/>
-      <c r="J864" s="67"/>
+      <c r="J864" s="59"/>
       <c r="K864" s="2"/>
     </row>
     <row r="865" spans="1:11" ht="15.6">
       <c r="A865" s="2"/>
       <c r="H865" s="2"/>
       <c r="I865" s="2"/>
-      <c r="J865" s="67"/>
+      <c r="J865" s="59"/>
       <c r="K865" s="2"/>
     </row>
     <row r="866" spans="1:11" ht="15.6">
       <c r="A866" s="2"/>
       <c r="H866" s="2"/>
       <c r="I866" s="2"/>
-      <c r="J866" s="67"/>
+      <c r="J866" s="59"/>
       <c r="K866" s="2"/>
     </row>
     <row r="867" spans="1:11" ht="15.6">
       <c r="A867" s="2"/>
       <c r="H867" s="2"/>
       <c r="I867" s="2"/>
-      <c r="J867" s="67"/>
+      <c r="J867" s="59"/>
       <c r="K867" s="2"/>
     </row>
     <row r="868" spans="1:11" ht="15.6">
       <c r="A868" s="2"/>
       <c r="H868" s="2"/>
       <c r="I868" s="2"/>
-      <c r="J868" s="67"/>
+      <c r="J868" s="59"/>
       <c r="K868" s="2"/>
     </row>
     <row r="869" spans="1:11" ht="15.6">
       <c r="A869" s="2"/>
       <c r="H869" s="2"/>
       <c r="I869" s="2"/>
-      <c r="J869" s="67"/>
+      <c r="J869" s="59"/>
       <c r="K869" s="2"/>
     </row>
     <row r="870" spans="1:11" ht="15.6">
       <c r="A870" s="2"/>
       <c r="H870" s="2"/>
       <c r="I870" s="2"/>
-      <c r="J870" s="67"/>
+      <c r="J870" s="59"/>
       <c r="K870" s="2"/>
     </row>
     <row r="871" spans="1:11" ht="15.6">
       <c r="A871" s="2"/>
       <c r="H871" s="2"/>
       <c r="I871" s="2"/>
-      <c r="J871" s="67"/>
+      <c r="J871" s="59"/>
       <c r="K871" s="2"/>
     </row>
     <row r="872" spans="1:11" ht="15.6">
       <c r="A872" s="2"/>
       <c r="H872" s="2"/>
       <c r="I872" s="2"/>
-      <c r="J872" s="67"/>
+      <c r="J872" s="59"/>
       <c r="K872" s="2"/>
     </row>
     <row r="873" spans="1:11" ht="15.6">
       <c r="A873" s="2"/>
       <c r="H873" s="2"/>
       <c r="I873" s="2"/>
-      <c r="J873" s="67"/>
+      <c r="J873" s="59"/>
       <c r="K873" s="2"/>
     </row>
     <row r="874" spans="1:11" ht="15.6">
       <c r="A874" s="2"/>
       <c r="H874" s="2"/>
       <c r="I874" s="2"/>
-      <c r="J874" s="67"/>
+      <c r="J874" s="59"/>
       <c r="K874" s="2"/>
     </row>
     <row r="875" spans="1:11" ht="15.6">
       <c r="A875" s="2"/>
       <c r="H875" s="2"/>
       <c r="I875" s="2"/>
-      <c r="J875" s="67"/>
+      <c r="J875" s="59"/>
       <c r="K875" s="2"/>
     </row>
     <row r="876" spans="1:11" ht="15.6">
       <c r="A876" s="2"/>
       <c r="H876" s="2"/>
       <c r="I876" s="2"/>
-      <c r="J876" s="67"/>
+      <c r="J876" s="59"/>
       <c r="K876" s="2"/>
     </row>
     <row r="877" spans="1:11" ht="15.6">
       <c r="A877" s="2"/>
       <c r="H877" s="2"/>
       <c r="I877" s="2"/>
-      <c r="J877" s="67"/>
+      <c r="J877" s="59"/>
       <c r="K877" s="2"/>
     </row>
     <row r="878" spans="1:11" ht="15.6">
       <c r="A878" s="2"/>
       <c r="H878" s="2"/>
       <c r="I878" s="2"/>
-      <c r="J878" s="67"/>
+      <c r="J878" s="59"/>
       <c r="K878" s="2"/>
     </row>
     <row r="879" spans="1:11" ht="15.6">
       <c r="A879" s="2"/>
       <c r="H879" s="2"/>
       <c r="I879" s="2"/>
-      <c r="J879" s="67"/>
+      <c r="J879" s="59"/>
       <c r="K879" s="2"/>
     </row>
     <row r="880" spans="1:11" ht="15.6">
       <c r="A880" s="2"/>
       <c r="H880" s="2"/>
       <c r="I880" s="2"/>
-      <c r="J880" s="67"/>
+      <c r="J880" s="59"/>
       <c r="K880" s="2"/>
     </row>
     <row r="881" spans="1:11" ht="15.6">
       <c r="A881" s="2"/>
       <c r="H881" s="2"/>
       <c r="I881" s="2"/>
-      <c r="J881" s="67"/>
+      <c r="J881" s="59"/>
       <c r="K881" s="2"/>
     </row>
     <row r="882" spans="1:11" ht="15.6">
       <c r="A882" s="2"/>
       <c r="H882" s="2"/>
       <c r="I882" s="2"/>
-      <c r="J882" s="67"/>
+      <c r="J882" s="59"/>
       <c r="K882" s="2"/>
     </row>
     <row r="883" spans="1:11" ht="15.6">
       <c r="A883" s="2"/>
       <c r="H883" s="2"/>
       <c r="I883" s="2"/>
-      <c r="J883" s="67"/>
+      <c r="J883" s="59"/>
       <c r="K883" s="2"/>
     </row>
     <row r="884" spans="1:11" ht="15.6">
       <c r="A884" s="2"/>
       <c r="H884" s="2"/>
       <c r="I884" s="2"/>
-      <c r="J884" s="67"/>
+      <c r="J884" s="59"/>
       <c r="K884" s="2"/>
     </row>
     <row r="885" spans="1:11" ht="15.6">
       <c r="A885" s="2"/>
       <c r="H885" s="2"/>
       <c r="I885" s="2"/>
-      <c r="J885" s="67"/>
+      <c r="J885" s="59"/>
       <c r="K885" s="2"/>
     </row>
     <row r="886" spans="1:11" ht="15.6">
       <c r="A886" s="2"/>
       <c r="H886" s="2"/>
       <c r="I886" s="2"/>
-      <c r="J886" s="67"/>
+      <c r="J886" s="59"/>
       <c r="K886" s="2"/>
     </row>
     <row r="887" spans="1:11" ht="15.6">
       <c r="A887" s="2"/>
       <c r="H887" s="2"/>
       <c r="I887" s="2"/>
-      <c r="J887" s="67"/>
+      <c r="J887" s="59"/>
       <c r="K887" s="2"/>
     </row>
     <row r="888" spans="1:11" ht="15.6">
       <c r="A888" s="2"/>
       <c r="H888" s="2"/>
       <c r="I888" s="2"/>
-      <c r="J888" s="67"/>
+      <c r="J888" s="59"/>
       <c r="K888" s="2"/>
     </row>
     <row r="889" spans="1:11" ht="15.6">
       <c r="A889" s="2"/>
       <c r="H889" s="2"/>
       <c r="I889" s="2"/>
-      <c r="J889" s="67"/>
+      <c r="J889" s="59"/>
       <c r="K889" s="2"/>
     </row>
     <row r="890" spans="1:11" ht="15.6">
       <c r="A890" s="2"/>
       <c r="H890" s="2"/>
       <c r="I890" s="2"/>
-      <c r="J890" s="67"/>
+      <c r="J890" s="59"/>
       <c r="K890" s="2"/>
     </row>
     <row r="891" spans="1:11" ht="15.6">
       <c r="A891" s="2"/>
       <c r="H891" s="2"/>
       <c r="I891" s="2"/>
-      <c r="J891" s="67"/>
+      <c r="J891" s="59"/>
       <c r="K891" s="2"/>
     </row>
     <row r="892" spans="1:11" ht="15.6">
       <c r="A892" s="2"/>
       <c r="H892" s="2"/>
       <c r="I892" s="2"/>
-      <c r="J892" s="67"/>
+      <c r="J892" s="59"/>
       <c r="K892" s="2"/>
     </row>
     <row r="893" spans="1:11" ht="15.6">
       <c r="A893" s="2"/>
       <c r="H893" s="2"/>
       <c r="I893" s="2"/>
-      <c r="J893" s="67"/>
+      <c r="J893" s="59"/>
       <c r="K893" s="2"/>
     </row>
     <row r="894" spans="1:11" ht="15.6">
       <c r="A894" s="2"/>
       <c r="H894" s="2"/>
       <c r="I894" s="2"/>
-      <c r="J894" s="67"/>
+      <c r="J894" s="59"/>
       <c r="K894" s="2"/>
     </row>
     <row r="895" spans="1:11" ht="15.6">
       <c r="A895" s="2"/>
       <c r="H895" s="2"/>
       <c r="I895" s="2"/>
-      <c r="J895" s="67"/>
+      <c r="J895" s="59"/>
       <c r="K895" s="2"/>
     </row>
     <row r="896" spans="1:11" ht="15.6">
       <c r="A896" s="2"/>
       <c r="H896" s="2"/>
       <c r="I896" s="2"/>
-      <c r="J896" s="67"/>
+      <c r="J896" s="59"/>
       <c r="K896" s="2"/>
     </row>
     <row r="897" spans="1:11" ht="15.6">
       <c r="A897" s="2"/>
       <c r="H897" s="2"/>
       <c r="I897" s="2"/>
-      <c r="J897" s="67"/>
+      <c r="J897" s="59"/>
       <c r="K897" s="2"/>
     </row>
     <row r="898" spans="1:11" ht="15.6">
       <c r="A898" s="2"/>
       <c r="H898" s="2"/>
       <c r="I898" s="2"/>
-      <c r="J898" s="67"/>
+      <c r="J898" s="59"/>
       <c r="K898" s="2"/>
     </row>
     <row r="899" spans="1:11" ht="15.6">
       <c r="A899" s="2"/>
       <c r="H899" s="2"/>
       <c r="I899" s="2"/>
-      <c r="J899" s="67"/>
+      <c r="J899" s="59"/>
       <c r="K899" s="2"/>
     </row>
     <row r="900" spans="1:11" ht="15.6">
       <c r="A900" s="2"/>
       <c r="H900" s="2"/>
       <c r="I900" s="2"/>
-      <c r="J900" s="67"/>
+      <c r="J900" s="59"/>
       <c r="K900" s="2"/>
     </row>
     <row r="901" spans="1:11" ht="15.6">
       <c r="A901" s="2"/>
       <c r="H901" s="2"/>
       <c r="I901" s="2"/>
-      <c r="J901" s="67"/>
+      <c r="J901" s="59"/>
       <c r="K901" s="2"/>
     </row>
     <row r="902" spans="1:11" ht="15.6">
       <c r="A902" s="2"/>
       <c r="H902" s="2"/>
       <c r="I902" s="2"/>
-      <c r="J902" s="67"/>
+      <c r="J902" s="59"/>
       <c r="K902" s="2"/>
     </row>
     <row r="903" spans="1:11" ht="15.6">
       <c r="A903" s="2"/>
       <c r="H903" s="2"/>
       <c r="I903" s="2"/>
-      <c r="J903" s="67"/>
+      <c r="J903" s="59"/>
       <c r="K903" s="2"/>
     </row>
     <row r="904" spans="1:11" ht="15.6">
       <c r="A904" s="2"/>
       <c r="H904" s="2"/>
       <c r="I904" s="2"/>
-      <c r="J904" s="67"/>
+      <c r="J904" s="59"/>
       <c r="K904" s="2"/>
     </row>
     <row r="905" spans="1:11" ht="15.6">
       <c r="A905" s="2"/>
       <c r="H905" s="2"/>
       <c r="I905" s="2"/>
-      <c r="J905" s="67"/>
+      <c r="J905" s="59"/>
       <c r="K905" s="2"/>
     </row>
     <row r="906" spans="1:11" ht="15.6">
       <c r="A906" s="2"/>
       <c r="H906" s="2"/>
       <c r="I906" s="2"/>
-      <c r="J906" s="67"/>
+      <c r="J906" s="59"/>
       <c r="K906" s="2"/>
     </row>
     <row r="907" spans="1:11" ht="15.6">
       <c r="A907" s="2"/>
       <c r="H907" s="2"/>
       <c r="I907" s="2"/>
-      <c r="J907" s="67"/>
+      <c r="J907" s="59"/>
       <c r="K907" s="2"/>
     </row>
     <row r="908" spans="1:11" ht="15.6">
       <c r="A908" s="2"/>
       <c r="H908" s="2"/>
       <c r="I908" s="2"/>
-      <c r="J908" s="67"/>
+      <c r="J908" s="59"/>
       <c r="K908" s="2"/>
     </row>
     <row r="909" spans="1:11" ht="15.6">
       <c r="A909" s="2"/>
       <c r="H909" s="2"/>
       <c r="I909" s="2"/>
-      <c r="J909" s="67"/>
+      <c r="J909" s="59"/>
       <c r="K909" s="2"/>
     </row>
     <row r="910" spans="1:11" ht="15.6">
       <c r="A910" s="2"/>
       <c r="H910" s="2"/>
       <c r="I910" s="2"/>
-      <c r="J910" s="67"/>
+      <c r="J910" s="59"/>
       <c r="K910" s="2"/>
     </row>
     <row r="911" spans="1:11" ht="15.6">
       <c r="A911" s="2"/>
       <c r="H911" s="2"/>
       <c r="I911" s="2"/>
-      <c r="J911" s="67"/>
+      <c r="J911" s="59"/>
       <c r="K911" s="2"/>
     </row>
     <row r="912" spans="1:11" ht="15.6">
       <c r="A912" s="2"/>
       <c r="H912" s="2"/>
       <c r="I912" s="2"/>
-      <c r="J912" s="67"/>
+      <c r="J912" s="59"/>
       <c r="K912" s="2"/>
     </row>
     <row r="913" spans="1:11" ht="15.6">
       <c r="A913" s="2"/>
       <c r="H913" s="2"/>
       <c r="I913" s="2"/>
-      <c r="J913" s="67"/>
+      <c r="J913" s="59"/>
       <c r="K913" s="2"/>
     </row>
     <row r="914" spans="1:11" ht="15.6">
       <c r="A914" s="2"/>
       <c r="H914" s="2"/>
       <c r="I914" s="2"/>
-      <c r="J914" s="67"/>
+      <c r="J914" s="59"/>
       <c r="K914" s="2"/>
     </row>
     <row r="915" spans="1:11" ht="15.6">
       <c r="A915" s="2"/>
       <c r="H915" s="2"/>
       <c r="I915" s="2"/>
-      <c r="J915" s="67"/>
+      <c r="J915" s="59"/>
       <c r="K915" s="2"/>
     </row>
     <row r="916" spans="1:11" ht="15.6">
       <c r="A916" s="2"/>
       <c r="H916" s="2"/>
       <c r="I916" s="2"/>
-      <c r="J916" s="67"/>
+      <c r="J916" s="59"/>
       <c r="K916" s="2"/>
     </row>
     <row r="917" spans="1:11" ht="15.6">
       <c r="A917" s="2"/>
       <c r="H917" s="2"/>
       <c r="I917" s="2"/>
-      <c r="J917" s="67"/>
+      <c r="J917" s="59"/>
       <c r="K917" s="2"/>
     </row>
     <row r="918" spans="1:11" ht="15.6">
       <c r="A918" s="2"/>
       <c r="H918" s="2"/>
       <c r="I918" s="2"/>
-      <c r="J918" s="67"/>
+      <c r="J918" s="59"/>
       <c r="K918" s="2"/>
     </row>
     <row r="919" spans="1:11" ht="15.6">
       <c r="A919" s="2"/>
       <c r="H919" s="2"/>
       <c r="I919" s="2"/>
-      <c r="J919" s="67"/>
+      <c r="J919" s="59"/>
       <c r="K919" s="2"/>
     </row>
     <row r="920" spans="1:11" ht="15.6">
       <c r="A920" s="2"/>
       <c r="H920" s="2"/>
       <c r="I920" s="2"/>
-      <c r="J920" s="67"/>
+      <c r="J920" s="59"/>
       <c r="K920" s="2"/>
     </row>
     <row r="921" spans="1:11" ht="15.6">
       <c r="A921" s="2"/>
       <c r="H921" s="2"/>
       <c r="I921" s="2"/>
-      <c r="J921" s="67"/>
+      <c r="J921" s="59"/>
       <c r="K921" s="2"/>
     </row>
     <row r="922" spans="1:11" ht="15.6">
       <c r="A922" s="2"/>
       <c r="H922" s="2"/>
       <c r="I922" s="2"/>
-      <c r="J922" s="67"/>
+      <c r="J922" s="59"/>
       <c r="K922" s="2"/>
     </row>
     <row r="923" spans="1:11" ht="15.6">
       <c r="A923" s="2"/>
       <c r="H923" s="2"/>
       <c r="I923" s="2"/>
-      <c r="J923" s="67"/>
+      <c r="J923" s="59"/>
       <c r="K923" s="2"/>
     </row>
     <row r="924" spans="1:11" ht="15.6">
       <c r="A924" s="2"/>
       <c r="H924" s="2"/>
       <c r="I924" s="2"/>
-      <c r="J924" s="67"/>
+      <c r="J924" s="59"/>
       <c r="K924" s="2"/>
     </row>
     <row r="925" spans="1:11" ht="15.6">
       <c r="A925" s="2"/>
       <c r="H925" s="2"/>
       <c r="I925" s="2"/>
-      <c r="J925" s="67"/>
+      <c r="J925" s="59"/>
       <c r="K925" s="2"/>
     </row>
     <row r="926" spans="1:11" ht="15.6">
       <c r="A926" s="2"/>
       <c r="H926" s="2"/>
       <c r="I926" s="2"/>
-      <c r="J926" s="67"/>
+      <c r="J926" s="59"/>
       <c r="K926" s="2"/>
     </row>
     <row r="927" spans="1:11" ht="15.6">
       <c r="A927" s="2"/>
       <c r="H927" s="2"/>
       <c r="I927" s="2"/>
-      <c r="J927" s="67"/>
+      <c r="J927" s="59"/>
       <c r="K927" s="2"/>
     </row>
     <row r="928" spans="1:11" ht="15.6">
       <c r="A928" s="2"/>
       <c r="H928" s="2"/>
       <c r="I928" s="2"/>
-      <c r="J928" s="67"/>
+      <c r="J928" s="59"/>
       <c r="K928" s="2"/>
     </row>
     <row r="929" spans="1:11" ht="15.6">
       <c r="A929" s="2"/>
       <c r="H929" s="2"/>
       <c r="I929" s="2"/>
-      <c r="J929" s="67"/>
+      <c r="J929" s="59"/>
       <c r="K929" s="2"/>
     </row>
     <row r="930" spans="1:11" ht="15.6">
       <c r="A930" s="2"/>
       <c r="H930" s="2"/>
       <c r="I930" s="2"/>
-      <c r="J930" s="67"/>
+      <c r="J930" s="59"/>
       <c r="K930" s="2"/>
     </row>
     <row r="931" spans="1:11" ht="15.6">
       <c r="A931" s="2"/>
       <c r="H931" s="2"/>
       <c r="I931" s="2"/>
-      <c r="J931" s="67"/>
+      <c r="J931" s="59"/>
       <c r="K931" s="2"/>
     </row>
     <row r="932" spans="1:11" ht="15.6">
       <c r="A932" s="2"/>
       <c r="H932" s="2"/>
       <c r="I932" s="2"/>
-      <c r="J932" s="67"/>
+      <c r="J932" s="59"/>
       <c r="K932" s="2"/>
     </row>
     <row r="933" spans="1:11" ht="15.6">
       <c r="A933" s="2"/>
       <c r="H933" s="2"/>
       <c r="I933" s="2"/>
-      <c r="J933" s="67"/>
+      <c r="J933" s="59"/>
       <c r="K933" s="2"/>
     </row>
     <row r="934" spans="1:11" ht="15.6">
       <c r="A934" s="2"/>
       <c r="H934" s="2"/>
       <c r="I934" s="2"/>
-      <c r="J934" s="67"/>
+      <c r="J934" s="59"/>
       <c r="K934" s="2"/>
     </row>
     <row r="935" spans="1:11" ht="15.6">
       <c r="A935" s="2"/>
       <c r="H935" s="2"/>
       <c r="I935" s="2"/>
-      <c r="J935" s="67"/>
+      <c r="J935" s="59"/>
       <c r="K935" s="2"/>
     </row>
     <row r="936" spans="1:11" ht="15.6">
       <c r="A936" s="2"/>
       <c r="H936" s="2"/>
       <c r="I936" s="2"/>
-      <c r="J936" s="67"/>
+      <c r="J936" s="59"/>
       <c r="K936" s="2"/>
     </row>
     <row r="937" spans="1:11" ht="15.6">
       <c r="A937" s="2"/>
       <c r="H937" s="2"/>
       <c r="I937" s="2"/>
-      <c r="J937" s="67"/>
+      <c r="J937" s="59"/>
       <c r="K937" s="2"/>
     </row>
     <row r="938" spans="1:11" ht="15.6">
       <c r="A938" s="2"/>
       <c r="H938" s="2"/>
       <c r="I938" s="2"/>
-      <c r="J938" s="67"/>
+      <c r="J938" s="59"/>
       <c r="K938" s="2"/>
     </row>
     <row r="939" spans="1:11" ht="15.6">
       <c r="A939" s="2"/>
       <c r="H939" s="2"/>
       <c r="I939" s="2"/>
-      <c r="J939" s="67"/>
+      <c r="J939" s="59"/>
       <c r="K939" s="2"/>
     </row>
     <row r="940" spans="1:11" ht="15.6">
       <c r="A940" s="2"/>
       <c r="H940" s="2"/>
       <c r="I940" s="2"/>
-      <c r="J940" s="67"/>
+      <c r="J940" s="59"/>
       <c r="K940" s="2"/>
     </row>
     <row r="941" spans="1:11" ht="15.6">
       <c r="A941" s="2"/>
       <c r="H941" s="2"/>
       <c r="I941" s="2"/>
-      <c r="J941" s="67"/>
+      <c r="J941" s="59"/>
       <c r="K941" s="2"/>
     </row>
     <row r="942" spans="1:11" ht="15.6">
       <c r="A942" s="2"/>
       <c r="H942" s="2"/>
       <c r="I942" s="2"/>
-      <c r="J942" s="67"/>
+      <c r="J942" s="59"/>
       <c r="K942" s="2"/>
     </row>
     <row r="943" spans="1:11" ht="15.6">
       <c r="A943" s="2"/>
       <c r="H943" s="2"/>
       <c r="I943" s="2"/>
-      <c r="J943" s="67"/>
+      <c r="J943" s="59"/>
       <c r="K943" s="2"/>
     </row>
     <row r="944" spans="1:11" ht="15.6">
       <c r="A944" s="2"/>
       <c r="H944" s="2"/>
       <c r="I944" s="2"/>
-      <c r="J944" s="67"/>
+      <c r="J944" s="59"/>
       <c r="K944" s="2"/>
     </row>
     <row r="945" spans="1:11" ht="15.6">
       <c r="A945" s="2"/>
       <c r="H945" s="2"/>
       <c r="I945" s="2"/>
-      <c r="J945" s="67"/>
+      <c r="J945" s="59"/>
       <c r="K945" s="2"/>
     </row>
     <row r="946" spans="1:11" ht="15.6">
       <c r="A946" s="2"/>
       <c r="H946" s="2"/>
       <c r="I946" s="2"/>
-      <c r="J946" s="67"/>
+      <c r="J946" s="59"/>
       <c r="K946" s="2"/>
     </row>
     <row r="947" spans="1:11" ht="15.6">
       <c r="A947" s="2"/>
       <c r="H947" s="2"/>
       <c r="I947" s="2"/>
-      <c r="J947" s="67"/>
+      <c r="J947" s="59"/>
       <c r="K947" s="2"/>
     </row>
     <row r="948" spans="1:11" ht="15.6">
       <c r="A948" s="2"/>
       <c r="H948" s="2"/>
       <c r="I948" s="2"/>
-      <c r="J948" s="67"/>
+      <c r="J948" s="59"/>
       <c r="K948" s="2"/>
     </row>
     <row r="949" spans="1:11" ht="15.6">
       <c r="A949" s="2"/>
       <c r="H949" s="2"/>
       <c r="I949" s="2"/>
-      <c r="J949" s="67"/>
+      <c r="J949" s="59"/>
       <c r="K949" s="2"/>
     </row>
     <row r="950" spans="1:11" ht="15.6">
       <c r="A950" s="2"/>
       <c r="H950" s="2"/>
       <c r="I950" s="2"/>
-      <c r="J950" s="67"/>
+      <c r="J950" s="59"/>
       <c r="K950" s="2"/>
     </row>
     <row r="951" spans="1:11" ht="15.6">
       <c r="A951" s="2"/>
       <c r="H951" s="2"/>
       <c r="I951" s="2"/>
-      <c r="J951" s="67"/>
+      <c r="J951" s="59"/>
       <c r="K951" s="2"/>
     </row>
     <row r="952" spans="1:11" ht="15.6">
       <c r="A952" s="2"/>
       <c r="H952" s="2"/>
       <c r="I952" s="2"/>
-      <c r="J952" s="67"/>
+      <c r="J952" s="59"/>
       <c r="K952" s="2"/>
     </row>
     <row r="953" spans="1:11" ht="15.6">
       <c r="A953" s="2"/>
       <c r="H953" s="2"/>
       <c r="I953" s="2"/>
-      <c r="J953" s="67"/>
+      <c r="J953" s="59"/>
       <c r="K953" s="2"/>
     </row>
     <row r="954" spans="1:11" ht="15.6">
       <c r="A954" s="2"/>
       <c r="H954" s="2"/>
       <c r="I954" s="2"/>
-      <c r="J954" s="67"/>
+      <c r="J954" s="59"/>
       <c r="K954" s="2"/>
     </row>
     <row r="955" spans="1:11" ht="15.6">
       <c r="A955" s="2"/>
       <c r="H955" s="2"/>
       <c r="I955" s="2"/>
-      <c r="J955" s="67"/>
+      <c r="J955" s="59"/>
       <c r="K955" s="2"/>
     </row>
     <row r="956" spans="1:11" ht="15.6">
       <c r="A956" s="2"/>
       <c r="H956" s="2"/>
       <c r="I956" s="2"/>
-      <c r="J956" s="67"/>
+      <c r="J956" s="59"/>
       <c r="K956" s="2"/>
     </row>
     <row r="957" spans="1:11" ht="15.6">
       <c r="A957" s="2"/>
       <c r="H957" s="2"/>
       <c r="I957" s="2"/>
-      <c r="J957" s="67"/>
+      <c r="J957" s="59"/>
       <c r="K957" s="2"/>
     </row>
     <row r="958" spans="1:11" ht="15.6">
       <c r="A958" s="2"/>
       <c r="H958" s="2"/>
       <c r="I958" s="2"/>
-      <c r="J958" s="67"/>
+      <c r="J958" s="59"/>
       <c r="K958" s="2"/>
     </row>
     <row r="959" spans="1:11" ht="15.6">
       <c r="A959" s="2"/>
       <c r="H959" s="2"/>
       <c r="I959" s="2"/>
-      <c r="J959" s="67"/>
+      <c r="J959" s="59"/>
       <c r="K959" s="2"/>
     </row>
     <row r="960" spans="1:11" ht="15.6">
       <c r="A960" s="2"/>
       <c r="H960" s="2"/>
       <c r="I960" s="2"/>
-      <c r="J960" s="67"/>
+      <c r="J960" s="59"/>
       <c r="K960" s="2"/>
     </row>
     <row r="961" spans="1:11" ht="15.6">
       <c r="A961" s="2"/>
       <c r="H961" s="2"/>
       <c r="I961" s="2"/>
-      <c r="J961" s="67"/>
+      <c r="J961" s="59"/>
       <c r="K961" s="2"/>
     </row>
     <row r="962" spans="1:11" ht="15.6">
       <c r="A962" s="2"/>
       <c r="H962" s="2"/>
       <c r="I962" s="2"/>
-      <c r="J962" s="67"/>
+      <c r="J962" s="59"/>
       <c r="K962" s="2"/>
     </row>
     <row r="963" spans="1:11" ht="15.6">
       <c r="A963" s="2"/>
       <c r="H963" s="2"/>
       <c r="I963" s="2"/>
-      <c r="J963" s="67"/>
+      <c r="J963" s="59"/>
       <c r="K963" s="2"/>
     </row>
     <row r="964" spans="1:11" ht="15.6">
       <c r="A964" s="2"/>
       <c r="H964" s="2"/>
       <c r="I964" s="2"/>
-      <c r="J964" s="67"/>
+      <c r="J964" s="59"/>
       <c r="K964" s="2"/>
     </row>
     <row r="965" spans="1:11" ht="15.6">
       <c r="A965" s="2"/>
       <c r="H965" s="2"/>
       <c r="I965" s="2"/>
-      <c r="J965" s="67"/>
+      <c r="J965" s="59"/>
       <c r="K965" s="2"/>
     </row>
     <row r="966" spans="1:11" ht="15.6">
       <c r="A966" s="2"/>
       <c r="H966" s="2"/>
       <c r="I966" s="2"/>
-      <c r="J966" s="67"/>
+      <c r="J966" s="59"/>
       <c r="K966" s="2"/>
     </row>
     <row r="967" spans="1:11" ht="15.6">
       <c r="A967" s="2"/>
       <c r="H967" s="2"/>
       <c r="I967" s="2"/>
-      <c r="J967" s="67"/>
+      <c r="J967" s="59"/>
       <c r="K967" s="2"/>
     </row>
     <row r="968" spans="1:11" ht="15.6">
       <c r="A968" s="2"/>
       <c r="H968" s="2"/>
       <c r="I968" s="2"/>
-      <c r="J968" s="67"/>
+      <c r="J968" s="59"/>
       <c r="K968" s="2"/>
     </row>
     <row r="969" spans="1:11" ht="15.6">
       <c r="A969" s="2"/>
       <c r="H969" s="2"/>
       <c r="I969" s="2"/>
-      <c r="J969" s="67"/>
+      <c r="J969" s="59"/>
       <c r="K969" s="2"/>
     </row>
     <row r="970" spans="1:11" ht="15.6">
       <c r="A970" s="2"/>
       <c r="H970" s="2"/>
       <c r="I970" s="2"/>
-      <c r="J970" s="67"/>
+      <c r="J970" s="59"/>
       <c r="K970" s="2"/>
     </row>
     <row r="971" spans="1:11" ht="15.6">
       <c r="A971" s="2"/>
       <c r="H971" s="2"/>
       <c r="I971" s="2"/>
-      <c r="J971" s="67"/>
+      <c r="J971" s="59"/>
       <c r="K971" s="2"/>
     </row>
     <row r="972" spans="1:11" ht="15.6">
       <c r="A972" s="2"/>
       <c r="H972" s="2"/>
       <c r="I972" s="2"/>
-      <c r="J972" s="67"/>
+      <c r="J972" s="59"/>
       <c r="K972" s="2"/>
     </row>
     <row r="973" spans="1:11" ht="15.6">
       <c r="A973" s="2"/>
       <c r="H973" s="2"/>
       <c r="I973" s="2"/>
-      <c r="J973" s="67"/>
+      <c r="J973" s="59"/>
       <c r="K973" s="2"/>
     </row>
     <row r="974" spans="1:11" ht="15.6">
       <c r="A974" s="2"/>
       <c r="H974" s="2"/>
       <c r="I974" s="2"/>
-      <c r="J974" s="67"/>
+      <c r="J974" s="59"/>
       <c r="K974" s="2"/>
     </row>
     <row r="975" spans="1:11" ht="15.6">
       <c r="A975" s="2"/>
       <c r="H975" s="2"/>
       <c r="I975" s="2"/>
-      <c r="J975" s="67"/>
+      <c r="J975" s="59"/>
       <c r="K975" s="2"/>
     </row>
     <row r="976" spans="1:11" ht="15.6">
       <c r="A976" s="2"/>
       <c r="H976" s="2"/>
       <c r="I976" s="2"/>
-      <c r="J976" s="67"/>
+      <c r="J976" s="59"/>
       <c r="K976" s="2"/>
     </row>
     <row r="977" spans="1:11" ht="15.6">
       <c r="A977" s="2"/>
       <c r="H977" s="2"/>
       <c r="I977" s="2"/>
-      <c r="J977" s="67"/>
+      <c r="J977" s="59"/>
       <c r="K977" s="2"/>
     </row>
     <row r="978" spans="1:11" ht="15.6">
       <c r="A978" s="2"/>
       <c r="H978" s="2"/>
       <c r="I978" s="2"/>
-      <c r="J978" s="67"/>
+      <c r="J978" s="59"/>
       <c r="K978" s="2"/>
     </row>
     <row r="979" spans="1:11" ht="15.6">
       <c r="A979" s="2"/>
       <c r="H979" s="2"/>
       <c r="I979" s="2"/>
-      <c r="J979" s="67"/>
+      <c r="J979" s="59"/>
       <c r="K979" s="2"/>
     </row>
     <row r="980" spans="1:11" ht="15.6">
       <c r="A980" s="2"/>
       <c r="H980" s="2"/>
       <c r="I980" s="2"/>
-      <c r="J980" s="67"/>
+      <c r="J980" s="59"/>
       <c r="K980" s="2"/>
     </row>
     <row r="981" spans="1:11" ht="15.6">
       <c r="A981" s="2"/>
       <c r="H981" s="2"/>
       <c r="I981" s="2"/>
-      <c r="J981" s="67"/>
+      <c r="J981" s="59"/>
       <c r="K981" s="2"/>
     </row>
     <row r="982" spans="1:11" ht="15.6">
       <c r="A982" s="2"/>
       <c r="H982" s="2"/>
       <c r="I982" s="2"/>
-      <c r="J982" s="67"/>
+      <c r="J982" s="59"/>
       <c r="K982" s="2"/>
     </row>
     <row r="983" spans="1:11" ht="15.6">
       <c r="A983" s="2"/>
       <c r="H983" s="2"/>
       <c r="I983" s="2"/>
-      <c r="J983" s="67"/>
+      <c r="J983" s="59"/>
       <c r="K983" s="2"/>
     </row>
     <row r="984" spans="1:11" ht="15.6">
       <c r="A984" s="2"/>
       <c r="H984" s="2"/>
       <c r="I984" s="2"/>
-      <c r="J984" s="67"/>
+      <c r="J984" s="59"/>
       <c r="K984" s="2"/>
     </row>
     <row r="985" spans="1:11" ht="15.6">
       <c r="A985" s="2"/>
       <c r="H985" s="2"/>
       <c r="I985" s="2"/>
-      <c r="J985" s="67"/>
+      <c r="J985" s="59"/>
       <c r="K985" s="2"/>
     </row>
     <row r="986" spans="1:11" ht="15.6">
       <c r="A986" s="2"/>
       <c r="H986" s="2"/>
       <c r="I986" s="2"/>
-      <c r="J986" s="67"/>
+      <c r="J986" s="59"/>
       <c r="K986" s="2"/>
     </row>
     <row r="987" spans="1:11" ht="15.6">
       <c r="A987" s="2"/>
       <c r="H987" s="2"/>
       <c r="I987" s="2"/>
-      <c r="J987" s="67"/>
+      <c r="J987" s="59"/>
       <c r="K987" s="2"/>
     </row>
     <row r="988" spans="1:11" ht="15.6">
       <c r="A988" s="2"/>
       <c r="H988" s="2"/>
       <c r="I988" s="2"/>
-      <c r="J988" s="67"/>
+      <c r="J988" s="59"/>
       <c r="K988" s="2"/>
     </row>
     <row r="989" spans="1:11" ht="15.6">
       <c r="A989" s="2"/>
       <c r="H989" s="2"/>
       <c r="I989" s="2"/>
-      <c r="J989" s="67"/>
+      <c r="J989" s="59"/>
       <c r="K989" s="2"/>
     </row>
     <row r="990" spans="1:11" ht="15.6">
       <c r="A990" s="2"/>
       <c r="H990" s="2"/>
       <c r="I990" s="2"/>
-      <c r="J990" s="67"/>
+      <c r="J990" s="59"/>
       <c r="K990" s="2"/>
     </row>
     <row r="991" spans="1:11" ht="15.6">
       <c r="A991" s="2"/>
       <c r="H991" s="2"/>
       <c r="I991" s="2"/>
-      <c r="J991" s="67"/>
+      <c r="J991" s="59"/>
       <c r="K991" s="2"/>
     </row>
     <row r="992" spans="1:11" ht="15.6">
       <c r="A992" s="2"/>
       <c r="H992" s="2"/>
       <c r="I992" s="2"/>
-      <c r="J992" s="67"/>
+      <c r="J992" s="59"/>
       <c r="K992" s="2"/>
     </row>
     <row r="993" spans="1:11" ht="15.6">
       <c r="A993" s="2"/>
       <c r="H993" s="2"/>
       <c r="I993" s="2"/>
-      <c r="J993" s="67"/>
+      <c r="J993" s="59"/>
       <c r="K993" s="2"/>
     </row>
     <row r="994" spans="1:11" ht="15.6">
       <c r="A994" s="2"/>
       <c r="H994" s="2"/>
       <c r="I994" s="2"/>
-      <c r="J994" s="67"/>
+      <c r="J994" s="59"/>
       <c r="K994" s="2"/>
     </row>
     <row r="995" spans="1:11" ht="15.6">
       <c r="A995" s="2"/>
       <c r="H995" s="2"/>
       <c r="I995" s="2"/>
-      <c r="J995" s="67"/>
+      <c r="J995" s="59"/>
       <c r="K995" s="2"/>
     </row>
     <row r="996" spans="1:11" ht="15.6">
       <c r="A996" s="2"/>
       <c r="H996" s="2"/>
       <c r="I996" s="2"/>
-      <c r="J996" s="67"/>
+      <c r="J996" s="59"/>
       <c r="K996" s="2"/>
     </row>
     <row r="997" spans="1:11" ht="15.6">
       <c r="A997" s="2"/>
       <c r="H997" s="2"/>
       <c r="I997" s="2"/>
-      <c r="J997" s="67"/>
+      <c r="J997" s="59"/>
       <c r="K997" s="2"/>
     </row>
     <row r="998" spans="1:11" ht="15.6">
       <c r="A998" s="2"/>
       <c r="H998" s="2"/>
       <c r="I998" s="2"/>
-      <c r="J998" s="67"/>
+      <c r="J998" s="59"/>
       <c r="K998" s="2"/>
     </row>
     <row r="999" spans="1:11" ht="15.6">
       <c r="A999" s="2"/>
       <c r="H999" s="2"/>
       <c r="I999" s="2"/>
-      <c r="J999" s="67"/>
+      <c r="J999" s="59"/>
       <c r="K999" s="2"/>
     </row>
     <row r="1000" spans="1:11" ht="15.6">
       <c r="A1000" s="2"/>
       <c r="H1000" s="2"/>
       <c r="I1000" s="2"/>
-      <c r="J1000" s="67"/>
+      <c r="J1000" s="59"/>
       <c r="K1000" s="2"/>
     </row>
     <row r="1001" spans="1:11" ht="15.6">
       <c r="A1001" s="2"/>
       <c r="H1001" s="2"/>
       <c r="I1001" s="2"/>
-      <c r="J1001" s="67"/>
+      <c r="J1001" s="59"/>
       <c r="K1001" s="2"/>
     </row>
     <row r="1002" spans="1:11" ht="15.6">
       <c r="A1002" s="2"/>
       <c r="H1002" s="2"/>
       <c r="I1002" s="2"/>
-      <c r="J1002" s="67"/>
+      <c r="J1002" s="59"/>
       <c r="K1002" s="2"/>
     </row>
     <row r="1003" spans="1:11" ht="15.6">
       <c r="A1003" s="2"/>
       <c r="H1003" s="2"/>
       <c r="I1003" s="2"/>
-      <c r="J1003" s="67"/>
+      <c r="J1003" s="59"/>
       <c r="K1003" s="2"/>
     </row>
     <row r="1004" spans="1:11" ht="15.6">
